--- a/PARSER_ETL/movimentação_produtos/tratados/xpt_tbl_movint_produto_out-2020_tratado.xlsx
+++ b/PARSER_ETL/movimentação_produtos/tratados/xpt_tbl_movint_produto_out-2020_tratado.xlsx
@@ -555,7 +555,7 @@
         </is>
       </c>
       <c r="P2" t="n">
-        <v>1547300017</v>
+        <v>5532982073</v>
       </c>
     </row>
     <row r="3">
@@ -603,7 +603,7 @@
         </is>
       </c>
       <c r="P3" t="n">
-        <v>6540465505</v>
+        <v>7603803860</v>
       </c>
     </row>
     <row r="4">
@@ -653,7 +653,7 @@
         </is>
       </c>
       <c r="P4" t="n">
-        <v>6125388807</v>
+        <v>2812214884</v>
       </c>
     </row>
     <row r="5">
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>7372944349</v>
+        <v>9390842909</v>
       </c>
     </row>
     <row r="6">
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>7846371041</v>
+        <v>1373507576</v>
       </c>
     </row>
     <row r="7">
@@ -797,7 +797,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>2708120814</v>
+        <v>1166555451</v>
       </c>
     </row>
     <row r="8">
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>2600132994</v>
+        <v>5790644735</v>
       </c>
     </row>
     <row r="9">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>6490020895</v>
+        <v>3166905570</v>
       </c>
     </row>
     <row r="10">
@@ -943,7 +943,7 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>7850304220</v>
+        <v>2173515227</v>
       </c>
     </row>
     <row r="11">
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>9197307075</v>
+        <v>6943501595</v>
       </c>
     </row>
     <row r="12">
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>764206974</v>
+        <v>9141828251</v>
       </c>
     </row>
     <row r="13">
@@ -1087,7 +1087,7 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>7144125611</v>
+        <v>2064099279</v>
       </c>
     </row>
     <row r="14">
@@ -1135,7 +1135,7 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>6646456310</v>
+        <v>7019240076</v>
       </c>
     </row>
     <row r="15">
@@ -1183,7 +1183,7 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3113510477</v>
+        <v>342148004</v>
       </c>
     </row>
     <row r="16">
@@ -1233,7 +1233,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>8265934091</v>
+        <v>4052398060</v>
       </c>
     </row>
     <row r="17">
@@ -1283,7 +1283,7 @@
         </is>
       </c>
       <c r="P17" t="n">
-        <v>9728005448</v>
+        <v>1742142685</v>
       </c>
     </row>
     <row r="18">
@@ -1335,7 +1335,7 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>6386988529</v>
+        <v>6162890178</v>
       </c>
     </row>
     <row r="19">
@@ -1383,7 +1383,7 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>4045372450</v>
+        <v>9233966190</v>
       </c>
     </row>
     <row r="20">
@@ -1433,7 +1433,7 @@
         </is>
       </c>
       <c r="P20" t="n">
-        <v>5974179498</v>
+        <v>5012333761</v>
       </c>
     </row>
     <row r="21">
@@ -1483,7 +1483,7 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>9965468773</v>
+        <v>4908737576</v>
       </c>
     </row>
     <row r="22">
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="P22" t="n">
-        <v>7058681917</v>
+        <v>598445774</v>
       </c>
     </row>
     <row r="23">
@@ -1581,7 +1581,7 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>6460422919</v>
+        <v>3600163894</v>
       </c>
     </row>
     <row r="24">
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>8201489091</v>
+        <v>1978728002</v>
       </c>
     </row>
     <row r="25">
@@ -1677,7 +1677,7 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>2005656076</v>
+        <v>5398893221</v>
       </c>
     </row>
     <row r="26">
@@ -1727,7 +1727,7 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>5179362161</v>
+        <v>9201707180</v>
       </c>
     </row>
     <row r="27">
@@ -1775,7 +1775,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3345659964</v>
+        <v>5945328017</v>
       </c>
     </row>
     <row r="28">
@@ -1823,7 +1823,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>1476022630</v>
+        <v>5236402404</v>
       </c>
     </row>
     <row r="29">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="P29" t="n">
-        <v>5085416746</v>
+        <v>8596510654</v>
       </c>
     </row>
     <row r="30">
@@ -1919,7 +1919,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>8470132832</v>
+        <v>3160687507</v>
       </c>
     </row>
     <row r="31">
@@ -1967,7 +1967,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>7935256125</v>
+        <v>1534230441</v>
       </c>
     </row>
     <row r="32">
@@ -2017,7 +2017,7 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>7128145705</v>
+        <v>1805742644</v>
       </c>
     </row>
     <row r="33">
@@ -2067,7 +2067,7 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3613891554</v>
+        <v>1526992787</v>
       </c>
     </row>
     <row r="34">
@@ -2115,7 +2115,7 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>6681801845</v>
+        <v>601858411</v>
       </c>
     </row>
     <row r="35">
@@ -2163,7 +2163,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>8706481071</v>
+        <v>9528551028</v>
       </c>
     </row>
     <row r="36">
@@ -2211,7 +2211,7 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>595932071</v>
+        <v>1639623198</v>
       </c>
     </row>
     <row r="37">
@@ -2261,7 +2261,7 @@
         </is>
       </c>
       <c r="P37" t="n">
-        <v>2309017319</v>
+        <v>1058105943</v>
       </c>
     </row>
     <row r="38">
@@ -2309,7 +2309,7 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3681765027</v>
+        <v>8258090121</v>
       </c>
     </row>
     <row r="39">
@@ -2357,7 +2357,7 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>2553546248</v>
+        <v>5763743829</v>
       </c>
     </row>
     <row r="40">
@@ -2405,7 +2405,7 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>8237034833</v>
+        <v>5823778022</v>
       </c>
     </row>
     <row r="41">
@@ -2455,7 +2455,7 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>2032717022</v>
+        <v>6368943417</v>
       </c>
     </row>
     <row r="42">
@@ -2503,7 +2503,7 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>6160146578</v>
+        <v>1373668749</v>
       </c>
     </row>
     <row r="43">
@@ -2551,7 +2551,7 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>2382907793</v>
+        <v>4702735472</v>
       </c>
     </row>
     <row r="44">
@@ -2601,7 +2601,7 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>1892526776</v>
+        <v>1898190070</v>
       </c>
     </row>
     <row r="45">
@@ -2649,7 +2649,7 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3835244506</v>
+        <v>6690429213</v>
       </c>
     </row>
     <row r="46">
@@ -2697,7 +2697,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>2548509101</v>
+        <v>9755605494</v>
       </c>
     </row>
     <row r="47">
@@ -2745,7 +2745,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>1643801379</v>
+        <v>160331845</v>
       </c>
     </row>
     <row r="48">
@@ -2793,7 +2793,7 @@
         </is>
       </c>
       <c r="P48" t="n">
-        <v>5308364883</v>
+        <v>2493345966</v>
       </c>
     </row>
     <row r="49">
@@ -2841,7 +2841,7 @@
         </is>
       </c>
       <c r="P49" t="n">
-        <v>1522403788</v>
+        <v>6861592133</v>
       </c>
     </row>
     <row r="50">
@@ -2889,7 +2889,7 @@
         </is>
       </c>
       <c r="P50" t="n">
-        <v>2938456965</v>
+        <v>6431511045</v>
       </c>
     </row>
     <row r="51">
@@ -2937,7 +2937,7 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>8507434372</v>
+        <v>4443382689</v>
       </c>
     </row>
     <row r="52">
@@ -2985,7 +2985,7 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>2961417850</v>
+        <v>4728579276</v>
       </c>
     </row>
     <row r="53">
@@ -3033,7 +3033,7 @@
         </is>
       </c>
       <c r="P53" t="n">
-        <v>9118625003</v>
+        <v>9871876866</v>
       </c>
     </row>
     <row r="54">
@@ -3081,7 +3081,7 @@
         </is>
       </c>
       <c r="P54" t="n">
-        <v>9230821142</v>
+        <v>6706575336</v>
       </c>
     </row>
     <row r="55">
@@ -3129,7 +3129,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>5709006270</v>
+        <v>8902697133</v>
       </c>
     </row>
     <row r="56">
@@ -3177,7 +3177,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>7673189501</v>
+        <v>8170311079</v>
       </c>
     </row>
     <row r="57">
@@ -3225,7 +3225,7 @@
         </is>
       </c>
       <c r="P57" t="n">
-        <v>8384422203</v>
+        <v>9661755717</v>
       </c>
     </row>
     <row r="58">
@@ -3275,7 +3275,7 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>1615855723</v>
+        <v>2363991647</v>
       </c>
     </row>
     <row r="59">
@@ -3325,7 +3325,7 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>8528535595</v>
+        <v>2510886325</v>
       </c>
     </row>
     <row r="60">
@@ -3377,7 +3377,7 @@
         </is>
       </c>
       <c r="P60" t="n">
-        <v>9167777266</v>
+        <v>2171604384</v>
       </c>
     </row>
     <row r="61">
@@ -3425,7 +3425,7 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3355279173</v>
+        <v>1614854633</v>
       </c>
     </row>
     <row r="62">
@@ -3473,7 +3473,7 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>4628468240</v>
+        <v>5623527732</v>
       </c>
     </row>
     <row r="63">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="P63" t="n">
-        <v>9239841898</v>
+        <v>8961396925</v>
       </c>
     </row>
     <row r="64">
@@ -3569,7 +3569,7 @@
         </is>
       </c>
       <c r="P64" t="n">
-        <v>7334004877</v>
+        <v>5465793354</v>
       </c>
     </row>
     <row r="65">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="P65" t="n">
-        <v>2865813999</v>
+        <v>8881818042</v>
       </c>
     </row>
     <row r="66">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="P66" t="n">
-        <v>4758567940</v>
+        <v>2408050215</v>
       </c>
     </row>
     <row r="67">
@@ -3719,7 +3719,7 @@
         </is>
       </c>
       <c r="P67" t="n">
-        <v>6178187514</v>
+        <v>5749924864</v>
       </c>
     </row>
     <row r="68">
@@ -3767,7 +3767,7 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>5233335636</v>
+        <v>7960369144</v>
       </c>
     </row>
     <row r="69">
@@ -3815,7 +3815,7 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>4763473082</v>
+        <v>397125974</v>
       </c>
     </row>
     <row r="70">
@@ -3863,7 +3863,7 @@
         </is>
       </c>
       <c r="P70" t="n">
-        <v>8233138224</v>
+        <v>4157301497</v>
       </c>
     </row>
     <row r="71">
@@ -3911,7 +3911,7 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>9877996614</v>
+        <v>7618031499</v>
       </c>
     </row>
     <row r="72">
@@ -3959,7 +3959,7 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>5812465016</v>
+        <v>1009333013</v>
       </c>
     </row>
     <row r="73">
@@ -4007,7 +4007,7 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>937483461</v>
+        <v>2293469365</v>
       </c>
     </row>
     <row r="74">
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>5020994450</v>
+        <v>154434089</v>
       </c>
     </row>
     <row r="75">
@@ -4103,7 +4103,7 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3227717744</v>
+        <v>9153302076</v>
       </c>
     </row>
     <row r="76">
@@ -4153,7 +4153,7 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3101319600</v>
+        <v>6486202568</v>
       </c>
     </row>
     <row r="77">
@@ -4203,7 +4203,7 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>1081832612</v>
+        <v>4913399337</v>
       </c>
     </row>
     <row r="78">
@@ -4251,7 +4251,7 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>585092879</v>
+        <v>908255873</v>
       </c>
     </row>
     <row r="79">
@@ -4299,7 +4299,7 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3701372527</v>
+        <v>3864360746</v>
       </c>
     </row>
     <row r="80">
@@ -4347,7 +4347,7 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>5929457155</v>
+        <v>9642202749</v>
       </c>
     </row>
     <row r="81">
@@ -4399,7 +4399,7 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3617972547</v>
+        <v>548409884</v>
       </c>
     </row>
     <row r="82">
@@ -4449,7 +4449,7 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>813751933</v>
+        <v>4511869442</v>
       </c>
     </row>
     <row r="83">
@@ -4497,7 +4497,7 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>2745410929</v>
+        <v>3707746458</v>
       </c>
     </row>
     <row r="84">
@@ -4545,7 +4545,7 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>2238526059</v>
+        <v>625066103</v>
       </c>
     </row>
     <row r="85">
@@ -4593,7 +4593,7 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>1882905261</v>
+        <v>2798287263</v>
       </c>
     </row>
     <row r="86">
@@ -4641,7 +4641,7 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>6425365198</v>
+        <v>6724096089</v>
       </c>
     </row>
     <row r="87">
@@ -4689,7 +4689,7 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>6330804613</v>
+        <v>9787889948</v>
       </c>
     </row>
     <row r="88">
@@ -4737,7 +4737,7 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>2377140620</v>
+        <v>8192711063</v>
       </c>
     </row>
     <row r="89">
@@ -4787,7 +4787,7 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>2782084560</v>
+        <v>828532747</v>
       </c>
     </row>
     <row r="90">
@@ -4835,7 +4835,7 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3184495530</v>
+        <v>7509311695</v>
       </c>
     </row>
     <row r="91">
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>8396553744</v>
+        <v>1916430729</v>
       </c>
     </row>
     <row r="92">
@@ -4937,7 +4937,7 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>4865054232</v>
+        <v>701070417</v>
       </c>
     </row>
     <row r="93">
@@ -4985,7 +4985,7 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>9412478292</v>
+        <v>572755922</v>
       </c>
     </row>
     <row r="94">
@@ -5033,7 +5033,7 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>7753593839</v>
+        <v>933312651</v>
       </c>
     </row>
     <row r="95">
@@ -5081,7 +5081,7 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>7524084510</v>
+        <v>2516412443</v>
       </c>
     </row>
     <row r="96">
@@ -5129,7 +5129,7 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>1306122779</v>
+        <v>9560049895</v>
       </c>
     </row>
     <row r="97">
@@ -5177,7 +5177,7 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>4591534189</v>
+        <v>1981202442</v>
       </c>
     </row>
     <row r="98">
@@ -5227,7 +5227,7 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>1340391767</v>
+        <v>6618129608</v>
       </c>
     </row>
     <row r="99">
@@ -5275,7 +5275,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>4853286288</v>
+        <v>9170695024</v>
       </c>
     </row>
     <row r="100">
@@ -5325,7 +5325,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>9535257007</v>
+        <v>8165874026</v>
       </c>
     </row>
     <row r="101">
@@ -5373,7 +5373,7 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>9693179780</v>
+        <v>2522285309</v>
       </c>
     </row>
     <row r="102">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>9968131633</v>
+        <v>1333267549</v>
       </c>
     </row>
     <row r="103">
@@ -5469,7 +5469,7 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>8233148523</v>
+        <v>2516314900</v>
       </c>
     </row>
     <row r="104">
@@ -5519,7 +5519,7 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>2449039318</v>
+        <v>7644799294</v>
       </c>
     </row>
     <row r="105">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>1312594296</v>
+        <v>8613813169</v>
       </c>
     </row>
     <row r="106">
@@ -5619,7 +5619,7 @@
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3591165284</v>
+        <v>7125490817</v>
       </c>
     </row>
     <row r="107">
@@ -5667,7 +5667,7 @@
         </is>
       </c>
       <c r="P107" t="n">
-        <v>4694363747</v>
+        <v>572592988</v>
       </c>
     </row>
     <row r="108">
@@ -5715,7 +5715,7 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>2016181402</v>
+        <v>6212008109</v>
       </c>
     </row>
     <row r="109">
@@ -5763,7 +5763,7 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>1397169521</v>
+        <v>8105127813</v>
       </c>
     </row>
     <row r="110">
@@ -5811,7 +5811,7 @@
         </is>
       </c>
       <c r="P110" t="n">
-        <v>7719793922</v>
+        <v>8086856818</v>
       </c>
     </row>
     <row r="111">
@@ -5861,7 +5861,7 @@
         </is>
       </c>
       <c r="P111" t="n">
-        <v>8698070363</v>
+        <v>7385643199</v>
       </c>
     </row>
     <row r="112">
@@ -5909,7 +5909,7 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>6642827932</v>
+        <v>2437550699</v>
       </c>
     </row>
     <row r="113">
@@ -5957,7 +5957,7 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>8064299301</v>
+        <v>1665849820</v>
       </c>
     </row>
     <row r="114">
@@ -6005,7 +6005,7 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3413672888</v>
+        <v>529046772</v>
       </c>
     </row>
     <row r="115">
@@ -6053,7 +6053,7 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>8883326920</v>
+        <v>3893968867</v>
       </c>
     </row>
     <row r="116">
@@ -6101,7 +6101,7 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>4632068313</v>
+        <v>932829214</v>
       </c>
     </row>
     <row r="117">
@@ -6149,7 +6149,7 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>8849990099</v>
+        <v>5117192991</v>
       </c>
     </row>
     <row r="118">
@@ -6197,7 +6197,7 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>8541303249</v>
+        <v>6787381109</v>
       </c>
     </row>
     <row r="119">
@@ -6245,7 +6245,7 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>5288114379</v>
+        <v>8316451203</v>
       </c>
     </row>
     <row r="120">
@@ -6293,7 +6293,7 @@
         </is>
       </c>
       <c r="P120" t="n">
-        <v>4329417684</v>
+        <v>3908826041</v>
       </c>
     </row>
     <row r="121">
@@ -6341,7 +6341,7 @@
         </is>
       </c>
       <c r="P121" t="n">
-        <v>9079833725</v>
+        <v>141454902</v>
       </c>
     </row>
     <row r="122">
@@ -6389,7 +6389,7 @@
         </is>
       </c>
       <c r="P122" t="n">
-        <v>6523784182</v>
+        <v>9813935419</v>
       </c>
     </row>
     <row r="123">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>1856371686</v>
+        <v>4159047004</v>
       </c>
     </row>
     <row r="124">
@@ -6485,7 +6485,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>1953240747</v>
+        <v>3139435735</v>
       </c>
     </row>
     <row r="125">
@@ -6533,7 +6533,7 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>2702419788</v>
+        <v>8815663677</v>
       </c>
     </row>
     <row r="126">
@@ -6581,7 +6581,7 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>8870269221</v>
+        <v>340800063</v>
       </c>
     </row>
     <row r="127">
@@ -6629,7 +6629,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3013139782</v>
+        <v>2527304158</v>
       </c>
     </row>
     <row r="128">
@@ -6679,7 +6679,7 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>9727654313</v>
+        <v>2580963305</v>
       </c>
     </row>
     <row r="129">
@@ -6729,7 +6729,7 @@
         </is>
       </c>
       <c r="P129" t="n">
-        <v>208903535</v>
+        <v>2725507108</v>
       </c>
     </row>
     <row r="130">
@@ -6777,7 +6777,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>2122052198</v>
+        <v>7407123802</v>
       </c>
     </row>
     <row r="131">
@@ -6825,7 +6825,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>2765075358</v>
+        <v>1564282938</v>
       </c>
     </row>
     <row r="132">
@@ -6873,7 +6873,7 @@
         </is>
       </c>
       <c r="P132" t="n">
-        <v>7787760381</v>
+        <v>1323091301</v>
       </c>
     </row>
     <row r="133">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="P133" t="n">
-        <v>4511709121</v>
+        <v>8101223615</v>
       </c>
     </row>
     <row r="134">
@@ -6969,7 +6969,7 @@
         </is>
       </c>
       <c r="P134" t="n">
-        <v>9230034022</v>
+        <v>2436299199</v>
       </c>
     </row>
     <row r="135">
@@ -7019,7 +7019,7 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>1256715228</v>
+        <v>7493424379</v>
       </c>
     </row>
     <row r="136">
@@ -7067,7 +7067,7 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>1983124008</v>
+        <v>5780453693</v>
       </c>
     </row>
     <row r="137">
@@ -7119,7 +7119,7 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>3994050867</v>
+        <v>2189131317</v>
       </c>
     </row>
     <row r="138">
@@ -7167,7 +7167,7 @@
         </is>
       </c>
       <c r="P138" t="n">
-        <v>5482403535</v>
+        <v>9201052410</v>
       </c>
     </row>
     <row r="139">
@@ -7215,7 +7215,7 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>821428583</v>
+        <v>4064227084</v>
       </c>
     </row>
     <row r="140">
@@ -7265,7 +7265,7 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>5576727499</v>
+        <v>9127701090</v>
       </c>
     </row>
     <row r="141">
@@ -7313,7 +7313,7 @@
         </is>
       </c>
       <c r="P141" t="n">
-        <v>1864939580</v>
+        <v>6760548292</v>
       </c>
     </row>
     <row r="142">
@@ -7361,7 +7361,7 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>9038605958</v>
+        <v>4711433907</v>
       </c>
     </row>
     <row r="143">
@@ -7411,7 +7411,7 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>3306838854</v>
+        <v>2296127357</v>
       </c>
     </row>
     <row r="144">
@@ -7459,7 +7459,7 @@
         </is>
       </c>
       <c r="P144" t="n">
-        <v>6432030423</v>
+        <v>727579281</v>
       </c>
     </row>
     <row r="145">
@@ -7509,7 +7509,7 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>1087577372</v>
+        <v>596145674</v>
       </c>
     </row>
     <row r="146">
@@ -7557,7 +7557,7 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>5758176986</v>
+        <v>4139542996</v>
       </c>
     </row>
     <row r="147">
@@ -7605,7 +7605,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>6280532478</v>
+        <v>4555269328</v>
       </c>
     </row>
     <row r="148">
@@ -7653,7 +7653,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>9607833402</v>
+        <v>8639014919</v>
       </c>
     </row>
     <row r="149">
@@ -7701,7 +7701,7 @@
         </is>
       </c>
       <c r="P149" t="n">
-        <v>6711835159</v>
+        <v>5713079520</v>
       </c>
     </row>
     <row r="150">
@@ -7749,7 +7749,7 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>3178671785</v>
+        <v>350802572</v>
       </c>
     </row>
     <row r="151">
@@ -7799,7 +7799,7 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>3543461027</v>
+        <v>8229379491</v>
       </c>
     </row>
     <row r="152">
@@ -7847,7 +7847,7 @@
         </is>
       </c>
       <c r="P152" t="n">
-        <v>6003901184</v>
+        <v>2046986035</v>
       </c>
     </row>
     <row r="153">
@@ -7895,7 +7895,7 @@
         </is>
       </c>
       <c r="P153" t="n">
-        <v>3357985599</v>
+        <v>3062304036</v>
       </c>
     </row>
     <row r="154">
@@ -7943,7 +7943,7 @@
         </is>
       </c>
       <c r="P154" t="n">
-        <v>3998986762</v>
+        <v>7679115317</v>
       </c>
     </row>
     <row r="155">
@@ -7993,7 +7993,7 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>4529737110</v>
+        <v>2742689790</v>
       </c>
     </row>
     <row r="156">
@@ -8041,7 +8041,7 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>1329182632</v>
+        <v>8114812548</v>
       </c>
     </row>
     <row r="157">
@@ -8093,7 +8093,7 @@
         </is>
       </c>
       <c r="P157" t="n">
-        <v>9613405753</v>
+        <v>5363674138</v>
       </c>
     </row>
     <row r="158">
@@ -8141,7 +8141,7 @@
         </is>
       </c>
       <c r="P158" t="n">
-        <v>4822041342</v>
+        <v>7583923046</v>
       </c>
     </row>
     <row r="159">
@@ -8189,7 +8189,7 @@
         </is>
       </c>
       <c r="P159" t="n">
-        <v>7779600747</v>
+        <v>3074391693</v>
       </c>
     </row>
     <row r="160">
@@ -8237,7 +8237,7 @@
         </is>
       </c>
       <c r="P160" t="n">
-        <v>5185460424</v>
+        <v>9843051741</v>
       </c>
     </row>
     <row r="161">
@@ -8285,7 +8285,7 @@
         </is>
       </c>
       <c r="P161" t="n">
-        <v>5021313724</v>
+        <v>1835834881</v>
       </c>
     </row>
     <row r="162">
@@ -8333,7 +8333,7 @@
         </is>
       </c>
       <c r="P162" t="n">
-        <v>8563938024</v>
+        <v>8023721441</v>
       </c>
     </row>
     <row r="163">
@@ -8381,7 +8381,7 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>9751239641</v>
+        <v>9177977958</v>
       </c>
     </row>
     <row r="164">
@@ -8429,7 +8429,7 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>8247510764</v>
+        <v>6175316151</v>
       </c>
     </row>
     <row r="165">
@@ -8477,7 +8477,7 @@
         </is>
       </c>
       <c r="P165" t="n">
-        <v>8744870351</v>
+        <v>8217738530</v>
       </c>
     </row>
     <row r="166">
@@ -8525,7 +8525,7 @@
         </is>
       </c>
       <c r="P166" t="n">
-        <v>4967958323</v>
+        <v>854215862</v>
       </c>
     </row>
     <row r="167">
@@ -8573,7 +8573,7 @@
         </is>
       </c>
       <c r="P167" t="n">
-        <v>6515379467</v>
+        <v>15373457</v>
       </c>
     </row>
     <row r="168">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="P168" t="n">
-        <v>7178620635</v>
+        <v>9295818320</v>
       </c>
     </row>
     <row r="169">
@@ -8669,7 +8669,7 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>1009881046</v>
+        <v>1595611259</v>
       </c>
     </row>
     <row r="170">
@@ -8717,7 +8717,7 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>2826173198</v>
+        <v>1660063103</v>
       </c>
     </row>
     <row r="171">
@@ -8765,7 +8765,7 @@
         </is>
       </c>
       <c r="P171" t="n">
-        <v>6789866449</v>
+        <v>6894889092</v>
       </c>
     </row>
     <row r="172">
@@ -8813,7 +8813,7 @@
         </is>
       </c>
       <c r="P172" t="n">
-        <v>2718768644</v>
+        <v>7600476635</v>
       </c>
     </row>
     <row r="173">
@@ -8861,7 +8861,7 @@
         </is>
       </c>
       <c r="P173" t="n">
-        <v>5842256686</v>
+        <v>4495575338</v>
       </c>
     </row>
     <row r="174">
@@ -8909,7 +8909,7 @@
         </is>
       </c>
       <c r="P174" t="n">
-        <v>5448229348</v>
+        <v>9900505469</v>
       </c>
     </row>
     <row r="175">
@@ -8957,7 +8957,7 @@
         </is>
       </c>
       <c r="P175" t="n">
-        <v>1037427865</v>
+        <v>9226634789</v>
       </c>
     </row>
     <row r="176">
@@ -9007,7 +9007,7 @@
         </is>
       </c>
       <c r="P176" t="n">
-        <v>117492744</v>
+        <v>2047870768</v>
       </c>
     </row>
     <row r="177">
@@ -9057,7 +9057,7 @@
         </is>
       </c>
       <c r="P177" t="n">
-        <v>746948935</v>
+        <v>3290613231</v>
       </c>
     </row>
     <row r="178">
@@ -9105,7 +9105,7 @@
         </is>
       </c>
       <c r="P178" t="n">
-        <v>3210993540</v>
+        <v>5668605382</v>
       </c>
     </row>
     <row r="179">
@@ -9155,7 +9155,7 @@
         </is>
       </c>
       <c r="P179" t="n">
-        <v>9637051413</v>
+        <v>462886296</v>
       </c>
     </row>
     <row r="180">
@@ -9203,7 +9203,7 @@
         </is>
       </c>
       <c r="P180" t="n">
-        <v>4616315004</v>
+        <v>9866449653</v>
       </c>
     </row>
     <row r="181">
@@ -9251,7 +9251,7 @@
         </is>
       </c>
       <c r="P181" t="n">
-        <v>1405427238</v>
+        <v>853145884</v>
       </c>
     </row>
     <row r="182">
@@ -9299,7 +9299,7 @@
         </is>
       </c>
       <c r="P182" t="n">
-        <v>1123541699</v>
+        <v>9497452969</v>
       </c>
     </row>
     <row r="183">
@@ -9347,7 +9347,7 @@
         </is>
       </c>
       <c r="P183" t="n">
-        <v>7555889486</v>
+        <v>2128160601</v>
       </c>
     </row>
     <row r="184">
@@ -9395,7 +9395,7 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>7679669126</v>
+        <v>9976361094</v>
       </c>
     </row>
     <row r="185">
@@ -9443,7 +9443,7 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>1643542914</v>
+        <v>5753292526</v>
       </c>
     </row>
     <row r="186">
@@ -9491,7 +9491,7 @@
         </is>
       </c>
       <c r="P186" t="n">
-        <v>5406863969</v>
+        <v>4488036822</v>
       </c>
     </row>
     <row r="187">
@@ -9539,7 +9539,7 @@
         </is>
       </c>
       <c r="P187" t="n">
-        <v>3546056613</v>
+        <v>8730496118</v>
       </c>
     </row>
     <row r="188">
@@ -9589,7 +9589,7 @@
         </is>
       </c>
       <c r="P188" t="n">
-        <v>7401767038</v>
+        <v>8494005140</v>
       </c>
     </row>
     <row r="189">
@@ -9637,7 +9637,7 @@
         </is>
       </c>
       <c r="P189" t="n">
-        <v>3156034590</v>
+        <v>5572015475</v>
       </c>
     </row>
     <row r="190">
@@ -9685,7 +9685,7 @@
         </is>
       </c>
       <c r="P190" t="n">
-        <v>8104489617</v>
+        <v>7634860386</v>
       </c>
     </row>
     <row r="191">
@@ -9735,7 +9735,7 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>7725664650</v>
+        <v>1190788539</v>
       </c>
     </row>
     <row r="192">
@@ -9783,7 +9783,7 @@
         </is>
       </c>
       <c r="P192" t="n">
-        <v>2937572739</v>
+        <v>8561102487</v>
       </c>
     </row>
     <row r="193">
@@ -9831,7 +9831,7 @@
         </is>
       </c>
       <c r="P193" t="n">
-        <v>8567091560</v>
+        <v>9379455824</v>
       </c>
     </row>
     <row r="194">
@@ -9879,7 +9879,7 @@
         </is>
       </c>
       <c r="P194" t="n">
-        <v>1247030173</v>
+        <v>5836261916</v>
       </c>
     </row>
     <row r="195">
@@ -9927,7 +9927,7 @@
         </is>
       </c>
       <c r="P195" t="n">
-        <v>8137273885</v>
+        <v>5009508610</v>
       </c>
     </row>
     <row r="196">
@@ -9975,7 +9975,7 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>4459604438</v>
+        <v>2217279471</v>
       </c>
     </row>
     <row r="197">
@@ -10023,7 +10023,7 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>1010496652</v>
+        <v>5889008442</v>
       </c>
     </row>
     <row r="198">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="P198" t="n">
-        <v>3974422080</v>
+        <v>7270540414</v>
       </c>
     </row>
     <row r="199">
@@ -10119,7 +10119,7 @@
         </is>
       </c>
       <c r="P199" t="n">
-        <v>1148047906</v>
+        <v>9020694104</v>
       </c>
     </row>
     <row r="200">
@@ -10167,7 +10167,7 @@
         </is>
       </c>
       <c r="P200" t="n">
-        <v>5494557862</v>
+        <v>7790043987</v>
       </c>
     </row>
     <row r="201">
@@ -10215,7 +10215,7 @@
         </is>
       </c>
       <c r="P201" t="n">
-        <v>3229517428</v>
+        <v>6099228244</v>
       </c>
     </row>
     <row r="202">
@@ -10263,7 +10263,7 @@
         </is>
       </c>
       <c r="P202" t="n">
-        <v>1947552369</v>
+        <v>6128847683</v>
       </c>
     </row>
     <row r="203">
@@ -10311,7 +10311,7 @@
         </is>
       </c>
       <c r="P203" t="n">
-        <v>5679149161</v>
+        <v>6456869834</v>
       </c>
     </row>
     <row r="204">
@@ -10359,7 +10359,7 @@
         </is>
       </c>
       <c r="P204" t="n">
-        <v>8753585796</v>
+        <v>3417561899</v>
       </c>
     </row>
     <row r="205">
@@ -10407,7 +10407,7 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>1003738495</v>
+        <v>5246440893</v>
       </c>
     </row>
     <row r="206">
@@ -10457,7 +10457,7 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>686539755</v>
+        <v>1758610776</v>
       </c>
     </row>
     <row r="207">
@@ -10505,7 +10505,7 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>7906236580</v>
+        <v>5965065106</v>
       </c>
     </row>
     <row r="208">
@@ -10553,7 +10553,7 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>2226771192</v>
+        <v>7733702423</v>
       </c>
     </row>
     <row r="209">
@@ -10601,7 +10601,7 @@
         </is>
       </c>
       <c r="P209" t="n">
-        <v>8723706309</v>
+        <v>6101957740</v>
       </c>
     </row>
     <row r="210">
@@ -10649,7 +10649,7 @@
         </is>
       </c>
       <c r="P210" t="n">
-        <v>6771268806</v>
+        <v>1923547410</v>
       </c>
     </row>
     <row r="211">
@@ -10699,7 +10699,7 @@
         </is>
       </c>
       <c r="P211" t="n">
-        <v>2989769221</v>
+        <v>6362512672</v>
       </c>
     </row>
     <row r="212">
@@ -10747,7 +10747,7 @@
         </is>
       </c>
       <c r="P212" t="n">
-        <v>5807631008</v>
+        <v>6053392470</v>
       </c>
     </row>
     <row r="213">
@@ -10797,7 +10797,7 @@
         </is>
       </c>
       <c r="P213" t="n">
-        <v>993766706</v>
+        <v>6274425287</v>
       </c>
     </row>
     <row r="214">
@@ -10845,7 +10845,7 @@
         </is>
       </c>
       <c r="P214" t="n">
-        <v>9806588110</v>
+        <v>9258653563</v>
       </c>
     </row>
     <row r="215">
@@ -10893,7 +10893,7 @@
         </is>
       </c>
       <c r="P215" t="n">
-        <v>8691574383</v>
+        <v>5031602710</v>
       </c>
     </row>
     <row r="216">
@@ -10941,7 +10941,7 @@
         </is>
       </c>
       <c r="P216" t="n">
-        <v>5110894599</v>
+        <v>38251443</v>
       </c>
     </row>
     <row r="217">
@@ -10989,7 +10989,7 @@
         </is>
       </c>
       <c r="P217" t="n">
-        <v>5657130170</v>
+        <v>8960455515</v>
       </c>
     </row>
     <row r="218">
@@ -11037,7 +11037,7 @@
         </is>
       </c>
       <c r="P218" t="n">
-        <v>2141720559</v>
+        <v>8913249970</v>
       </c>
     </row>
     <row r="219">
@@ -11087,7 +11087,7 @@
         </is>
       </c>
       <c r="P219" t="n">
-        <v>1840006557</v>
+        <v>908033356</v>
       </c>
     </row>
     <row r="220">
@@ -11135,7 +11135,7 @@
         </is>
       </c>
       <c r="P220" t="n">
-        <v>9248044535</v>
+        <v>7283711022</v>
       </c>
     </row>
     <row r="221">
@@ -11183,7 +11183,7 @@
         </is>
       </c>
       <c r="P221" t="n">
-        <v>6058359727</v>
+        <v>1058618725</v>
       </c>
     </row>
     <row r="222">
@@ -11231,7 +11231,7 @@
         </is>
       </c>
       <c r="P222" t="n">
-        <v>938051092</v>
+        <v>7904473527</v>
       </c>
     </row>
     <row r="223">
@@ -11279,7 +11279,7 @@
         </is>
       </c>
       <c r="P223" t="n">
-        <v>3460057701</v>
+        <v>6672406782</v>
       </c>
     </row>
     <row r="224">
@@ -11327,7 +11327,7 @@
         </is>
       </c>
       <c r="P224" t="n">
-        <v>768355110</v>
+        <v>4057085305</v>
       </c>
     </row>
     <row r="225">
@@ -11375,7 +11375,7 @@
         </is>
       </c>
       <c r="P225" t="n">
-        <v>8383213216</v>
+        <v>9302095251</v>
       </c>
     </row>
     <row r="226">
@@ -11423,7 +11423,7 @@
         </is>
       </c>
       <c r="P226" t="n">
-        <v>1420089481</v>
+        <v>8322941095</v>
       </c>
     </row>
     <row r="227">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="P227" t="n">
-        <v>5617343509</v>
+        <v>8794610807</v>
       </c>
     </row>
     <row r="228">
@@ -11519,7 +11519,7 @@
         </is>
       </c>
       <c r="P228" t="n">
-        <v>8031632317</v>
+        <v>8821709056</v>
       </c>
     </row>
     <row r="229">
@@ -11567,7 +11567,7 @@
         </is>
       </c>
       <c r="P229" t="n">
-        <v>3539979319</v>
+        <v>561554672</v>
       </c>
     </row>
     <row r="230">
@@ -11615,7 +11615,7 @@
         </is>
       </c>
       <c r="P230" t="n">
-        <v>4260289627</v>
+        <v>4614265424</v>
       </c>
     </row>
     <row r="231">
@@ -11663,7 +11663,7 @@
         </is>
       </c>
       <c r="P231" t="n">
-        <v>5444944016</v>
+        <v>8392419238</v>
       </c>
     </row>
     <row r="232">
@@ -11711,7 +11711,7 @@
         </is>
       </c>
       <c r="P232" t="n">
-        <v>8474946175</v>
+        <v>836458672</v>
       </c>
     </row>
     <row r="233">
@@ -11759,7 +11759,7 @@
         </is>
       </c>
       <c r="P233" t="n">
-        <v>6165384301</v>
+        <v>5426866659</v>
       </c>
     </row>
     <row r="234">
@@ -11807,7 +11807,7 @@
         </is>
       </c>
       <c r="P234" t="n">
-        <v>2163200460</v>
+        <v>4340964932</v>
       </c>
     </row>
     <row r="235">
@@ -11855,7 +11855,7 @@
         </is>
       </c>
       <c r="P235" t="n">
-        <v>7273792999</v>
+        <v>4447880713</v>
       </c>
     </row>
     <row r="236">
@@ -11903,7 +11903,7 @@
         </is>
       </c>
       <c r="P236" t="n">
-        <v>5246694690</v>
+        <v>5831129150</v>
       </c>
     </row>
     <row r="237">
@@ -11951,7 +11951,7 @@
         </is>
       </c>
       <c r="P237" t="n">
-        <v>2581762726</v>
+        <v>7398390732</v>
       </c>
     </row>
     <row r="238">
@@ -11999,7 +11999,7 @@
         </is>
       </c>
       <c r="P238" t="n">
-        <v>2930900789</v>
+        <v>3560080446</v>
       </c>
     </row>
     <row r="239">
@@ -12047,7 +12047,7 @@
         </is>
       </c>
       <c r="P239" t="n">
-        <v>4367575167</v>
+        <v>9675333306</v>
       </c>
     </row>
     <row r="240">
@@ -12095,7 +12095,7 @@
         </is>
       </c>
       <c r="P240" t="n">
-        <v>2234701063</v>
+        <v>6377068026</v>
       </c>
     </row>
     <row r="241">
@@ -12143,7 +12143,7 @@
         </is>
       </c>
       <c r="P241" t="n">
-        <v>8156885649</v>
+        <v>3091533507</v>
       </c>
     </row>
     <row r="242">
@@ -12191,7 +12191,7 @@
         </is>
       </c>
       <c r="P242" t="n">
-        <v>2236479460</v>
+        <v>4951433772</v>
       </c>
     </row>
     <row r="243">
@@ -12239,7 +12239,7 @@
         </is>
       </c>
       <c r="P243" t="n">
-        <v>2716349934</v>
+        <v>5158591581</v>
       </c>
     </row>
     <row r="244">
@@ -12287,7 +12287,7 @@
         </is>
       </c>
       <c r="P244" t="n">
-        <v>1536698282</v>
+        <v>2122877802</v>
       </c>
     </row>
     <row r="245">
@@ -12335,7 +12335,7 @@
         </is>
       </c>
       <c r="P245" t="n">
-        <v>2997682285</v>
+        <v>6906663575</v>
       </c>
     </row>
     <row r="246">
@@ -12383,7 +12383,7 @@
         </is>
       </c>
       <c r="P246" t="n">
-        <v>6633521644</v>
+        <v>239360614</v>
       </c>
     </row>
     <row r="247">
@@ -12431,7 +12431,7 @@
         </is>
       </c>
       <c r="P247" t="n">
-        <v>7333512291</v>
+        <v>5543886082</v>
       </c>
     </row>
     <row r="248">
@@ -12479,7 +12479,7 @@
         </is>
       </c>
       <c r="P248" t="n">
-        <v>7501494118</v>
+        <v>9916794755</v>
       </c>
     </row>
     <row r="249">
@@ -12527,7 +12527,7 @@
         </is>
       </c>
       <c r="P249" t="n">
-        <v>5526597247</v>
+        <v>1647423231</v>
       </c>
     </row>
     <row r="250">
@@ -12575,7 +12575,7 @@
         </is>
       </c>
       <c r="P250" t="n">
-        <v>5181638495</v>
+        <v>2533717364</v>
       </c>
     </row>
     <row r="251">
@@ -12623,7 +12623,7 @@
         </is>
       </c>
       <c r="P251" t="n">
-        <v>1334916966</v>
+        <v>3402130610</v>
       </c>
     </row>
     <row r="252">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="P252" t="n">
-        <v>6295038455</v>
+        <v>3928778717</v>
       </c>
     </row>
     <row r="253">
@@ -12719,7 +12719,7 @@
         </is>
       </c>
       <c r="P253" t="n">
-        <v>3865980135</v>
+        <v>2716498034</v>
       </c>
     </row>
     <row r="254">
@@ -12767,7 +12767,7 @@
         </is>
       </c>
       <c r="P254" t="n">
-        <v>4506587902</v>
+        <v>1714206835</v>
       </c>
     </row>
     <row r="255">
@@ -12815,7 +12815,7 @@
         </is>
       </c>
       <c r="P255" t="n">
-        <v>9743554893</v>
+        <v>8882647377</v>
       </c>
     </row>
     <row r="256">
@@ -12863,7 +12863,7 @@
         </is>
       </c>
       <c r="P256" t="n">
-        <v>2505646821</v>
+        <v>7993668512</v>
       </c>
     </row>
     <row r="257">
@@ -12911,7 +12911,7 @@
         </is>
       </c>
       <c r="P257" t="n">
-        <v>4627074718</v>
+        <v>4123882118</v>
       </c>
     </row>
     <row r="258">
@@ -12959,7 +12959,7 @@
         </is>
       </c>
       <c r="P258" t="n">
-        <v>9523997654</v>
+        <v>1714473767</v>
       </c>
     </row>
     <row r="259">
@@ -13007,7 +13007,7 @@
         </is>
       </c>
       <c r="P259" t="n">
-        <v>6695501222</v>
+        <v>1567942270</v>
       </c>
     </row>
     <row r="260">
@@ -13055,7 +13055,7 @@
         </is>
       </c>
       <c r="P260" t="n">
-        <v>9495090663</v>
+        <v>3140543352</v>
       </c>
     </row>
     <row r="261">
@@ -13103,7 +13103,7 @@
         </is>
       </c>
       <c r="P261" t="n">
-        <v>2120923386</v>
+        <v>7771775825</v>
       </c>
     </row>
     <row r="262">
@@ -13153,7 +13153,7 @@
         </is>
       </c>
       <c r="P262" t="n">
-        <v>7974085783</v>
+        <v>8385623385</v>
       </c>
     </row>
     <row r="263">
@@ -13203,7 +13203,7 @@
         </is>
       </c>
       <c r="P263" t="n">
-        <v>7376255010</v>
+        <v>4510611860</v>
       </c>
     </row>
     <row r="264">
@@ -13253,7 +13253,7 @@
         </is>
       </c>
       <c r="P264" t="n">
-        <v>4087514109</v>
+        <v>8796816407</v>
       </c>
     </row>
     <row r="265">
@@ -13303,7 +13303,7 @@
         </is>
       </c>
       <c r="P265" t="n">
-        <v>8704090407</v>
+        <v>4748278388</v>
       </c>
     </row>
     <row r="266">
@@ -13353,7 +13353,7 @@
         </is>
       </c>
       <c r="P266" t="n">
-        <v>8934861897</v>
+        <v>3261731832</v>
       </c>
     </row>
     <row r="267">
@@ -13401,7 +13401,7 @@
         </is>
       </c>
       <c r="P267" t="n">
-        <v>4975603628</v>
+        <v>9652321798</v>
       </c>
     </row>
     <row r="268">
@@ -13451,7 +13451,7 @@
         </is>
       </c>
       <c r="P268" t="n">
-        <v>2408422807</v>
+        <v>6440443085</v>
       </c>
     </row>
     <row r="269">
@@ -13501,7 +13501,7 @@
         </is>
       </c>
       <c r="P269" t="n">
-        <v>8097895492</v>
+        <v>1708038008</v>
       </c>
     </row>
     <row r="270">
@@ -13549,7 +13549,7 @@
         </is>
       </c>
       <c r="P270" t="n">
-        <v>6386145121</v>
+        <v>9771898275</v>
       </c>
     </row>
     <row r="271">
@@ -13597,7 +13597,7 @@
         </is>
       </c>
       <c r="P271" t="n">
-        <v>338092883</v>
+        <v>3483023880</v>
       </c>
     </row>
     <row r="272">
@@ -13647,7 +13647,7 @@
         </is>
       </c>
       <c r="P272" t="n">
-        <v>9525484446</v>
+        <v>7306778165</v>
       </c>
     </row>
     <row r="273">
@@ -13697,7 +13697,7 @@
         </is>
       </c>
       <c r="P273" t="n">
-        <v>7012974675</v>
+        <v>5867588317</v>
       </c>
     </row>
     <row r="274">
@@ -13745,7 +13745,7 @@
         </is>
       </c>
       <c r="P274" t="n">
-        <v>65276629</v>
+        <v>6436099944</v>
       </c>
     </row>
     <row r="275">
@@ -13793,7 +13793,7 @@
         </is>
       </c>
       <c r="P275" t="n">
-        <v>1065251617</v>
+        <v>2454150580</v>
       </c>
     </row>
     <row r="276">
@@ -13841,7 +13841,7 @@
         </is>
       </c>
       <c r="P276" t="n">
-        <v>9084679987</v>
+        <v>6137454187</v>
       </c>
     </row>
     <row r="277">
@@ -13889,7 +13889,7 @@
         </is>
       </c>
       <c r="P277" t="n">
-        <v>6197911225</v>
+        <v>1233738329</v>
       </c>
     </row>
     <row r="278">
@@ -13937,7 +13937,7 @@
         </is>
       </c>
       <c r="P278" t="n">
-        <v>9801006154</v>
+        <v>1946562469</v>
       </c>
     </row>
     <row r="279">
@@ -13985,7 +13985,7 @@
         </is>
       </c>
       <c r="P279" t="n">
-        <v>9036206949</v>
+        <v>3108405013</v>
       </c>
     </row>
     <row r="280">
@@ -14033,7 +14033,7 @@
         </is>
       </c>
       <c r="P280" t="n">
-        <v>1122448902</v>
+        <v>4613319830</v>
       </c>
     </row>
     <row r="281">
@@ -14081,7 +14081,7 @@
         </is>
       </c>
       <c r="P281" t="n">
-        <v>8933081261</v>
+        <v>1351826185</v>
       </c>
     </row>
     <row r="282">
@@ -14129,7 +14129,7 @@
         </is>
       </c>
       <c r="P282" t="n">
-        <v>1710337877</v>
+        <v>8506384192</v>
       </c>
     </row>
     <row r="283">
@@ -14177,7 +14177,7 @@
         </is>
       </c>
       <c r="P283" t="n">
-        <v>2466477563</v>
+        <v>9089131758</v>
       </c>
     </row>
     <row r="284">
@@ -14227,7 +14227,7 @@
         </is>
       </c>
       <c r="P284" t="n">
-        <v>6165050592</v>
+        <v>6093732605</v>
       </c>
     </row>
     <row r="285">
@@ -14275,7 +14275,7 @@
         </is>
       </c>
       <c r="P285" t="n">
-        <v>5251551311</v>
+        <v>4647112417</v>
       </c>
     </row>
     <row r="286">
@@ -14323,7 +14323,7 @@
         </is>
       </c>
       <c r="P286" t="n">
-        <v>7021845213</v>
+        <v>8177320985</v>
       </c>
     </row>
     <row r="287">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="P287" t="n">
-        <v>6020374329</v>
+        <v>2776154574</v>
       </c>
     </row>
     <row r="288">
@@ -14419,7 +14419,7 @@
         </is>
       </c>
       <c r="P288" t="n">
-        <v>9590048903</v>
+        <v>6127862311</v>
       </c>
     </row>
     <row r="289">
@@ -14467,7 +14467,7 @@
         </is>
       </c>
       <c r="P289" t="n">
-        <v>5226479537</v>
+        <v>3759999936</v>
       </c>
     </row>
     <row r="290">
@@ -14515,7 +14515,7 @@
         </is>
       </c>
       <c r="P290" t="n">
-        <v>8235817626</v>
+        <v>9064148992</v>
       </c>
     </row>
     <row r="291">
@@ -14563,7 +14563,7 @@
         </is>
       </c>
       <c r="P291" t="n">
-        <v>1577151918</v>
+        <v>3509919921</v>
       </c>
     </row>
     <row r="292">
@@ -14611,7 +14611,7 @@
         </is>
       </c>
       <c r="P292" t="n">
-        <v>3273642318</v>
+        <v>4771781895</v>
       </c>
     </row>
     <row r="293">
@@ -14661,7 +14661,7 @@
         </is>
       </c>
       <c r="P293" t="n">
-        <v>8942765556</v>
+        <v>7706641670</v>
       </c>
     </row>
     <row r="294">
@@ -14709,7 +14709,7 @@
         </is>
       </c>
       <c r="P294" t="n">
-        <v>4088051023</v>
+        <v>6483817455</v>
       </c>
     </row>
     <row r="295">
@@ -14757,7 +14757,7 @@
         </is>
       </c>
       <c r="P295" t="n">
-        <v>9426906378</v>
+        <v>1060786168</v>
       </c>
     </row>
     <row r="296">
@@ -14805,7 +14805,7 @@
         </is>
       </c>
       <c r="P296" t="n">
-        <v>7731262948</v>
+        <v>8046811629</v>
       </c>
     </row>
     <row r="297">
@@ -14855,7 +14855,7 @@
         </is>
       </c>
       <c r="P297" t="n">
-        <v>5525759852</v>
+        <v>1565855927</v>
       </c>
     </row>
     <row r="298">
@@ -14903,7 +14903,7 @@
         </is>
       </c>
       <c r="P298" t="n">
-        <v>6861563921</v>
+        <v>4951068459</v>
       </c>
     </row>
     <row r="299">
@@ -14953,7 +14953,7 @@
         </is>
       </c>
       <c r="P299" t="n">
-        <v>7754272858</v>
+        <v>2720767545</v>
       </c>
     </row>
     <row r="300">
@@ -15001,7 +15001,7 @@
         </is>
       </c>
       <c r="P300" t="n">
-        <v>2986107842</v>
+        <v>6041219187</v>
       </c>
     </row>
     <row r="301">
@@ -15051,7 +15051,7 @@
         </is>
       </c>
       <c r="P301" t="n">
-        <v>2378710453</v>
+        <v>2556469289</v>
       </c>
     </row>
     <row r="302">
@@ -15099,7 +15099,7 @@
         </is>
       </c>
       <c r="P302" t="n">
-        <v>3701040671</v>
+        <v>9231503415</v>
       </c>
     </row>
     <row r="303">
@@ -15147,7 +15147,7 @@
         </is>
       </c>
       <c r="P303" t="n">
-        <v>5197949772</v>
+        <v>3878138969</v>
       </c>
     </row>
     <row r="304">
@@ -15195,7 +15195,7 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>5158712536</v>
+        <v>8286360097</v>
       </c>
     </row>
     <row r="305">
@@ -15243,7 +15243,7 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>2119568337</v>
+        <v>1610712935</v>
       </c>
     </row>
     <row r="306">
@@ -15291,7 +15291,7 @@
         </is>
       </c>
       <c r="P306" t="n">
-        <v>5921489225</v>
+        <v>3872805056</v>
       </c>
     </row>
     <row r="307">
@@ -15339,7 +15339,7 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>3694451680</v>
+        <v>1304348882</v>
       </c>
     </row>
     <row r="308">
@@ -15387,7 +15387,7 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>6056849393</v>
+        <v>2622932678</v>
       </c>
     </row>
     <row r="309">
@@ -15435,7 +15435,7 @@
         </is>
       </c>
       <c r="P309" t="n">
-        <v>8497230592</v>
+        <v>2457961443</v>
       </c>
     </row>
     <row r="310">
@@ -15483,7 +15483,7 @@
         </is>
       </c>
       <c r="P310" t="n">
-        <v>545982218</v>
+        <v>3693846836</v>
       </c>
     </row>
     <row r="311">
@@ -15535,7 +15535,7 @@
         </is>
       </c>
       <c r="P311" t="n">
-        <v>3080538914</v>
+        <v>9140016640</v>
       </c>
     </row>
     <row r="312">
@@ -15583,7 +15583,7 @@
         </is>
       </c>
       <c r="P312" t="n">
-        <v>5110554637</v>
+        <v>6308970735</v>
       </c>
     </row>
     <row r="313">
@@ -15633,7 +15633,7 @@
         </is>
       </c>
       <c r="P313" t="n">
-        <v>7963459156</v>
+        <v>9120719724</v>
       </c>
     </row>
     <row r="314">
@@ -15681,7 +15681,7 @@
         </is>
       </c>
       <c r="P314" t="n">
-        <v>6049281913</v>
+        <v>3159049360</v>
       </c>
     </row>
     <row r="315">
@@ -15729,7 +15729,7 @@
         </is>
       </c>
       <c r="P315" t="n">
-        <v>8851962868</v>
+        <v>8612890012</v>
       </c>
     </row>
     <row r="316">
@@ -15777,7 +15777,7 @@
         </is>
       </c>
       <c r="P316" t="n">
-        <v>5930297398</v>
+        <v>7048411937</v>
       </c>
     </row>
     <row r="317">
@@ -15825,7 +15825,7 @@
         </is>
       </c>
       <c r="P317" t="n">
-        <v>3593972589</v>
+        <v>8523695604</v>
       </c>
     </row>
     <row r="318">
@@ -15873,7 +15873,7 @@
         </is>
       </c>
       <c r="P318" t="n">
-        <v>5358095710</v>
+        <v>1473187474</v>
       </c>
     </row>
     <row r="319">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="P319" t="n">
-        <v>8336175659</v>
+        <v>6614719218</v>
       </c>
     </row>
     <row r="320">
@@ -15969,7 +15969,7 @@
         </is>
       </c>
       <c r="P320" t="n">
-        <v>931161004</v>
+        <v>4637436713</v>
       </c>
     </row>
     <row r="321">
@@ -16017,7 +16017,7 @@
         </is>
       </c>
       <c r="P321" t="n">
-        <v>3344118810</v>
+        <v>8184449470</v>
       </c>
     </row>
     <row r="322">
@@ -16065,7 +16065,7 @@
         </is>
       </c>
       <c r="P322" t="n">
-        <v>9369795879</v>
+        <v>6201021208</v>
       </c>
     </row>
     <row r="323">
@@ -16113,7 +16113,7 @@
         </is>
       </c>
       <c r="P323" t="n">
-        <v>4558093471</v>
+        <v>5725954117</v>
       </c>
     </row>
     <row r="324">
@@ -16161,7 +16161,7 @@
         </is>
       </c>
       <c r="P324" t="n">
-        <v>7397727949</v>
+        <v>9320830138</v>
       </c>
     </row>
     <row r="325">
@@ -16209,7 +16209,7 @@
         </is>
       </c>
       <c r="P325" t="n">
-        <v>1358970604</v>
+        <v>8045974716</v>
       </c>
     </row>
     <row r="326">
@@ -16259,7 +16259,7 @@
         </is>
       </c>
       <c r="P326" t="n">
-        <v>5854302754</v>
+        <v>9732985622</v>
       </c>
     </row>
     <row r="327">
@@ -16307,7 +16307,7 @@
         </is>
       </c>
       <c r="P327" t="n">
-        <v>4246534781</v>
+        <v>8666500949</v>
       </c>
     </row>
     <row r="328">
@@ -16355,7 +16355,7 @@
         </is>
       </c>
       <c r="P328" t="n">
-        <v>6449326313</v>
+        <v>7819439300</v>
       </c>
     </row>
     <row r="329">
@@ -16403,7 +16403,7 @@
         </is>
       </c>
       <c r="P329" t="n">
-        <v>6668082712</v>
+        <v>2023274504</v>
       </c>
     </row>
     <row r="330">
@@ -16451,7 +16451,7 @@
         </is>
       </c>
       <c r="P330" t="n">
-        <v>9961656021</v>
+        <v>3574558591</v>
       </c>
     </row>
     <row r="331">
@@ -16499,7 +16499,7 @@
         </is>
       </c>
       <c r="P331" t="n">
-        <v>3977160632</v>
+        <v>4109697451</v>
       </c>
     </row>
     <row r="332">
@@ -16547,7 +16547,7 @@
         </is>
       </c>
       <c r="P332" t="n">
-        <v>8186114105</v>
+        <v>3651182759</v>
       </c>
     </row>
     <row r="333">
@@ -16595,7 +16595,7 @@
         </is>
       </c>
       <c r="P333" t="n">
-        <v>8207948209</v>
+        <v>2441080730</v>
       </c>
     </row>
     <row r="334">
@@ -16643,7 +16643,7 @@
         </is>
       </c>
       <c r="P334" t="n">
-        <v>9006244779</v>
+        <v>1348152740</v>
       </c>
     </row>
     <row r="335">
@@ -16691,7 +16691,7 @@
         </is>
       </c>
       <c r="P335" t="n">
-        <v>2628761449</v>
+        <v>9030535950</v>
       </c>
     </row>
     <row r="336">
@@ -16739,7 +16739,7 @@
         </is>
       </c>
       <c r="P336" t="n">
-        <v>8584126351</v>
+        <v>3418373029</v>
       </c>
     </row>
     <row r="337">
@@ -16787,7 +16787,7 @@
         </is>
       </c>
       <c r="P337" t="n">
-        <v>509488114</v>
+        <v>2413624284</v>
       </c>
     </row>
     <row r="338">
@@ -16835,7 +16835,7 @@
         </is>
       </c>
       <c r="P338" t="n">
-        <v>8363595497</v>
+        <v>5661836694</v>
       </c>
     </row>
     <row r="339">
@@ -16883,7 +16883,7 @@
         </is>
       </c>
       <c r="P339" t="n">
-        <v>1255545481</v>
+        <v>7360519092</v>
       </c>
     </row>
     <row r="340">
@@ -16931,7 +16931,7 @@
         </is>
       </c>
       <c r="P340" t="n">
-        <v>2181274189</v>
+        <v>9113990795</v>
       </c>
     </row>
     <row r="341">
@@ -16979,7 +16979,7 @@
         </is>
       </c>
       <c r="P341" t="n">
-        <v>1905591386</v>
+        <v>9810094035</v>
       </c>
     </row>
     <row r="342">
@@ -17027,7 +17027,7 @@
         </is>
       </c>
       <c r="P342" t="n">
-        <v>2641419399</v>
+        <v>7279053875</v>
       </c>
     </row>
     <row r="343">
@@ -17075,7 +17075,7 @@
         </is>
       </c>
       <c r="P343" t="n">
-        <v>2783548609</v>
+        <v>6811224541</v>
       </c>
     </row>
     <row r="344">
@@ -17123,7 +17123,7 @@
         </is>
       </c>
       <c r="P344" t="n">
-        <v>9683684014</v>
+        <v>405237736</v>
       </c>
     </row>
     <row r="345">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="P345" t="n">
-        <v>1765839631</v>
+        <v>8119933750</v>
       </c>
     </row>
     <row r="346">
@@ -17219,7 +17219,7 @@
         </is>
       </c>
       <c r="P346" t="n">
-        <v>2385048727</v>
+        <v>3466902170</v>
       </c>
     </row>
     <row r="347">
@@ -17267,7 +17267,7 @@
         </is>
       </c>
       <c r="P347" t="n">
-        <v>1653649978</v>
+        <v>4191953456</v>
       </c>
     </row>
     <row r="348">
@@ -17315,7 +17315,7 @@
         </is>
       </c>
       <c r="P348" t="n">
-        <v>6437318947</v>
+        <v>8734239148</v>
       </c>
     </row>
     <row r="349">
@@ -17363,7 +17363,7 @@
         </is>
       </c>
       <c r="P349" t="n">
-        <v>2156434217</v>
+        <v>5295074237</v>
       </c>
     </row>
     <row r="350">
@@ -17411,7 +17411,7 @@
         </is>
       </c>
       <c r="P350" t="n">
-        <v>8336451655</v>
+        <v>2341097024</v>
       </c>
     </row>
     <row r="351">
@@ -17459,7 +17459,7 @@
         </is>
       </c>
       <c r="P351" t="n">
-        <v>5793134968</v>
+        <v>4857999889</v>
       </c>
     </row>
     <row r="352">
@@ -17507,7 +17507,7 @@
         </is>
       </c>
       <c r="P352" t="n">
-        <v>4525048413</v>
+        <v>6834216007</v>
       </c>
     </row>
     <row r="353">
@@ -17555,7 +17555,7 @@
         </is>
       </c>
       <c r="P353" t="n">
-        <v>7339743144</v>
+        <v>59557746</v>
       </c>
     </row>
     <row r="354">
@@ -17603,7 +17603,7 @@
         </is>
       </c>
       <c r="P354" t="n">
-        <v>6437252555</v>
+        <v>1071984095</v>
       </c>
     </row>
     <row r="355">
@@ -17653,7 +17653,7 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>3073969390</v>
+        <v>1722034739</v>
       </c>
     </row>
     <row r="356">
@@ -17703,7 +17703,7 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>1536458531</v>
+        <v>8619217024</v>
       </c>
     </row>
     <row r="357">
@@ -17751,7 +17751,7 @@
         </is>
       </c>
       <c r="P357" t="n">
-        <v>8579428963</v>
+        <v>6323448582</v>
       </c>
     </row>
     <row r="358">
@@ -17799,7 +17799,7 @@
         </is>
       </c>
       <c r="P358" t="n">
-        <v>7293808813</v>
+        <v>9180853179</v>
       </c>
     </row>
     <row r="359">
@@ -17851,7 +17851,7 @@
         </is>
       </c>
       <c r="P359" t="n">
-        <v>6572185495</v>
+        <v>6034591635</v>
       </c>
     </row>
     <row r="360">
@@ -17899,7 +17899,7 @@
         </is>
       </c>
       <c r="P360" t="n">
-        <v>4758432972</v>
+        <v>995228156</v>
       </c>
     </row>
     <row r="361">
@@ -17947,7 +17947,7 @@
         </is>
       </c>
       <c r="P361" t="n">
-        <v>7498551881</v>
+        <v>6511489848</v>
       </c>
     </row>
     <row r="362">
@@ -17995,7 +17995,7 @@
         </is>
       </c>
       <c r="P362" t="n">
-        <v>4457637026</v>
+        <v>6959474899</v>
       </c>
     </row>
     <row r="363">
@@ -18043,7 +18043,7 @@
         </is>
       </c>
       <c r="P363" t="n">
-        <v>1990934544</v>
+        <v>9046677095</v>
       </c>
     </row>
     <row r="364">
@@ -18093,7 +18093,7 @@
         </is>
       </c>
       <c r="P364" t="n">
-        <v>4373549699</v>
+        <v>9377471716</v>
       </c>
     </row>
     <row r="365">
@@ -18143,7 +18143,7 @@
         </is>
       </c>
       <c r="P365" t="n">
-        <v>8801128338</v>
+        <v>639570183</v>
       </c>
     </row>
     <row r="366">
@@ -18191,7 +18191,7 @@
         </is>
       </c>
       <c r="P366" t="n">
-        <v>2670804902</v>
+        <v>7726671297</v>
       </c>
     </row>
     <row r="367">
@@ -18239,7 +18239,7 @@
         </is>
       </c>
       <c r="P367" t="n">
-        <v>5686555421</v>
+        <v>8554586690</v>
       </c>
     </row>
     <row r="368">
@@ -18287,7 +18287,7 @@
         </is>
       </c>
       <c r="P368" t="n">
-        <v>2615850062</v>
+        <v>4604086398</v>
       </c>
     </row>
     <row r="369">
@@ -18337,7 +18337,7 @@
         </is>
       </c>
       <c r="P369" t="n">
-        <v>1559003322</v>
+        <v>9288934932</v>
       </c>
     </row>
     <row r="370">
@@ -18385,7 +18385,7 @@
         </is>
       </c>
       <c r="P370" t="n">
-        <v>9303453279</v>
+        <v>7994202687</v>
       </c>
     </row>
     <row r="371">
@@ -18433,7 +18433,7 @@
         </is>
       </c>
       <c r="P371" t="n">
-        <v>7121211881</v>
+        <v>1484969678</v>
       </c>
     </row>
     <row r="372">
@@ -18481,7 +18481,7 @@
         </is>
       </c>
       <c r="P372" t="n">
-        <v>9010605175</v>
+        <v>6346459953</v>
       </c>
     </row>
     <row r="373">
@@ -18531,7 +18531,7 @@
         </is>
       </c>
       <c r="P373" t="n">
-        <v>7537353494</v>
+        <v>669839413</v>
       </c>
     </row>
     <row r="374">
@@ -18579,7 +18579,7 @@
         </is>
       </c>
       <c r="P374" t="n">
-        <v>1628908148</v>
+        <v>3245641919</v>
       </c>
     </row>
     <row r="375">
@@ -18627,7 +18627,7 @@
         </is>
       </c>
       <c r="P375" t="n">
-        <v>9204595135</v>
+        <v>3037259646</v>
       </c>
     </row>
     <row r="376">
@@ -18675,7 +18675,7 @@
         </is>
       </c>
       <c r="P376" t="n">
-        <v>8525330893</v>
+        <v>7955640322</v>
       </c>
     </row>
     <row r="377">
@@ -18723,7 +18723,7 @@
         </is>
       </c>
       <c r="P377" t="n">
-        <v>3512469204</v>
+        <v>4276065366</v>
       </c>
     </row>
     <row r="378">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="P378" t="n">
-        <v>3806075852</v>
+        <v>1782320852</v>
       </c>
     </row>
     <row r="379">
@@ -18819,7 +18819,7 @@
         </is>
       </c>
       <c r="P379" t="n">
-        <v>4037934349</v>
+        <v>1654921210</v>
       </c>
     </row>
     <row r="380">
@@ -18867,7 +18867,7 @@
         </is>
       </c>
       <c r="P380" t="n">
-        <v>9191343101</v>
+        <v>8534076635</v>
       </c>
     </row>
     <row r="381">
@@ -18915,7 +18915,7 @@
         </is>
       </c>
       <c r="P381" t="n">
-        <v>4192798217</v>
+        <v>3181880929</v>
       </c>
     </row>
     <row r="382">
@@ -18963,7 +18963,7 @@
         </is>
       </c>
       <c r="P382" t="n">
-        <v>7012427740</v>
+        <v>889681912</v>
       </c>
     </row>
     <row r="383">
@@ -19011,7 +19011,7 @@
         </is>
       </c>
       <c r="P383" t="n">
-        <v>4537440428</v>
+        <v>1340655489</v>
       </c>
     </row>
     <row r="384">
@@ -19059,7 +19059,7 @@
         </is>
       </c>
       <c r="P384" t="n">
-        <v>9183946040</v>
+        <v>1893651057</v>
       </c>
     </row>
     <row r="385">
@@ -19107,7 +19107,7 @@
         </is>
       </c>
       <c r="P385" t="n">
-        <v>1222999548</v>
+        <v>8864515446</v>
       </c>
     </row>
     <row r="386">
@@ -19155,7 +19155,7 @@
         </is>
       </c>
       <c r="P386" t="n">
-        <v>4199809607</v>
+        <v>7212199252</v>
       </c>
     </row>
     <row r="387">
@@ -19203,7 +19203,7 @@
         </is>
       </c>
       <c r="P387" t="n">
-        <v>5219450168</v>
+        <v>9855437916</v>
       </c>
     </row>
     <row r="388">
@@ -19251,7 +19251,7 @@
         </is>
       </c>
       <c r="P388" t="n">
-        <v>6543181748</v>
+        <v>4899735310</v>
       </c>
     </row>
     <row r="389">
@@ -19299,7 +19299,7 @@
         </is>
       </c>
       <c r="P389" t="n">
-        <v>5859965183</v>
+        <v>6101237265</v>
       </c>
     </row>
     <row r="390">
@@ -19351,7 +19351,7 @@
         </is>
       </c>
       <c r="P390" t="n">
-        <v>4634893194</v>
+        <v>1799485920</v>
       </c>
     </row>
     <row r="391">
@@ -19399,7 +19399,7 @@
         </is>
       </c>
       <c r="P391" t="n">
-        <v>5528270579</v>
+        <v>5409298795</v>
       </c>
     </row>
     <row r="392">
@@ -19447,7 +19447,7 @@
         </is>
       </c>
       <c r="P392" t="n">
-        <v>5382490336</v>
+        <v>9014948167</v>
       </c>
     </row>
     <row r="393">
@@ -19495,7 +19495,7 @@
         </is>
       </c>
       <c r="P393" t="n">
-        <v>6289504656</v>
+        <v>1623450715</v>
       </c>
     </row>
     <row r="394">
@@ -19545,7 +19545,7 @@
         </is>
       </c>
       <c r="P394" t="n">
-        <v>9473126238</v>
+        <v>2274291658</v>
       </c>
     </row>
     <row r="395">
@@ -19593,7 +19593,7 @@
         </is>
       </c>
       <c r="P395" t="n">
-        <v>9326337781</v>
+        <v>1914499303</v>
       </c>
     </row>
     <row r="396">
@@ -19641,7 +19641,7 @@
         </is>
       </c>
       <c r="P396" t="n">
-        <v>7493561697</v>
+        <v>2146476528</v>
       </c>
     </row>
     <row r="397">
@@ -19689,7 +19689,7 @@
         </is>
       </c>
       <c r="P397" t="n">
-        <v>2064211866</v>
+        <v>5559385753</v>
       </c>
     </row>
     <row r="398">
@@ -19737,7 +19737,7 @@
         </is>
       </c>
       <c r="P398" t="n">
-        <v>6870838282</v>
+        <v>4706598256</v>
       </c>
     </row>
     <row r="399">
@@ -19785,7 +19785,7 @@
         </is>
       </c>
       <c r="P399" t="n">
-        <v>362726255</v>
+        <v>7741182956</v>
       </c>
     </row>
     <row r="400">
@@ -19833,7 +19833,7 @@
         </is>
       </c>
       <c r="P400" t="n">
-        <v>3092156996</v>
+        <v>5919129251</v>
       </c>
     </row>
     <row r="401">
@@ -19881,7 +19881,7 @@
         </is>
       </c>
       <c r="P401" t="n">
-        <v>6118641761</v>
+        <v>7580074362</v>
       </c>
     </row>
     <row r="402">
@@ -19929,7 +19929,7 @@
         </is>
       </c>
       <c r="P402" t="n">
-        <v>9127603902</v>
+        <v>5076793008</v>
       </c>
     </row>
     <row r="403">
@@ -19977,7 +19977,7 @@
         </is>
       </c>
       <c r="P403" t="n">
-        <v>6142219669</v>
+        <v>9261325018</v>
       </c>
     </row>
     <row r="404">
@@ -20025,7 +20025,7 @@
         </is>
       </c>
       <c r="P404" t="n">
-        <v>196092730</v>
+        <v>3237310094</v>
       </c>
     </row>
     <row r="405">
@@ -20073,7 +20073,7 @@
         </is>
       </c>
       <c r="P405" t="n">
-        <v>2108487052</v>
+        <v>4008566459</v>
       </c>
     </row>
     <row r="406">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="P406" t="n">
-        <v>6606084008</v>
+        <v>151891897</v>
       </c>
     </row>
     <row r="407">
@@ -20169,7 +20169,7 @@
         </is>
       </c>
       <c r="P407" t="n">
-        <v>4891852420</v>
+        <v>4174082436</v>
       </c>
     </row>
     <row r="408">
@@ -20217,7 +20217,7 @@
         </is>
       </c>
       <c r="P408" t="n">
-        <v>6390020079</v>
+        <v>4795752296</v>
       </c>
     </row>
     <row r="409">
@@ -20265,7 +20265,7 @@
         </is>
       </c>
       <c r="P409" t="n">
-        <v>5958145674</v>
+        <v>6779984904</v>
       </c>
     </row>
     <row r="410">
@@ -20313,7 +20313,7 @@
         </is>
       </c>
       <c r="P410" t="n">
-        <v>1943650627</v>
+        <v>5360297989</v>
       </c>
     </row>
     <row r="411">
@@ -20361,7 +20361,7 @@
         </is>
       </c>
       <c r="P411" t="n">
-        <v>3230585617</v>
+        <v>4250102256</v>
       </c>
     </row>
     <row r="412">
@@ -20411,7 +20411,7 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>4121947370</v>
+        <v>5882231978</v>
       </c>
     </row>
     <row r="413">
@@ -20459,7 +20459,7 @@
         </is>
       </c>
       <c r="P413" t="n">
-        <v>3718254064</v>
+        <v>7156694675</v>
       </c>
     </row>
     <row r="414">
@@ -20507,7 +20507,7 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>3601222363</v>
+        <v>8358777572</v>
       </c>
     </row>
     <row r="415">
@@ -20555,7 +20555,7 @@
         </is>
       </c>
       <c r="P415" t="n">
-        <v>2376953324</v>
+        <v>8660679959</v>
       </c>
     </row>
     <row r="416">
@@ -20605,7 +20605,7 @@
         </is>
       </c>
       <c r="P416" t="n">
-        <v>1718201381</v>
+        <v>2180038904</v>
       </c>
     </row>
     <row r="417">
@@ -20653,7 +20653,7 @@
         </is>
       </c>
       <c r="P417" t="n">
-        <v>2067022052</v>
+        <v>2181682848</v>
       </c>
     </row>
     <row r="418">
@@ -20701,7 +20701,7 @@
         </is>
       </c>
       <c r="P418" t="n">
-        <v>8700723834</v>
+        <v>2380294998</v>
       </c>
     </row>
     <row r="419">
@@ -20749,7 +20749,7 @@
         </is>
       </c>
       <c r="P419" t="n">
-        <v>6533843984</v>
+        <v>547927669</v>
       </c>
     </row>
     <row r="420">
@@ -20797,7 +20797,7 @@
         </is>
       </c>
       <c r="P420" t="n">
-        <v>8494364351</v>
+        <v>8983331572</v>
       </c>
     </row>
     <row r="421">
@@ -20845,7 +20845,7 @@
         </is>
       </c>
       <c r="P421" t="n">
-        <v>4598455094</v>
+        <v>5271216713</v>
       </c>
     </row>
     <row r="422">
@@ -20893,7 +20893,7 @@
         </is>
       </c>
       <c r="P422" t="n">
-        <v>2892408825</v>
+        <v>3883938391</v>
       </c>
     </row>
     <row r="423">
@@ -20941,7 +20941,7 @@
         </is>
       </c>
       <c r="P423" t="n">
-        <v>4095652860</v>
+        <v>8082734683</v>
       </c>
     </row>
     <row r="424">
@@ -20989,7 +20989,7 @@
         </is>
       </c>
       <c r="P424" t="n">
-        <v>2298398908</v>
+        <v>2935901451</v>
       </c>
     </row>
     <row r="425">
@@ -21037,7 +21037,7 @@
         </is>
       </c>
       <c r="P425" t="n">
-        <v>9723122483</v>
+        <v>9626009840</v>
       </c>
     </row>
     <row r="426">
@@ -21085,7 +21085,7 @@
         </is>
       </c>
       <c r="P426" t="n">
-        <v>2600433516</v>
+        <v>6710231131</v>
       </c>
     </row>
     <row r="427">
@@ -21133,7 +21133,7 @@
         </is>
       </c>
       <c r="P427" t="n">
-        <v>9862818226</v>
+        <v>7443780497</v>
       </c>
     </row>
     <row r="428">
@@ -21181,7 +21181,7 @@
         </is>
       </c>
       <c r="P428" t="n">
-        <v>5365209421</v>
+        <v>4449940873</v>
       </c>
     </row>
     <row r="429">
@@ -21229,7 +21229,7 @@
         </is>
       </c>
       <c r="P429" t="n">
-        <v>8497049258</v>
+        <v>5136608643</v>
       </c>
     </row>
     <row r="430">
@@ -21277,7 +21277,7 @@
         </is>
       </c>
       <c r="P430" t="n">
-        <v>6075531475</v>
+        <v>7145247569</v>
       </c>
     </row>
     <row r="431">
@@ -21325,7 +21325,7 @@
         </is>
       </c>
       <c r="P431" t="n">
-        <v>7782471755</v>
+        <v>679236979</v>
       </c>
     </row>
     <row r="432">
@@ -21373,7 +21373,7 @@
         </is>
       </c>
       <c r="P432" t="n">
-        <v>4875566651</v>
+        <v>6577144165</v>
       </c>
     </row>
     <row r="433">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="P433" t="n">
-        <v>740353799</v>
+        <v>4325042329</v>
       </c>
     </row>
     <row r="434">
@@ -21469,7 +21469,7 @@
         </is>
       </c>
       <c r="P434" t="n">
-        <v>2329013700</v>
+        <v>4156063792</v>
       </c>
     </row>
     <row r="435">
@@ -21517,7 +21517,7 @@
         </is>
       </c>
       <c r="P435" t="n">
-        <v>3474507604</v>
+        <v>8760547192</v>
       </c>
     </row>
     <row r="436">
@@ -21567,7 +21567,7 @@
         </is>
       </c>
       <c r="P436" t="n">
-        <v>2178431261</v>
+        <v>5021943224</v>
       </c>
     </row>
     <row r="437">
@@ -21615,7 +21615,7 @@
         </is>
       </c>
       <c r="P437" t="n">
-        <v>77562000</v>
+        <v>2516557564</v>
       </c>
     </row>
     <row r="438">
@@ -21663,7 +21663,7 @@
         </is>
       </c>
       <c r="P438" t="n">
-        <v>9874469754</v>
+        <v>5754730074</v>
       </c>
     </row>
     <row r="439">
@@ -21711,7 +21711,7 @@
         </is>
       </c>
       <c r="P439" t="n">
-        <v>4190392052</v>
+        <v>215442241</v>
       </c>
     </row>
     <row r="440">
@@ -21759,7 +21759,7 @@
         </is>
       </c>
       <c r="P440" t="n">
-        <v>5872012307</v>
+        <v>2145981551</v>
       </c>
     </row>
     <row r="441">
@@ -21807,7 +21807,7 @@
         </is>
       </c>
       <c r="P441" t="n">
-        <v>4160142188</v>
+        <v>3631699446</v>
       </c>
     </row>
     <row r="442">
@@ -21857,7 +21857,7 @@
         </is>
       </c>
       <c r="P442" t="n">
-        <v>8470308825</v>
+        <v>9526745366</v>
       </c>
     </row>
     <row r="443">
@@ -21905,7 +21905,7 @@
         </is>
       </c>
       <c r="P443" t="n">
-        <v>2188081364</v>
+        <v>6547419473</v>
       </c>
     </row>
     <row r="444">
@@ -21953,7 +21953,7 @@
         </is>
       </c>
       <c r="P444" t="n">
-        <v>6316393576</v>
+        <v>9457764723</v>
       </c>
     </row>
     <row r="445">
@@ -22001,7 +22001,7 @@
         </is>
       </c>
       <c r="P445" t="n">
-        <v>3249496975</v>
+        <v>2586943004</v>
       </c>
     </row>
     <row r="446">
@@ -22049,7 +22049,7 @@
         </is>
       </c>
       <c r="P446" t="n">
-        <v>7972723791</v>
+        <v>2633683697</v>
       </c>
     </row>
     <row r="447">
@@ -22099,7 +22099,7 @@
         </is>
       </c>
       <c r="P447" t="n">
-        <v>9532135392</v>
+        <v>7990814849</v>
       </c>
     </row>
     <row r="448">
@@ -22147,7 +22147,7 @@
         </is>
       </c>
       <c r="P448" t="n">
-        <v>5438560490</v>
+        <v>6961519652</v>
       </c>
     </row>
     <row r="449">
@@ -22195,7 +22195,7 @@
         </is>
       </c>
       <c r="P449" t="n">
-        <v>8438872516</v>
+        <v>5049285463</v>
       </c>
     </row>
     <row r="450">
@@ -22245,7 +22245,7 @@
         </is>
       </c>
       <c r="P450" t="n">
-        <v>7537395492</v>
+        <v>1967595255</v>
       </c>
     </row>
     <row r="451">
@@ -22293,7 +22293,7 @@
         </is>
       </c>
       <c r="P451" t="n">
-        <v>7111369587</v>
+        <v>1876785683</v>
       </c>
     </row>
     <row r="452">
@@ -22341,7 +22341,7 @@
         </is>
       </c>
       <c r="P452" t="n">
-        <v>5607233805</v>
+        <v>1613864129</v>
       </c>
     </row>
     <row r="453">
@@ -22389,7 +22389,7 @@
         </is>
       </c>
       <c r="P453" t="n">
-        <v>5392425372</v>
+        <v>9301872206</v>
       </c>
     </row>
     <row r="454">
@@ -22437,7 +22437,7 @@
         </is>
       </c>
       <c r="P454" t="n">
-        <v>3607950655</v>
+        <v>5981481762</v>
       </c>
     </row>
     <row r="455">
@@ -22485,7 +22485,7 @@
         </is>
       </c>
       <c r="P455" t="n">
-        <v>8712722959</v>
+        <v>8461080142</v>
       </c>
     </row>
     <row r="456">
@@ -22533,7 +22533,7 @@
         </is>
       </c>
       <c r="P456" t="n">
-        <v>5550133229</v>
+        <v>2245361292</v>
       </c>
     </row>
     <row r="457">
@@ -22581,7 +22581,7 @@
         </is>
       </c>
       <c r="P457" t="n">
-        <v>3378465535</v>
+        <v>3078252339</v>
       </c>
     </row>
     <row r="458">
@@ -22629,7 +22629,7 @@
         </is>
       </c>
       <c r="P458" t="n">
-        <v>9173666133</v>
+        <v>6955972233</v>
       </c>
     </row>
     <row r="459">
@@ -22677,7 +22677,7 @@
         </is>
       </c>
       <c r="P459" t="n">
-        <v>8050067390</v>
+        <v>4185352423</v>
       </c>
     </row>
     <row r="460">
@@ -22725,7 +22725,7 @@
         </is>
       </c>
       <c r="P460" t="n">
-        <v>4667278722</v>
+        <v>5049283119</v>
       </c>
     </row>
     <row r="461">
@@ -22773,7 +22773,7 @@
         </is>
       </c>
       <c r="P461" t="n">
-        <v>6582865229</v>
+        <v>9395909456</v>
       </c>
     </row>
     <row r="462">
@@ -22823,7 +22823,7 @@
         </is>
       </c>
       <c r="P462" t="n">
-        <v>1240658792</v>
+        <v>4028297412</v>
       </c>
     </row>
     <row r="463">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="P463" t="n">
-        <v>7840509056</v>
+        <v>5925177732</v>
       </c>
     </row>
     <row r="464">
@@ -22919,7 +22919,7 @@
         </is>
       </c>
       <c r="P464" t="n">
-        <v>8331524365</v>
+        <v>712309695</v>
       </c>
     </row>
     <row r="465">
@@ -22967,7 +22967,7 @@
         </is>
       </c>
       <c r="P465" t="n">
-        <v>2085170613</v>
+        <v>3705453136</v>
       </c>
     </row>
     <row r="466">
@@ -23015,7 +23015,7 @@
         </is>
       </c>
       <c r="P466" t="n">
-        <v>9177161029</v>
+        <v>4744721208</v>
       </c>
     </row>
     <row r="467">
@@ -23063,7 +23063,7 @@
         </is>
       </c>
       <c r="P467" t="n">
-        <v>310942619</v>
+        <v>5583525378</v>
       </c>
     </row>
     <row r="468">
@@ -23111,7 +23111,7 @@
         </is>
       </c>
       <c r="P468" t="n">
-        <v>2930808175</v>
+        <v>4761818111</v>
       </c>
     </row>
     <row r="469">
@@ -23159,7 +23159,7 @@
         </is>
       </c>
       <c r="P469" t="n">
-        <v>7454987567</v>
+        <v>554734885</v>
       </c>
     </row>
     <row r="470">
@@ -23207,7 +23207,7 @@
         </is>
       </c>
       <c r="P470" t="n">
-        <v>3855476058</v>
+        <v>1150418004</v>
       </c>
     </row>
     <row r="471">
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="P471" t="n">
-        <v>7941166728</v>
+        <v>560962473</v>
       </c>
     </row>
     <row r="472">
@@ -23303,7 +23303,7 @@
         </is>
       </c>
       <c r="P472" t="n">
-        <v>7846399688</v>
+        <v>3717833618</v>
       </c>
     </row>
     <row r="473">
@@ -23351,7 +23351,7 @@
         </is>
       </c>
       <c r="P473" t="n">
-        <v>5416042981</v>
+        <v>1863428355</v>
       </c>
     </row>
     <row r="474">
@@ -23399,7 +23399,7 @@
         </is>
       </c>
       <c r="P474" t="n">
-        <v>4131143236</v>
+        <v>538709256</v>
       </c>
     </row>
     <row r="475">
@@ -23447,7 +23447,7 @@
         </is>
       </c>
       <c r="P475" t="n">
-        <v>6377367108</v>
+        <v>5210867967</v>
       </c>
     </row>
     <row r="476">
@@ -23495,7 +23495,7 @@
         </is>
       </c>
       <c r="P476" t="n">
-        <v>7141360224</v>
+        <v>2011500477</v>
       </c>
     </row>
     <row r="477">
@@ -23543,7 +23543,7 @@
         </is>
       </c>
       <c r="P477" t="n">
-        <v>6586324797</v>
+        <v>4217916632</v>
       </c>
     </row>
     <row r="478">
@@ -23593,7 +23593,7 @@
         </is>
       </c>
       <c r="P478" t="n">
-        <v>8545749554</v>
+        <v>5078189845</v>
       </c>
     </row>
     <row r="479">
@@ -23643,7 +23643,7 @@
         </is>
       </c>
       <c r="P479" t="n">
-        <v>4567274480</v>
+        <v>2621912947</v>
       </c>
     </row>
     <row r="480">
@@ -23691,7 +23691,7 @@
         </is>
       </c>
       <c r="P480" t="n">
-        <v>522306018</v>
+        <v>8043416282</v>
       </c>
     </row>
     <row r="481">
@@ -23739,7 +23739,7 @@
         </is>
       </c>
       <c r="P481" t="n">
-        <v>895424728</v>
+        <v>5383118519</v>
       </c>
     </row>
     <row r="482">
@@ -23787,7 +23787,7 @@
         </is>
       </c>
       <c r="P482" t="n">
-        <v>6039552539</v>
+        <v>1165410874</v>
       </c>
     </row>
     <row r="483">
@@ -23835,7 +23835,7 @@
         </is>
       </c>
       <c r="P483" t="n">
-        <v>2853897240</v>
+        <v>4437580369</v>
       </c>
     </row>
     <row r="484">
@@ -23883,7 +23883,7 @@
         </is>
       </c>
       <c r="P484" t="n">
-        <v>1531062830</v>
+        <v>4229064106</v>
       </c>
     </row>
     <row r="485">
@@ -23931,7 +23931,7 @@
         </is>
       </c>
       <c r="P485" t="n">
-        <v>6460262841</v>
+        <v>4530863923</v>
       </c>
     </row>
     <row r="486">
@@ -23979,7 +23979,7 @@
         </is>
       </c>
       <c r="P486" t="n">
-        <v>3070060065</v>
+        <v>4560845872</v>
       </c>
     </row>
     <row r="487">
@@ -24027,7 +24027,7 @@
         </is>
       </c>
       <c r="P487" t="n">
-        <v>8453157281</v>
+        <v>4085620636</v>
       </c>
     </row>
     <row r="488">
@@ -24075,7 +24075,7 @@
         </is>
       </c>
       <c r="P488" t="n">
-        <v>8872584739</v>
+        <v>582224779</v>
       </c>
     </row>
     <row r="489">
@@ -24123,7 +24123,7 @@
         </is>
       </c>
       <c r="P489" t="n">
-        <v>4644154768</v>
+        <v>7639388827</v>
       </c>
     </row>
     <row r="490">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="P490" t="n">
-        <v>1683410725</v>
+        <v>4554919522</v>
       </c>
     </row>
     <row r="491">
@@ -24219,7 +24219,7 @@
         </is>
       </c>
       <c r="P491" t="n">
-        <v>1083448788</v>
+        <v>96082950</v>
       </c>
     </row>
     <row r="492">
@@ -24267,7 +24267,7 @@
         </is>
       </c>
       <c r="P492" t="n">
-        <v>285161363</v>
+        <v>189662451</v>
       </c>
     </row>
     <row r="493">
@@ -24317,7 +24317,7 @@
         </is>
       </c>
       <c r="P493" t="n">
-        <v>6711646653</v>
+        <v>3568582345</v>
       </c>
     </row>
     <row r="494">
@@ -24365,7 +24365,7 @@
         </is>
       </c>
       <c r="P494" t="n">
-        <v>781705658</v>
+        <v>3153097338</v>
       </c>
     </row>
     <row r="495">
@@ -24415,7 +24415,7 @@
         </is>
       </c>
       <c r="P495" t="n">
-        <v>3878049634</v>
+        <v>1303038123</v>
       </c>
     </row>
     <row r="496">
@@ -24463,7 +24463,7 @@
         </is>
       </c>
       <c r="P496" t="n">
-        <v>6564999066</v>
+        <v>7328501803</v>
       </c>
     </row>
     <row r="497">
@@ -24511,7 +24511,7 @@
         </is>
       </c>
       <c r="P497" t="n">
-        <v>6161447703</v>
+        <v>9573265936</v>
       </c>
     </row>
     <row r="498">
@@ -24559,7 +24559,7 @@
         </is>
       </c>
       <c r="P498" t="n">
-        <v>5221014227</v>
+        <v>6522740273</v>
       </c>
     </row>
     <row r="499">
@@ -24607,7 +24607,7 @@
         </is>
       </c>
       <c r="P499" t="n">
-        <v>2297239390</v>
+        <v>2533847744</v>
       </c>
     </row>
     <row r="500">
@@ -24655,7 +24655,7 @@
         </is>
       </c>
       <c r="P500" t="n">
-        <v>7345093809</v>
+        <v>3589191515</v>
       </c>
     </row>
     <row r="501">
@@ -24703,7 +24703,7 @@
         </is>
       </c>
       <c r="P501" t="n">
-        <v>5228244331</v>
+        <v>2059176574</v>
       </c>
     </row>
     <row r="502">
@@ -24751,7 +24751,7 @@
         </is>
       </c>
       <c r="P502" t="n">
-        <v>6764206731</v>
+        <v>435275498</v>
       </c>
     </row>
     <row r="503">
@@ -24799,7 +24799,7 @@
         </is>
       </c>
       <c r="P503" t="n">
-        <v>61949452</v>
+        <v>7928292284</v>
       </c>
     </row>
     <row r="504">
@@ -24847,7 +24847,7 @@
         </is>
       </c>
       <c r="P504" t="n">
-        <v>3883018456</v>
+        <v>2500140020</v>
       </c>
     </row>
     <row r="505">
@@ -24895,7 +24895,7 @@
         </is>
       </c>
       <c r="P505" t="n">
-        <v>3721798663</v>
+        <v>9228206534</v>
       </c>
     </row>
     <row r="506">
@@ -24943,7 +24943,7 @@
         </is>
       </c>
       <c r="P506" t="n">
-        <v>7301185984</v>
+        <v>8367658902</v>
       </c>
     </row>
     <row r="507">
@@ -24991,7 +24991,7 @@
         </is>
       </c>
       <c r="P507" t="n">
-        <v>3858758759</v>
+        <v>2866314965</v>
       </c>
     </row>
     <row r="508">
@@ -25039,7 +25039,7 @@
         </is>
       </c>
       <c r="P508" t="n">
-        <v>3413446926</v>
+        <v>4465144780</v>
       </c>
     </row>
     <row r="509">
@@ -25087,7 +25087,7 @@
         </is>
       </c>
       <c r="P509" t="n">
-        <v>2184755609</v>
+        <v>5754472428</v>
       </c>
     </row>
     <row r="510">
@@ -25135,7 +25135,7 @@
         </is>
       </c>
       <c r="P510" t="n">
-        <v>6167022922</v>
+        <v>2488483592</v>
       </c>
     </row>
     <row r="511">
@@ -25183,7 +25183,7 @@
         </is>
       </c>
       <c r="P511" t="n">
-        <v>2918003190</v>
+        <v>1042263704</v>
       </c>
     </row>
     <row r="512">
@@ -25231,7 +25231,7 @@
         </is>
       </c>
       <c r="P512" t="n">
-        <v>1661480325</v>
+        <v>8538063012</v>
       </c>
     </row>
     <row r="513">
@@ -25279,7 +25279,7 @@
         </is>
       </c>
       <c r="P513" t="n">
-        <v>2290710912</v>
+        <v>7217183516</v>
       </c>
     </row>
     <row r="514">
@@ -25327,7 +25327,7 @@
         </is>
       </c>
       <c r="P514" t="n">
-        <v>7308563273</v>
+        <v>31587706</v>
       </c>
     </row>
     <row r="515">
@@ -25375,7 +25375,7 @@
         </is>
       </c>
       <c r="P515" t="n">
-        <v>4806569111</v>
+        <v>2937787768</v>
       </c>
     </row>
     <row r="516">
@@ -25423,7 +25423,7 @@
         </is>
       </c>
       <c r="P516" t="n">
-        <v>2600647130</v>
+        <v>7389104768</v>
       </c>
     </row>
     <row r="517">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="P517" t="n">
-        <v>7779799755</v>
+        <v>4896603517</v>
       </c>
     </row>
     <row r="518">
@@ -25519,7 +25519,7 @@
         </is>
       </c>
       <c r="P518" t="n">
-        <v>2083783520</v>
+        <v>109161417</v>
       </c>
     </row>
     <row r="519">
@@ -25567,7 +25567,7 @@
         </is>
       </c>
       <c r="P519" t="n">
-        <v>1839467049</v>
+        <v>5222864678</v>
       </c>
     </row>
     <row r="520">
@@ -25615,7 +25615,7 @@
         </is>
       </c>
       <c r="P520" t="n">
-        <v>2140034062</v>
+        <v>9666551080</v>
       </c>
     </row>
     <row r="521">
@@ -25663,7 +25663,7 @@
         </is>
       </c>
       <c r="P521" t="n">
-        <v>2439291431</v>
+        <v>2651970326</v>
       </c>
     </row>
     <row r="522">
@@ -25711,7 +25711,7 @@
         </is>
       </c>
       <c r="P522" t="n">
-        <v>5624043827</v>
+        <v>475739696</v>
       </c>
     </row>
     <row r="523">
@@ -25759,7 +25759,7 @@
         </is>
       </c>
       <c r="P523" t="n">
-        <v>9492603483</v>
+        <v>4306753510</v>
       </c>
     </row>
     <row r="524">
@@ -25807,7 +25807,7 @@
         </is>
       </c>
       <c r="P524" t="n">
-        <v>4025399999</v>
+        <v>7813084841</v>
       </c>
     </row>
     <row r="525">
@@ -25857,7 +25857,7 @@
         </is>
       </c>
       <c r="P525" t="n">
-        <v>5449514732</v>
+        <v>5113455950</v>
       </c>
     </row>
     <row r="526">
@@ -25905,7 +25905,7 @@
         </is>
       </c>
       <c r="P526" t="n">
-        <v>9697403159</v>
+        <v>7958207136</v>
       </c>
     </row>
     <row r="527">
@@ -25953,7 +25953,7 @@
         </is>
       </c>
       <c r="P527" t="n">
-        <v>7541043756</v>
+        <v>7481209014</v>
       </c>
     </row>
     <row r="528">
@@ -26001,7 +26001,7 @@
         </is>
       </c>
       <c r="P528" t="n">
-        <v>8825899235</v>
+        <v>2593830312</v>
       </c>
     </row>
     <row r="529">
@@ -26049,7 +26049,7 @@
         </is>
       </c>
       <c r="P529" t="n">
-        <v>1933796428</v>
+        <v>1693253473</v>
       </c>
     </row>
     <row r="530">
@@ -26097,7 +26097,7 @@
         </is>
       </c>
       <c r="P530" t="n">
-        <v>795487507</v>
+        <v>6437649551</v>
       </c>
     </row>
     <row r="531">
@@ -26145,7 +26145,7 @@
         </is>
       </c>
       <c r="P531" t="n">
-        <v>5919019624</v>
+        <v>3559198460</v>
       </c>
     </row>
     <row r="532">
@@ -26193,7 +26193,7 @@
         </is>
       </c>
       <c r="P532" t="n">
-        <v>5056569901</v>
+        <v>5616680054</v>
       </c>
     </row>
     <row r="533">
@@ -26241,7 +26241,7 @@
         </is>
       </c>
       <c r="P533" t="n">
-        <v>1124806515</v>
+        <v>6969601200</v>
       </c>
     </row>
     <row r="534">
@@ -26289,7 +26289,7 @@
         </is>
       </c>
       <c r="P534" t="n">
-        <v>2332471374</v>
+        <v>9459374816</v>
       </c>
     </row>
     <row r="535">
@@ -26337,7 +26337,7 @@
         </is>
       </c>
       <c r="P535" t="n">
-        <v>7571977077</v>
+        <v>8647909551</v>
       </c>
     </row>
     <row r="536">
@@ -26385,7 +26385,7 @@
         </is>
       </c>
       <c r="P536" t="n">
-        <v>2367839080</v>
+        <v>1509121082</v>
       </c>
     </row>
     <row r="537">
@@ -26433,7 +26433,7 @@
         </is>
       </c>
       <c r="P537" t="n">
-        <v>7448512543</v>
+        <v>6573695876</v>
       </c>
     </row>
     <row r="538">
@@ -26481,7 +26481,7 @@
         </is>
       </c>
       <c r="P538" t="n">
-        <v>7255095246</v>
+        <v>6283012667</v>
       </c>
     </row>
     <row r="539">
@@ -26529,7 +26529,7 @@
         </is>
       </c>
       <c r="P539" t="n">
-        <v>6992380675</v>
+        <v>468271360</v>
       </c>
     </row>
     <row r="540">
@@ -26577,7 +26577,7 @@
         </is>
       </c>
       <c r="P540" t="n">
-        <v>4823226778</v>
+        <v>9931633216</v>
       </c>
     </row>
     <row r="541">
@@ -26625,7 +26625,7 @@
         </is>
       </c>
       <c r="P541" t="n">
-        <v>5303243993</v>
+        <v>8192862033</v>
       </c>
     </row>
     <row r="542">
@@ -26673,7 +26673,7 @@
         </is>
       </c>
       <c r="P542" t="n">
-        <v>5866181042</v>
+        <v>3281512714</v>
       </c>
     </row>
     <row r="543">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="P543" t="n">
-        <v>6110886697</v>
+        <v>1856290044</v>
       </c>
     </row>
     <row r="544">
@@ -26769,7 +26769,7 @@
         </is>
       </c>
       <c r="P544" t="n">
-        <v>5353012337</v>
+        <v>7883014395</v>
       </c>
     </row>
     <row r="545">
@@ -26819,7 +26819,7 @@
         </is>
       </c>
       <c r="P545" t="n">
-        <v>8927174314</v>
+        <v>3730494834</v>
       </c>
     </row>
     <row r="546">
@@ -26869,7 +26869,7 @@
         </is>
       </c>
       <c r="P546" t="n">
-        <v>135765619</v>
+        <v>4864245035</v>
       </c>
     </row>
     <row r="547">
@@ -26919,7 +26919,7 @@
         </is>
       </c>
       <c r="P547" t="n">
-        <v>5466957255</v>
+        <v>2977941486</v>
       </c>
     </row>
     <row r="548">
@@ -26969,7 +26969,7 @@
         </is>
       </c>
       <c r="P548" t="n">
-        <v>2564132161</v>
+        <v>9516769074</v>
       </c>
     </row>
     <row r="549">
@@ -27019,7 +27019,7 @@
         </is>
       </c>
       <c r="P549" t="n">
-        <v>4867030916</v>
+        <v>6142623867</v>
       </c>
     </row>
     <row r="550">
@@ -27069,7 +27069,7 @@
         </is>
       </c>
       <c r="P550" t="n">
-        <v>8324504674</v>
+        <v>4397335126</v>
       </c>
     </row>
     <row r="551">
@@ -27119,7 +27119,7 @@
         </is>
       </c>
       <c r="P551" t="n">
-        <v>7052568217</v>
+        <v>189957814</v>
       </c>
     </row>
     <row r="552">
@@ -27169,7 +27169,7 @@
         </is>
       </c>
       <c r="P552" t="n">
-        <v>4911101265</v>
+        <v>6893856905</v>
       </c>
     </row>
     <row r="553">
@@ -27219,7 +27219,7 @@
         </is>
       </c>
       <c r="P553" t="n">
-        <v>6022814962</v>
+        <v>3992410762</v>
       </c>
     </row>
     <row r="554">
@@ -27269,7 +27269,7 @@
         </is>
       </c>
       <c r="P554" t="n">
-        <v>8060777798</v>
+        <v>3816267773</v>
       </c>
     </row>
     <row r="555">
@@ -27319,7 +27319,7 @@
         </is>
       </c>
       <c r="P555" t="n">
-        <v>1124331390</v>
+        <v>6816701399</v>
       </c>
     </row>
     <row r="556">
@@ -27369,7 +27369,7 @@
         </is>
       </c>
       <c r="P556" t="n">
-        <v>511319583</v>
+        <v>9760468659</v>
       </c>
     </row>
     <row r="557">
@@ -27419,7 +27419,7 @@
         </is>
       </c>
       <c r="P557" t="n">
-        <v>5599628849</v>
+        <v>6053721323</v>
       </c>
     </row>
     <row r="558">
@@ -27469,7 +27469,7 @@
         </is>
       </c>
       <c r="P558" t="n">
-        <v>4615925829</v>
+        <v>8661009486</v>
       </c>
     </row>
     <row r="559">
@@ -27519,7 +27519,7 @@
         </is>
       </c>
       <c r="P559" t="n">
-        <v>6311449687</v>
+        <v>9031487710</v>
       </c>
     </row>
     <row r="560">
@@ -27569,7 +27569,7 @@
         </is>
       </c>
       <c r="P560" t="n">
-        <v>8593729570</v>
+        <v>5824888212</v>
       </c>
     </row>
     <row r="561">
@@ -27617,7 +27617,7 @@
         </is>
       </c>
       <c r="P561" t="n">
-        <v>1354579090</v>
+        <v>834839148</v>
       </c>
     </row>
     <row r="562">
@@ -27665,7 +27665,7 @@
         </is>
       </c>
       <c r="P562" t="n">
-        <v>4513650743</v>
+        <v>9958466120</v>
       </c>
     </row>
     <row r="563">
@@ -27713,7 +27713,7 @@
         </is>
       </c>
       <c r="P563" t="n">
-        <v>8347342346</v>
+        <v>7508102910</v>
       </c>
     </row>
     <row r="564">
@@ -27761,7 +27761,7 @@
         </is>
       </c>
       <c r="P564" t="n">
-        <v>2824949995</v>
+        <v>567277047</v>
       </c>
     </row>
     <row r="565">
@@ -27809,7 +27809,7 @@
         </is>
       </c>
       <c r="P565" t="n">
-        <v>5177693768</v>
+        <v>7328166304</v>
       </c>
     </row>
     <row r="566">
@@ -27857,7 +27857,7 @@
         </is>
       </c>
       <c r="P566" t="n">
-        <v>8433048522</v>
+        <v>5835065823</v>
       </c>
     </row>
     <row r="567">
@@ -27905,7 +27905,7 @@
         </is>
       </c>
       <c r="P567" t="n">
-        <v>778694149</v>
+        <v>7953488605</v>
       </c>
     </row>
     <row r="568">
@@ -27953,7 +27953,7 @@
         </is>
       </c>
       <c r="P568" t="n">
-        <v>4970559381</v>
+        <v>9633253533</v>
       </c>
     </row>
     <row r="569">
@@ -28001,7 +28001,7 @@
         </is>
       </c>
       <c r="P569" t="n">
-        <v>9444707153</v>
+        <v>7656277716</v>
       </c>
     </row>
     <row r="570">
@@ -28047,7 +28047,7 @@
         </is>
       </c>
       <c r="P570" t="n">
-        <v>2127722449</v>
+        <v>9601152221</v>
       </c>
     </row>
     <row r="571">
@@ -28097,7 +28097,7 @@
         </is>
       </c>
       <c r="P571" t="n">
-        <v>982598796</v>
+        <v>7853848756</v>
       </c>
     </row>
     <row r="572">
@@ -28143,7 +28143,7 @@
         </is>
       </c>
       <c r="P572" t="n">
-        <v>5578414016</v>
+        <v>4022234811</v>
       </c>
     </row>
     <row r="573">
@@ -28191,7 +28191,7 @@
         </is>
       </c>
       <c r="P573" t="n">
-        <v>2559633005</v>
+        <v>1157416396</v>
       </c>
     </row>
     <row r="574">
@@ -28239,7 +28239,7 @@
         </is>
       </c>
       <c r="P574" t="n">
-        <v>403570849</v>
+        <v>331428537</v>
       </c>
     </row>
     <row r="575">
@@ -28285,7 +28285,7 @@
         </is>
       </c>
       <c r="P575" t="n">
-        <v>6738611000</v>
+        <v>7746325094</v>
       </c>
     </row>
     <row r="576">
@@ -28331,7 +28331,7 @@
         </is>
       </c>
       <c r="P576" t="n">
-        <v>3835854109</v>
+        <v>3083173299</v>
       </c>
     </row>
     <row r="577">
@@ -28377,7 +28377,7 @@
         </is>
       </c>
       <c r="P577" t="n">
-        <v>4888130055</v>
+        <v>919965533</v>
       </c>
     </row>
     <row r="578">
@@ -28423,7 +28423,7 @@
         </is>
       </c>
       <c r="P578" t="n">
-        <v>939521179</v>
+        <v>465650791</v>
       </c>
     </row>
     <row r="579">
@@ -28469,7 +28469,7 @@
         </is>
       </c>
       <c r="P579" t="n">
-        <v>2400048504</v>
+        <v>1977336865</v>
       </c>
     </row>
     <row r="580">
@@ -28517,7 +28517,7 @@
         </is>
       </c>
       <c r="P580" t="n">
-        <v>7615508744</v>
+        <v>4791182832</v>
       </c>
     </row>
     <row r="581">
@@ -28565,7 +28565,7 @@
         </is>
       </c>
       <c r="P581" t="n">
-        <v>9526826460</v>
+        <v>8529747685</v>
       </c>
     </row>
     <row r="582">
@@ -28613,7 +28613,7 @@
         </is>
       </c>
       <c r="P582" t="n">
-        <v>3536554217</v>
+        <v>9256085150</v>
       </c>
     </row>
     <row r="583">
@@ -28663,7 +28663,7 @@
         </is>
       </c>
       <c r="P583" t="n">
-        <v>9972119140</v>
+        <v>2651341788</v>
       </c>
     </row>
     <row r="584">
@@ -28709,7 +28709,7 @@
         </is>
       </c>
       <c r="P584" t="n">
-        <v>477325140</v>
+        <v>9466813181</v>
       </c>
     </row>
     <row r="585">
@@ -28757,7 +28757,7 @@
         </is>
       </c>
       <c r="P585" t="n">
-        <v>2278150280</v>
+        <v>9981695092</v>
       </c>
     </row>
     <row r="586">
@@ -28805,7 +28805,7 @@
         </is>
       </c>
       <c r="P586" t="n">
-        <v>5946619948</v>
+        <v>5697885951</v>
       </c>
     </row>
     <row r="587">
@@ -28851,7 +28851,7 @@
         </is>
       </c>
       <c r="P587" t="n">
-        <v>2522978995</v>
+        <v>7654356691</v>
       </c>
     </row>
     <row r="588">
@@ -28899,7 +28899,7 @@
         </is>
       </c>
       <c r="P588" t="n">
-        <v>6090251945</v>
+        <v>2184392368</v>
       </c>
     </row>
     <row r="589">
@@ -28947,7 +28947,7 @@
         </is>
       </c>
       <c r="P589" t="n">
-        <v>6505079621</v>
+        <v>8614336570</v>
       </c>
     </row>
     <row r="590">
@@ -28995,7 +28995,7 @@
         </is>
       </c>
       <c r="P590" t="n">
-        <v>8161715344</v>
+        <v>6670790320</v>
       </c>
     </row>
     <row r="591">
@@ -29041,7 +29041,7 @@
         </is>
       </c>
       <c r="P591" t="n">
-        <v>9787702068</v>
+        <v>2498722785</v>
       </c>
     </row>
     <row r="592">
@@ -29087,7 +29087,7 @@
         </is>
       </c>
       <c r="P592" t="n">
-        <v>682362316</v>
+        <v>9730958965</v>
       </c>
     </row>
     <row r="593">
@@ -29133,7 +29133,7 @@
         </is>
       </c>
       <c r="P593" t="n">
-        <v>3428569549</v>
+        <v>716311926</v>
       </c>
     </row>
     <row r="594">
@@ -29181,7 +29181,7 @@
         </is>
       </c>
       <c r="P594" t="n">
-        <v>3452036689</v>
+        <v>6361018300</v>
       </c>
     </row>
     <row r="595">
@@ -29229,7 +29229,7 @@
         </is>
       </c>
       <c r="P595" t="n">
-        <v>499993508</v>
+        <v>3197476536</v>
       </c>
     </row>
     <row r="596">
@@ -29275,7 +29275,7 @@
         </is>
       </c>
       <c r="P596" t="n">
-        <v>1942844157</v>
+        <v>4557317731</v>
       </c>
     </row>
     <row r="597">
@@ -29321,7 +29321,7 @@
         </is>
       </c>
       <c r="P597" t="n">
-        <v>6086166520</v>
+        <v>5580206673</v>
       </c>
     </row>
     <row r="598">
@@ -29367,7 +29367,7 @@
         </is>
       </c>
       <c r="P598" t="n">
-        <v>9924590028</v>
+        <v>5677192667</v>
       </c>
     </row>
     <row r="599">
@@ -29415,7 +29415,7 @@
         </is>
       </c>
       <c r="P599" t="n">
-        <v>2353850904</v>
+        <v>4201343344</v>
       </c>
     </row>
     <row r="600">
@@ -29461,7 +29461,7 @@
         </is>
       </c>
       <c r="P600" t="n">
-        <v>6271742959</v>
+        <v>9496454956</v>
       </c>
     </row>
     <row r="601">
@@ -29507,7 +29507,7 @@
         </is>
       </c>
       <c r="P601" t="n">
-        <v>4418206564</v>
+        <v>7216200882</v>
       </c>
     </row>
     <row r="602">
@@ -29553,7 +29553,7 @@
         </is>
       </c>
       <c r="P602" t="n">
-        <v>3123345431</v>
+        <v>2009557369</v>
       </c>
     </row>
     <row r="603">
@@ -29599,7 +29599,7 @@
         </is>
       </c>
       <c r="P603" t="n">
-        <v>1956736893</v>
+        <v>9453304030</v>
       </c>
     </row>
     <row r="604">
@@ -29645,7 +29645,7 @@
         </is>
       </c>
       <c r="P604" t="n">
-        <v>5293643381</v>
+        <v>1198317524</v>
       </c>
     </row>
     <row r="605">
@@ -29691,7 +29691,7 @@
         </is>
       </c>
       <c r="P605" t="n">
-        <v>301716225</v>
+        <v>3589481339</v>
       </c>
     </row>
     <row r="606">
@@ -29739,7 +29739,7 @@
         </is>
       </c>
       <c r="P606" t="n">
-        <v>4916378132</v>
+        <v>2135809613</v>
       </c>
     </row>
     <row r="607">
@@ -29785,7 +29785,7 @@
         </is>
       </c>
       <c r="P607" t="n">
-        <v>3575716616</v>
+        <v>7206392446</v>
       </c>
     </row>
     <row r="608">
@@ -29831,7 +29831,7 @@
         </is>
       </c>
       <c r="P608" t="n">
-        <v>3882992281</v>
+        <v>7500699802</v>
       </c>
     </row>
     <row r="609">
@@ -29877,7 +29877,7 @@
         </is>
       </c>
       <c r="P609" t="n">
-        <v>7053312394</v>
+        <v>3848841752</v>
       </c>
     </row>
     <row r="610">
@@ -29923,7 +29923,7 @@
         </is>
       </c>
       <c r="P610" t="n">
-        <v>2641089634</v>
+        <v>1634912710</v>
       </c>
     </row>
     <row r="611">
@@ -29971,7 +29971,7 @@
         </is>
       </c>
       <c r="P611" t="n">
-        <v>9620509082</v>
+        <v>1580820621</v>
       </c>
     </row>
     <row r="612">
@@ -30017,7 +30017,7 @@
         </is>
       </c>
       <c r="P612" t="n">
-        <v>7021271597</v>
+        <v>7627900366</v>
       </c>
     </row>
     <row r="613">
@@ -30063,7 +30063,7 @@
         </is>
       </c>
       <c r="P613" t="n">
-        <v>5108470311</v>
+        <v>9841889081</v>
       </c>
     </row>
     <row r="614">
@@ -30109,7 +30109,7 @@
         </is>
       </c>
       <c r="P614" t="n">
-        <v>5263204070</v>
+        <v>6651329889</v>
       </c>
     </row>
     <row r="615">
@@ -30157,7 +30157,7 @@
         </is>
       </c>
       <c r="P615" t="n">
-        <v>8932608780</v>
+        <v>120371049</v>
       </c>
     </row>
     <row r="616">
@@ -30203,7 +30203,7 @@
         </is>
       </c>
       <c r="P616" t="n">
-        <v>8812559345</v>
+        <v>9534917928</v>
       </c>
     </row>
     <row r="617">
@@ -30251,7 +30251,7 @@
         </is>
       </c>
       <c r="P617" t="n">
-        <v>6935638561</v>
+        <v>1062954886</v>
       </c>
     </row>
     <row r="618">
@@ -30297,7 +30297,7 @@
         </is>
       </c>
       <c r="P618" t="n">
-        <v>2611554998</v>
+        <v>6703375231</v>
       </c>
     </row>
     <row r="619">
@@ -30343,7 +30343,7 @@
         </is>
       </c>
       <c r="P619" t="n">
-        <v>7360089936</v>
+        <v>1437304089</v>
       </c>
     </row>
     <row r="620">
@@ -30389,7 +30389,7 @@
         </is>
       </c>
       <c r="P620" t="n">
-        <v>3156555414</v>
+        <v>7957495966</v>
       </c>
     </row>
     <row r="621">
@@ -30435,7 +30435,7 @@
         </is>
       </c>
       <c r="P621" t="n">
-        <v>9240920552</v>
+        <v>9784854326</v>
       </c>
     </row>
     <row r="622">
@@ -30481,7 +30481,7 @@
         </is>
       </c>
       <c r="P622" t="n">
-        <v>6154711987</v>
+        <v>9864634783</v>
       </c>
     </row>
     <row r="623">
@@ -30527,7 +30527,7 @@
         </is>
       </c>
       <c r="P623" t="n">
-        <v>2242839162</v>
+        <v>9504886873</v>
       </c>
     </row>
     <row r="624">
@@ -30573,7 +30573,7 @@
         </is>
       </c>
       <c r="P624" t="n">
-        <v>5051838734</v>
+        <v>1080378686</v>
       </c>
     </row>
     <row r="625">
@@ -30619,7 +30619,7 @@
         </is>
       </c>
       <c r="P625" t="n">
-        <v>2139918691</v>
+        <v>1168118518</v>
       </c>
     </row>
     <row r="626">
@@ -30665,7 +30665,7 @@
         </is>
       </c>
       <c r="P626" t="n">
-        <v>6690959388</v>
+        <v>3529957134</v>
       </c>
     </row>
     <row r="627">
@@ -30711,7 +30711,7 @@
         </is>
       </c>
       <c r="P627" t="n">
-        <v>2323749333</v>
+        <v>7038482925</v>
       </c>
     </row>
     <row r="628">
@@ -30757,7 +30757,7 @@
         </is>
       </c>
       <c r="P628" t="n">
-        <v>9747578772</v>
+        <v>8246311748</v>
       </c>
     </row>
     <row r="629">
@@ -30803,7 +30803,7 @@
         </is>
       </c>
       <c r="P629" t="n">
-        <v>4650820196</v>
+        <v>7522538615</v>
       </c>
     </row>
     <row r="630">
@@ -30849,7 +30849,7 @@
         </is>
       </c>
       <c r="P630" t="n">
-        <v>3227404871</v>
+        <v>5549985624</v>
       </c>
     </row>
     <row r="631">
@@ -30895,7 +30895,7 @@
         </is>
       </c>
       <c r="P631" t="n">
-        <v>2505744930</v>
+        <v>2885319165</v>
       </c>
     </row>
     <row r="632">
@@ -30941,7 +30941,7 @@
         </is>
       </c>
       <c r="P632" t="n">
-        <v>8086593070</v>
+        <v>5913371953</v>
       </c>
     </row>
     <row r="633">
@@ -30987,7 +30987,7 @@
         </is>
       </c>
       <c r="P633" t="n">
-        <v>7705990672</v>
+        <v>3861469019</v>
       </c>
     </row>
     <row r="634">
@@ -31033,7 +31033,7 @@
         </is>
       </c>
       <c r="P634" t="n">
-        <v>7723916390</v>
+        <v>8330016920</v>
       </c>
     </row>
     <row r="635">
@@ -31079,7 +31079,7 @@
         </is>
       </c>
       <c r="P635" t="n">
-        <v>978111548</v>
+        <v>945456262</v>
       </c>
     </row>
     <row r="636">
@@ -31125,7 +31125,7 @@
         </is>
       </c>
       <c r="P636" t="n">
-        <v>44053435</v>
+        <v>7859835398</v>
       </c>
     </row>
     <row r="637">
@@ -31171,7 +31171,7 @@
         </is>
       </c>
       <c r="P637" t="n">
-        <v>5394814273</v>
+        <v>8653177993</v>
       </c>
     </row>
     <row r="638">
@@ -31221,7 +31221,7 @@
         </is>
       </c>
       <c r="P638" t="n">
-        <v>5413587853</v>
+        <v>614815903</v>
       </c>
     </row>
     <row r="639">
@@ -31269,7 +31269,7 @@
         </is>
       </c>
       <c r="P639" t="n">
-        <v>2783887766</v>
+        <v>8471641440</v>
       </c>
     </row>
     <row r="640">
@@ -31315,7 +31315,7 @@
         </is>
       </c>
       <c r="P640" t="n">
-        <v>1095120941</v>
+        <v>2072283326</v>
       </c>
     </row>
     <row r="641">
@@ -31361,7 +31361,7 @@
         </is>
       </c>
       <c r="P641" t="n">
-        <v>570791466</v>
+        <v>1582511140</v>
       </c>
     </row>
     <row r="642">
@@ -31407,7 +31407,7 @@
         </is>
       </c>
       <c r="P642" t="n">
-        <v>43958016</v>
+        <v>7646942137</v>
       </c>
     </row>
     <row r="643">
@@ -31455,7 +31455,7 @@
         </is>
       </c>
       <c r="P643" t="n">
-        <v>1429770474</v>
+        <v>1367032556</v>
       </c>
     </row>
     <row r="644">
@@ -31501,7 +31501,7 @@
         </is>
       </c>
       <c r="P644" t="n">
-        <v>7163884795</v>
+        <v>7950914150</v>
       </c>
     </row>
     <row r="645">
@@ -31547,7 +31547,7 @@
         </is>
       </c>
       <c r="P645" t="n">
-        <v>9377261214</v>
+        <v>5044049355</v>
       </c>
     </row>
     <row r="646">
@@ -31595,7 +31595,7 @@
         </is>
       </c>
       <c r="P646" t="n">
-        <v>641018220</v>
+        <v>9977459153</v>
       </c>
     </row>
     <row r="647">
@@ -31641,7 +31641,7 @@
         </is>
       </c>
       <c r="P647" t="n">
-        <v>4601305633</v>
+        <v>5047616933</v>
       </c>
     </row>
     <row r="648">
@@ -31689,7 +31689,7 @@
         </is>
       </c>
       <c r="P648" t="n">
-        <v>3374345136</v>
+        <v>7839097605</v>
       </c>
     </row>
     <row r="649">
@@ -31735,7 +31735,7 @@
         </is>
       </c>
       <c r="P649" t="n">
-        <v>5892434741</v>
+        <v>9503230755</v>
       </c>
     </row>
     <row r="650">
@@ -31781,7 +31781,7 @@
         </is>
       </c>
       <c r="P650" t="n">
-        <v>2779857378</v>
+        <v>7409735224</v>
       </c>
     </row>
     <row r="651">
@@ -31827,7 +31827,7 @@
         </is>
       </c>
       <c r="P651" t="n">
-        <v>6148838953</v>
+        <v>3803968525</v>
       </c>
     </row>
     <row r="652">
@@ -31873,7 +31873,7 @@
         </is>
       </c>
       <c r="P652" t="n">
-        <v>160850634</v>
+        <v>8211993613</v>
       </c>
     </row>
     <row r="653">
@@ -31919,7 +31919,7 @@
         </is>
       </c>
       <c r="P653" t="n">
-        <v>6036814463</v>
+        <v>801919761</v>
       </c>
     </row>
     <row r="654">
@@ -31965,7 +31965,7 @@
         </is>
       </c>
       <c r="P654" t="n">
-        <v>4310081312</v>
+        <v>1390701104</v>
       </c>
     </row>
     <row r="655">
@@ -32011,7 +32011,7 @@
         </is>
       </c>
       <c r="P655" t="n">
-        <v>4484149077</v>
+        <v>603134440</v>
       </c>
     </row>
     <row r="656">
@@ -32057,7 +32057,7 @@
         </is>
       </c>
       <c r="P656" t="n">
-        <v>5308638686</v>
+        <v>971166558</v>
       </c>
     </row>
     <row r="657">
@@ -32103,7 +32103,7 @@
         </is>
       </c>
       <c r="P657" t="n">
-        <v>7992225482</v>
+        <v>3496965379</v>
       </c>
     </row>
     <row r="658">
@@ -32149,7 +32149,7 @@
         </is>
       </c>
       <c r="P658" t="n">
-        <v>7090544574</v>
+        <v>4831304966</v>
       </c>
     </row>
     <row r="659">
@@ -32195,7 +32195,7 @@
         </is>
       </c>
       <c r="P659" t="n">
-        <v>3841184230</v>
+        <v>2603000035</v>
       </c>
     </row>
     <row r="660">
@@ -32241,7 +32241,7 @@
         </is>
       </c>
       <c r="P660" t="n">
-        <v>8331262368</v>
+        <v>4602627688</v>
       </c>
     </row>
     <row r="661">
@@ -32287,7 +32287,7 @@
         </is>
       </c>
       <c r="P661" t="n">
-        <v>5511194402</v>
+        <v>7472001702</v>
       </c>
     </row>
     <row r="662">
@@ -32333,7 +32333,7 @@
         </is>
       </c>
       <c r="P662" t="n">
-        <v>1544806335</v>
+        <v>8360024053</v>
       </c>
     </row>
     <row r="663">
@@ -32379,7 +32379,7 @@
         </is>
       </c>
       <c r="P663" t="n">
-        <v>5173229710</v>
+        <v>5945839294</v>
       </c>
     </row>
     <row r="664">
@@ -32425,7 +32425,7 @@
         </is>
       </c>
       <c r="P664" t="n">
-        <v>1074436502</v>
+        <v>7050968039</v>
       </c>
     </row>
     <row r="665">
@@ -32471,7 +32471,7 @@
         </is>
       </c>
       <c r="P665" t="n">
-        <v>9441407078</v>
+        <v>9829618807</v>
       </c>
     </row>
     <row r="666">
@@ -32517,7 +32517,7 @@
         </is>
       </c>
       <c r="P666" t="n">
-        <v>1672289406</v>
+        <v>8068443014</v>
       </c>
     </row>
     <row r="667">
@@ -32565,7 +32565,7 @@
         </is>
       </c>
       <c r="P667" t="n">
-        <v>8418601583</v>
+        <v>7000955269</v>
       </c>
     </row>
     <row r="668">
@@ -32613,7 +32613,7 @@
         </is>
       </c>
       <c r="P668" t="n">
-        <v>6446969531</v>
+        <v>4684055647</v>
       </c>
     </row>
     <row r="669">
@@ -32661,7 +32661,7 @@
         </is>
       </c>
       <c r="P669" t="n">
-        <v>3222886046</v>
+        <v>1547290533</v>
       </c>
     </row>
     <row r="670">
@@ -32709,7 +32709,7 @@
         </is>
       </c>
       <c r="P670" t="n">
-        <v>3387836220</v>
+        <v>3281559177</v>
       </c>
     </row>
     <row r="671">
@@ -32757,7 +32757,7 @@
         </is>
       </c>
       <c r="P671" t="n">
-        <v>7860934236</v>
+        <v>2510068774</v>
       </c>
     </row>
     <row r="672">
@@ -32805,7 +32805,7 @@
         </is>
       </c>
       <c r="P672" t="n">
-        <v>2164681337</v>
+        <v>9750352753</v>
       </c>
     </row>
     <row r="673">
@@ -32853,7 +32853,7 @@
         </is>
       </c>
       <c r="P673" t="n">
-        <v>1464404693</v>
+        <v>6733756168</v>
       </c>
     </row>
     <row r="674">
@@ -32901,7 +32901,7 @@
         </is>
       </c>
       <c r="P674" t="n">
-        <v>7225944297</v>
+        <v>1978485439</v>
       </c>
     </row>
     <row r="675">
@@ -32949,7 +32949,7 @@
         </is>
       </c>
       <c r="P675" t="n">
-        <v>4729189989</v>
+        <v>4108553972</v>
       </c>
     </row>
     <row r="676">
@@ -32997,7 +32997,7 @@
         </is>
       </c>
       <c r="P676" t="n">
-        <v>2862969985</v>
+        <v>5515970333</v>
       </c>
     </row>
     <row r="677">
@@ -33045,7 +33045,7 @@
         </is>
       </c>
       <c r="P677" t="n">
-        <v>4020418999</v>
+        <v>8710265299</v>
       </c>
     </row>
     <row r="678">
@@ -33093,7 +33093,7 @@
         </is>
       </c>
       <c r="P678" t="n">
-        <v>632245997</v>
+        <v>8725977547</v>
       </c>
     </row>
     <row r="679">
@@ -33141,7 +33141,7 @@
         </is>
       </c>
       <c r="P679" t="n">
-        <v>6020536462</v>
+        <v>7899812193</v>
       </c>
     </row>
     <row r="680">
@@ -33189,7 +33189,7 @@
         </is>
       </c>
       <c r="P680" t="n">
-        <v>4541507430</v>
+        <v>9178965714</v>
       </c>
     </row>
     <row r="681">
@@ -33237,7 +33237,7 @@
         </is>
       </c>
       <c r="P681" t="n">
-        <v>7842636123</v>
+        <v>7350432413</v>
       </c>
     </row>
     <row r="682">
@@ -33285,7 +33285,7 @@
         </is>
       </c>
       <c r="P682" t="n">
-        <v>7116335057</v>
+        <v>7545356264</v>
       </c>
     </row>
     <row r="683">
@@ -33329,7 +33329,7 @@
         </is>
       </c>
       <c r="P683" t="n">
-        <v>4014332796</v>
+        <v>1071830025</v>
       </c>
     </row>
     <row r="684">
@@ -33377,7 +33377,7 @@
         </is>
       </c>
       <c r="P684" t="n">
-        <v>2658006549</v>
+        <v>4937666129</v>
       </c>
     </row>
     <row r="685">
@@ -33425,7 +33425,7 @@
         </is>
       </c>
       <c r="P685" t="n">
-        <v>6507111909</v>
+        <v>7376090937</v>
       </c>
     </row>
     <row r="686">
@@ -33473,7 +33473,7 @@
         </is>
       </c>
       <c r="P686" t="n">
-        <v>8303402851</v>
+        <v>8754201620</v>
       </c>
     </row>
     <row r="687">
@@ -33521,7 +33521,7 @@
         </is>
       </c>
       <c r="P687" t="n">
-        <v>9213969075</v>
+        <v>4354641004</v>
       </c>
     </row>
     <row r="688">
@@ -33569,7 +33569,7 @@
         </is>
       </c>
       <c r="P688" t="n">
-        <v>5240447266</v>
+        <v>7584901684</v>
       </c>
     </row>
     <row r="689">
@@ -33617,7 +33617,7 @@
         </is>
       </c>
       <c r="P689" t="n">
-        <v>5224413577</v>
+        <v>3537919701</v>
       </c>
     </row>
     <row r="690">
@@ -33665,7 +33665,7 @@
         </is>
       </c>
       <c r="P690" t="n">
-        <v>7647247755</v>
+        <v>8859789041</v>
       </c>
     </row>
     <row r="691">
@@ -33713,7 +33713,7 @@
         </is>
       </c>
       <c r="P691" t="n">
-        <v>9553480001</v>
+        <v>505107782</v>
       </c>
     </row>
     <row r="692">
@@ -33761,7 +33761,7 @@
         </is>
       </c>
       <c r="P692" t="n">
-        <v>4847628808</v>
+        <v>8801186027</v>
       </c>
     </row>
     <row r="693">
@@ -33809,7 +33809,7 @@
         </is>
       </c>
       <c r="P693" t="n">
-        <v>9722050880</v>
+        <v>616384251</v>
       </c>
     </row>
     <row r="694">
@@ -33857,7 +33857,7 @@
         </is>
       </c>
       <c r="P694" t="n">
-        <v>3607467714</v>
+        <v>1680491320</v>
       </c>
     </row>
     <row r="695">
@@ -33905,7 +33905,7 @@
         </is>
       </c>
       <c r="P695" t="n">
-        <v>6353574585</v>
+        <v>3162497394</v>
       </c>
     </row>
     <row r="696">
@@ -33953,7 +33953,7 @@
         </is>
       </c>
       <c r="P696" t="n">
-        <v>1146996521</v>
+        <v>6308405698</v>
       </c>
     </row>
     <row r="697">
@@ -34001,7 +34001,7 @@
         </is>
       </c>
       <c r="P697" t="n">
-        <v>1692079166</v>
+        <v>263772960</v>
       </c>
     </row>
     <row r="698">
@@ -34049,7 +34049,7 @@
         </is>
       </c>
       <c r="P698" t="n">
-        <v>6286111652</v>
+        <v>2974264783</v>
       </c>
     </row>
     <row r="699">
@@ -34097,7 +34097,7 @@
         </is>
       </c>
       <c r="P699" t="n">
-        <v>1065870711</v>
+        <v>462018853</v>
       </c>
     </row>
     <row r="700">
@@ -34145,7 +34145,7 @@
         </is>
       </c>
       <c r="P700" t="n">
-        <v>6543614075</v>
+        <v>4552700504</v>
       </c>
     </row>
     <row r="701">
@@ -34193,7 +34193,7 @@
         </is>
       </c>
       <c r="P701" t="n">
-        <v>3490410190</v>
+        <v>3525935586</v>
       </c>
     </row>
     <row r="702">
@@ -34241,7 +34241,7 @@
         </is>
       </c>
       <c r="P702" t="n">
-        <v>8000482005</v>
+        <v>2583459774</v>
       </c>
     </row>
     <row r="703">
@@ -34289,7 +34289,7 @@
         </is>
       </c>
       <c r="P703" t="n">
-        <v>2584310949</v>
+        <v>5158338000</v>
       </c>
     </row>
     <row r="704">
@@ -34337,7 +34337,7 @@
         </is>
       </c>
       <c r="P704" t="n">
-        <v>8436034884</v>
+        <v>9440635882</v>
       </c>
     </row>
     <row r="705">
@@ -34385,7 +34385,7 @@
         </is>
       </c>
       <c r="P705" t="n">
-        <v>7629339031</v>
+        <v>2258485667</v>
       </c>
     </row>
     <row r="706">
@@ -34433,7 +34433,7 @@
         </is>
       </c>
       <c r="P706" t="n">
-        <v>3318997975</v>
+        <v>3737874028</v>
       </c>
     </row>
     <row r="707">
@@ -34483,7 +34483,7 @@
         </is>
       </c>
       <c r="P707" t="n">
-        <v>8291287844</v>
+        <v>5697301845</v>
       </c>
     </row>
     <row r="708">
@@ -34531,7 +34531,7 @@
         </is>
       </c>
       <c r="P708" t="n">
-        <v>6744191883</v>
+        <v>3799064881</v>
       </c>
     </row>
     <row r="709">
@@ -34579,7 +34579,7 @@
         </is>
       </c>
       <c r="P709" t="n">
-        <v>1531897596</v>
+        <v>6099770181</v>
       </c>
     </row>
     <row r="710">
@@ -34627,7 +34627,7 @@
         </is>
       </c>
       <c r="P710" t="n">
-        <v>2985133936</v>
+        <v>1979293275</v>
       </c>
     </row>
     <row r="711">
@@ -34675,7 +34675,7 @@
         </is>
       </c>
       <c r="P711" t="n">
-        <v>911606965</v>
+        <v>8761661568</v>
       </c>
     </row>
     <row r="712">
@@ -34723,7 +34723,7 @@
         </is>
       </c>
       <c r="P712" t="n">
-        <v>6513616729</v>
+        <v>7262735892</v>
       </c>
     </row>
     <row r="713">
@@ -34771,7 +34771,7 @@
         </is>
       </c>
       <c r="P713" t="n">
-        <v>9473415449</v>
+        <v>2094661428</v>
       </c>
     </row>
     <row r="714">
@@ -34819,7 +34819,7 @@
         </is>
       </c>
       <c r="P714" t="n">
-        <v>1409584696</v>
+        <v>5153057356</v>
       </c>
     </row>
     <row r="715">
@@ -34867,7 +34867,7 @@
         </is>
       </c>
       <c r="P715" t="n">
-        <v>7206536373</v>
+        <v>7319348726</v>
       </c>
     </row>
     <row r="716">
@@ -34915,7 +34915,7 @@
         </is>
       </c>
       <c r="P716" t="n">
-        <v>3309237947</v>
+        <v>908362965</v>
       </c>
     </row>
     <row r="717">
@@ -34963,7 +34963,7 @@
         </is>
       </c>
       <c r="P717" t="n">
-        <v>4685170019</v>
+        <v>5065536752</v>
       </c>
     </row>
     <row r="718">
@@ -35011,7 +35011,7 @@
         </is>
       </c>
       <c r="P718" t="n">
-        <v>2006965902</v>
+        <v>7714573708</v>
       </c>
     </row>
     <row r="719">
@@ -35059,7 +35059,7 @@
         </is>
       </c>
       <c r="P719" t="n">
-        <v>8566262234</v>
+        <v>8121624487</v>
       </c>
     </row>
     <row r="720">
@@ -35107,7 +35107,7 @@
         </is>
       </c>
       <c r="P720" t="n">
-        <v>4776981626</v>
+        <v>4583378732</v>
       </c>
     </row>
     <row r="721">
@@ -35155,7 +35155,7 @@
         </is>
       </c>
       <c r="P721" t="n">
-        <v>706494060</v>
+        <v>6746559414</v>
       </c>
     </row>
     <row r="722">
@@ -35203,7 +35203,7 @@
         </is>
       </c>
       <c r="P722" t="n">
-        <v>3140121195</v>
+        <v>2190439695</v>
       </c>
     </row>
     <row r="723">
@@ -35251,7 +35251,7 @@
         </is>
       </c>
       <c r="P723" t="n">
-        <v>7159398426</v>
+        <v>959748328</v>
       </c>
     </row>
     <row r="724">
@@ -35299,7 +35299,7 @@
         </is>
       </c>
       <c r="P724" t="n">
-        <v>4202027817</v>
+        <v>7713826990</v>
       </c>
     </row>
     <row r="725">
@@ -35347,7 +35347,7 @@
         </is>
       </c>
       <c r="P725" t="n">
-        <v>8693154908</v>
+        <v>8207789306</v>
       </c>
     </row>
     <row r="726">
@@ -35395,7 +35395,7 @@
         </is>
       </c>
       <c r="P726" t="n">
-        <v>895655824</v>
+        <v>7548420321</v>
       </c>
     </row>
     <row r="727">
@@ -35443,7 +35443,7 @@
         </is>
       </c>
       <c r="P727" t="n">
-        <v>7116741682</v>
+        <v>9553187617</v>
       </c>
     </row>
     <row r="728">
@@ -35491,7 +35491,7 @@
         </is>
       </c>
       <c r="P728" t="n">
-        <v>587359229</v>
+        <v>3542565243</v>
       </c>
     </row>
     <row r="729">
@@ -35539,7 +35539,7 @@
         </is>
       </c>
       <c r="P729" t="n">
-        <v>9429095078</v>
+        <v>892141701</v>
       </c>
     </row>
     <row r="730">
@@ -35587,7 +35587,7 @@
         </is>
       </c>
       <c r="P730" t="n">
-        <v>6641954604</v>
+        <v>6588037543</v>
       </c>
     </row>
     <row r="731">
@@ -35635,7 +35635,7 @@
         </is>
       </c>
       <c r="P731" t="n">
-        <v>406184565</v>
+        <v>654567434</v>
       </c>
     </row>
     <row r="732">
@@ -35683,7 +35683,7 @@
         </is>
       </c>
       <c r="P732" t="n">
-        <v>2464286292</v>
+        <v>6842835954</v>
       </c>
     </row>
     <row r="733">
@@ -35731,7 +35731,7 @@
         </is>
       </c>
       <c r="P733" t="n">
-        <v>4577598266</v>
+        <v>7385760604</v>
       </c>
     </row>
     <row r="734">
@@ -35779,7 +35779,7 @@
         </is>
       </c>
       <c r="P734" t="n">
-        <v>165923468</v>
+        <v>2302593201</v>
       </c>
     </row>
     <row r="735">
@@ -35827,7 +35827,7 @@
         </is>
       </c>
       <c r="P735" t="n">
-        <v>7330630572</v>
+        <v>3455543781</v>
       </c>
     </row>
     <row r="736">
@@ -35875,7 +35875,7 @@
         </is>
       </c>
       <c r="P736" t="n">
-        <v>4854937135</v>
+        <v>9947180621</v>
       </c>
     </row>
     <row r="737">
@@ -35923,7 +35923,7 @@
         </is>
       </c>
       <c r="P737" t="n">
-        <v>5512156778</v>
+        <v>1589827484</v>
       </c>
     </row>
     <row r="738">
@@ -35971,7 +35971,7 @@
         </is>
       </c>
       <c r="P738" t="n">
-        <v>5269757423</v>
+        <v>6885568762</v>
       </c>
     </row>
     <row r="739">
@@ -36019,7 +36019,7 @@
         </is>
       </c>
       <c r="P739" t="n">
-        <v>467684424</v>
+        <v>738419332</v>
       </c>
     </row>
     <row r="740">
@@ -36067,7 +36067,7 @@
         </is>
       </c>
       <c r="P740" t="n">
-        <v>991432707</v>
+        <v>7520870427</v>
       </c>
     </row>
     <row r="741">
@@ -36115,7 +36115,7 @@
         </is>
       </c>
       <c r="P741" t="n">
-        <v>307037110</v>
+        <v>4484594539</v>
       </c>
     </row>
     <row r="742">
@@ -36163,7 +36163,7 @@
         </is>
       </c>
       <c r="P742" t="n">
-        <v>4339409572</v>
+        <v>1272095910</v>
       </c>
     </row>
     <row r="743">
@@ -36211,7 +36211,7 @@
         </is>
       </c>
       <c r="P743" t="n">
-        <v>3076182054</v>
+        <v>7129220645</v>
       </c>
     </row>
     <row r="744">
@@ -36259,7 +36259,7 @@
         </is>
       </c>
       <c r="P744" t="n">
-        <v>5523080268</v>
+        <v>8214482150</v>
       </c>
     </row>
     <row r="745">
@@ -36307,7 +36307,7 @@
         </is>
       </c>
       <c r="P745" t="n">
-        <v>2591472779</v>
+        <v>9153801795</v>
       </c>
     </row>
     <row r="746">
@@ -36355,7 +36355,7 @@
         </is>
       </c>
       <c r="P746" t="n">
-        <v>8831261626</v>
+        <v>3062879506</v>
       </c>
     </row>
     <row r="747">
@@ -36403,7 +36403,7 @@
         </is>
       </c>
       <c r="P747" t="n">
-        <v>6271776581</v>
+        <v>7130501304</v>
       </c>
     </row>
     <row r="748">
@@ -36451,7 +36451,7 @@
         </is>
       </c>
       <c r="P748" t="n">
-        <v>6069261916</v>
+        <v>9507664470</v>
       </c>
     </row>
     <row r="749">
@@ -36499,7 +36499,7 @@
         </is>
       </c>
       <c r="P749" t="n">
-        <v>4520762100</v>
+        <v>3116112805</v>
       </c>
     </row>
     <row r="750">
@@ -36547,7 +36547,7 @@
         </is>
       </c>
       <c r="P750" t="n">
-        <v>4837278927</v>
+        <v>1091013356</v>
       </c>
     </row>
     <row r="751">
@@ -36595,7 +36595,7 @@
         </is>
       </c>
       <c r="P751" t="n">
-        <v>8546941342</v>
+        <v>1197942968</v>
       </c>
     </row>
     <row r="752">
@@ -36643,7 +36643,7 @@
         </is>
       </c>
       <c r="P752" t="n">
-        <v>8214030840</v>
+        <v>2247349829</v>
       </c>
     </row>
     <row r="753">
@@ -36691,7 +36691,7 @@
         </is>
       </c>
       <c r="P753" t="n">
-        <v>7637814012</v>
+        <v>1161612396</v>
       </c>
     </row>
     <row r="754">
@@ -36739,7 +36739,7 @@
         </is>
       </c>
       <c r="P754" t="n">
-        <v>7700940012</v>
+        <v>2855060108</v>
       </c>
     </row>
     <row r="755">
@@ -36787,7 +36787,7 @@
         </is>
       </c>
       <c r="P755" t="n">
-        <v>8601647452</v>
+        <v>4384347555</v>
       </c>
     </row>
     <row r="756">
@@ -36835,7 +36835,7 @@
         </is>
       </c>
       <c r="P756" t="n">
-        <v>9028967779</v>
+        <v>7902947957</v>
       </c>
     </row>
     <row r="757">
@@ -36883,7 +36883,7 @@
         </is>
       </c>
       <c r="P757" t="n">
-        <v>1517151495</v>
+        <v>9375157338</v>
       </c>
     </row>
     <row r="758">
@@ -36931,7 +36931,7 @@
         </is>
       </c>
       <c r="P758" t="n">
-        <v>9692610458</v>
+        <v>8146237910</v>
       </c>
     </row>
     <row r="759">
@@ -36979,7 +36979,7 @@
         </is>
       </c>
       <c r="P759" t="n">
-        <v>5546121483</v>
+        <v>123061074</v>
       </c>
     </row>
     <row r="760">
@@ -37027,7 +37027,7 @@
         </is>
       </c>
       <c r="P760" t="n">
-        <v>8750158495</v>
+        <v>4019758114</v>
       </c>
     </row>
     <row r="761">
@@ -37075,7 +37075,7 @@
         </is>
       </c>
       <c r="P761" t="n">
-        <v>8998112692</v>
+        <v>4323444403</v>
       </c>
     </row>
     <row r="762">
@@ -37123,7 +37123,7 @@
         </is>
       </c>
       <c r="P762" t="n">
-        <v>181968521</v>
+        <v>2984704050</v>
       </c>
     </row>
     <row r="763">
@@ -37171,7 +37171,7 @@
         </is>
       </c>
       <c r="P763" t="n">
-        <v>4106182765</v>
+        <v>8461395177</v>
       </c>
     </row>
     <row r="764">
@@ -37219,7 +37219,7 @@
         </is>
       </c>
       <c r="P764" t="n">
-        <v>5841309948</v>
+        <v>6184248812</v>
       </c>
     </row>
     <row r="765">
@@ -37267,7 +37267,7 @@
         </is>
       </c>
       <c r="P765" t="n">
-        <v>3981662928</v>
+        <v>8707053799</v>
       </c>
     </row>
     <row r="766">
@@ -37315,7 +37315,7 @@
         </is>
       </c>
       <c r="P766" t="n">
-        <v>1440691649</v>
+        <v>8155526471</v>
       </c>
     </row>
     <row r="767">
@@ -37363,7 +37363,7 @@
         </is>
       </c>
       <c r="P767" t="n">
-        <v>8689639569</v>
+        <v>3192066978</v>
       </c>
     </row>
     <row r="768">
@@ -37411,7 +37411,7 @@
         </is>
       </c>
       <c r="P768" t="n">
-        <v>4144350235</v>
+        <v>9205480827</v>
       </c>
     </row>
     <row r="769">
@@ -37459,7 +37459,7 @@
         </is>
       </c>
       <c r="P769" t="n">
-        <v>5947148062</v>
+        <v>3059967343</v>
       </c>
     </row>
     <row r="770">
@@ -37503,7 +37503,7 @@
         </is>
       </c>
       <c r="P770" t="n">
-        <v>9878401667</v>
+        <v>8278958934</v>
       </c>
     </row>
     <row r="771">
@@ -37551,7 +37551,7 @@
         </is>
       </c>
       <c r="P771" t="n">
-        <v>3513465613</v>
+        <v>6171872588</v>
       </c>
     </row>
     <row r="772">
@@ -37599,7 +37599,7 @@
         </is>
       </c>
       <c r="P772" t="n">
-        <v>6009388581</v>
+        <v>4269186050</v>
       </c>
     </row>
     <row r="773">
@@ -37647,7 +37647,7 @@
         </is>
       </c>
       <c r="P773" t="n">
-        <v>9138188545</v>
+        <v>4468880847</v>
       </c>
     </row>
     <row r="774">
@@ -37695,7 +37695,7 @@
         </is>
       </c>
       <c r="P774" t="n">
-        <v>5307122424</v>
+        <v>6950006133</v>
       </c>
     </row>
     <row r="775">
@@ -37743,7 +37743,7 @@
         </is>
       </c>
       <c r="P775" t="n">
-        <v>3848053841</v>
+        <v>1755503622</v>
       </c>
     </row>
     <row r="776">
@@ -37791,7 +37791,7 @@
         </is>
       </c>
       <c r="P776" t="n">
-        <v>3232929318</v>
+        <v>327684523</v>
       </c>
     </row>
     <row r="777">
@@ -37839,7 +37839,7 @@
         </is>
       </c>
       <c r="P777" t="n">
-        <v>7982375107</v>
+        <v>9225000352</v>
       </c>
     </row>
     <row r="778">
@@ -37887,7 +37887,7 @@
         </is>
       </c>
       <c r="P778" t="n">
-        <v>7994540401</v>
+        <v>7341621333</v>
       </c>
     </row>
     <row r="779">
@@ -37935,7 +37935,7 @@
         </is>
       </c>
       <c r="P779" t="n">
-        <v>6791104501</v>
+        <v>5482202183</v>
       </c>
     </row>
     <row r="780">
@@ -37985,7 +37985,7 @@
         </is>
       </c>
       <c r="P780" t="n">
-        <v>2333234694</v>
+        <v>6059624379</v>
       </c>
     </row>
     <row r="781">
@@ -38033,7 +38033,7 @@
         </is>
       </c>
       <c r="P781" t="n">
-        <v>3843206211</v>
+        <v>2050773786</v>
       </c>
     </row>
     <row r="782">
@@ -38081,7 +38081,7 @@
         </is>
       </c>
       <c r="P782" t="n">
-        <v>8469197469</v>
+        <v>1264319904</v>
       </c>
     </row>
     <row r="783">
@@ -38129,7 +38129,7 @@
         </is>
       </c>
       <c r="P783" t="n">
-        <v>24167740</v>
+        <v>3525659</v>
       </c>
     </row>
     <row r="784">
@@ -38177,7 +38177,7 @@
         </is>
       </c>
       <c r="P784" t="n">
-        <v>4416280330</v>
+        <v>6332869470</v>
       </c>
     </row>
     <row r="785">
@@ -38225,7 +38225,7 @@
         </is>
       </c>
       <c r="P785" t="n">
-        <v>9088813083</v>
+        <v>8875822844</v>
       </c>
     </row>
     <row r="786">
@@ -38273,7 +38273,7 @@
         </is>
       </c>
       <c r="P786" t="n">
-        <v>6299723884</v>
+        <v>2954144114</v>
       </c>
     </row>
     <row r="787">
@@ -38321,7 +38321,7 @@
         </is>
       </c>
       <c r="P787" t="n">
-        <v>9492569712</v>
+        <v>3784875042</v>
       </c>
     </row>
     <row r="788">
@@ -38369,7 +38369,7 @@
         </is>
       </c>
       <c r="P788" t="n">
-        <v>2666257291</v>
+        <v>905589416</v>
       </c>
     </row>
     <row r="789">
@@ -38417,7 +38417,7 @@
         </is>
       </c>
       <c r="P789" t="n">
-        <v>2921557984</v>
+        <v>4544178094</v>
       </c>
     </row>
     <row r="790">
@@ -38465,7 +38465,7 @@
         </is>
       </c>
       <c r="P790" t="n">
-        <v>50712207</v>
+        <v>7855935586</v>
       </c>
     </row>
     <row r="791">
@@ -38513,7 +38513,7 @@
         </is>
       </c>
       <c r="P791" t="n">
-        <v>7580243712</v>
+        <v>2622249562</v>
       </c>
     </row>
     <row r="792">
@@ -38561,7 +38561,7 @@
         </is>
       </c>
       <c r="P792" t="n">
-        <v>1563145891</v>
+        <v>5816437307</v>
       </c>
     </row>
     <row r="793">
@@ -38609,7 +38609,7 @@
         </is>
       </c>
       <c r="P793" t="n">
-        <v>3860236001</v>
+        <v>1465509515</v>
       </c>
     </row>
     <row r="794">
@@ -38657,7 +38657,7 @@
         </is>
       </c>
       <c r="P794" t="n">
-        <v>6062550238</v>
+        <v>6006555237</v>
       </c>
     </row>
     <row r="795">
@@ -38705,7 +38705,7 @@
         </is>
       </c>
       <c r="P795" t="n">
-        <v>3819707187</v>
+        <v>8752385808</v>
       </c>
     </row>
     <row r="796">
@@ -38753,7 +38753,7 @@
         </is>
       </c>
       <c r="P796" t="n">
-        <v>8466974439</v>
+        <v>2055304287</v>
       </c>
     </row>
     <row r="797">
@@ -38801,7 +38801,7 @@
         </is>
       </c>
       <c r="P797" t="n">
-        <v>3950327585</v>
+        <v>7140385159</v>
       </c>
     </row>
     <row r="798">
@@ -38849,7 +38849,7 @@
         </is>
       </c>
       <c r="P798" t="n">
-        <v>5096862584</v>
+        <v>3236121369</v>
       </c>
     </row>
     <row r="799">
@@ -38897,7 +38897,7 @@
         </is>
       </c>
       <c r="P799" t="n">
-        <v>1049178619</v>
+        <v>1034625376</v>
       </c>
     </row>
     <row r="800">
@@ -38945,7 +38945,7 @@
         </is>
       </c>
       <c r="P800" t="n">
-        <v>1659391425</v>
+        <v>6829053147</v>
       </c>
     </row>
     <row r="801">
@@ -38993,7 +38993,7 @@
         </is>
       </c>
       <c r="P801" t="n">
-        <v>4707221426</v>
+        <v>4869177869</v>
       </c>
     </row>
     <row r="802">
@@ -39041,7 +39041,7 @@
         </is>
       </c>
       <c r="P802" t="n">
-        <v>9322146192</v>
+        <v>6309421332</v>
       </c>
     </row>
     <row r="803">
@@ -39089,7 +39089,7 @@
         </is>
       </c>
       <c r="P803" t="n">
-        <v>6139133105</v>
+        <v>1675140339</v>
       </c>
     </row>
     <row r="804">
@@ -39137,7 +39137,7 @@
         </is>
       </c>
       <c r="P804" t="n">
-        <v>3157526738</v>
+        <v>3492015631</v>
       </c>
     </row>
     <row r="805">
@@ -39185,7 +39185,7 @@
         </is>
       </c>
       <c r="P805" t="n">
-        <v>9327479206</v>
+        <v>5837776566</v>
       </c>
     </row>
     <row r="806">
@@ -39233,7 +39233,7 @@
         </is>
       </c>
       <c r="P806" t="n">
-        <v>6802371680</v>
+        <v>324795543</v>
       </c>
     </row>
     <row r="807">
@@ -39281,7 +39281,7 @@
         </is>
       </c>
       <c r="P807" t="n">
-        <v>3064523897</v>
+        <v>3017022960</v>
       </c>
     </row>
     <row r="808">
@@ -39329,7 +39329,7 @@
         </is>
       </c>
       <c r="P808" t="n">
-        <v>2587091643</v>
+        <v>4919095996</v>
       </c>
     </row>
     <row r="809">
@@ -39377,7 +39377,7 @@
         </is>
       </c>
       <c r="P809" t="n">
-        <v>3728706738</v>
+        <v>960070253</v>
       </c>
     </row>
     <row r="810">
@@ -39425,7 +39425,7 @@
         </is>
       </c>
       <c r="P810" t="n">
-        <v>3694924746</v>
+        <v>2796935338</v>
       </c>
     </row>
     <row r="811">
@@ -39473,7 +39473,7 @@
         </is>
       </c>
       <c r="P811" t="n">
-        <v>1501555557</v>
+        <v>3887161339</v>
       </c>
     </row>
     <row r="812">
@@ -39521,7 +39521,7 @@
         </is>
       </c>
       <c r="P812" t="n">
-        <v>5096660238</v>
+        <v>4274533668</v>
       </c>
     </row>
     <row r="813">
@@ -39569,7 +39569,7 @@
         </is>
       </c>
       <c r="P813" t="n">
-        <v>5307174671</v>
+        <v>5494331835</v>
       </c>
     </row>
     <row r="814">
@@ -39617,7 +39617,7 @@
         </is>
       </c>
       <c r="P814" t="n">
-        <v>2624131900</v>
+        <v>3663837092</v>
       </c>
     </row>
     <row r="815">
@@ -39665,7 +39665,7 @@
         </is>
       </c>
       <c r="P815" t="n">
-        <v>5940389431</v>
+        <v>7789718359</v>
       </c>
     </row>
     <row r="816">
@@ -39713,7 +39713,7 @@
         </is>
       </c>
       <c r="P816" t="n">
-        <v>680618478</v>
+        <v>5532645587</v>
       </c>
     </row>
     <row r="817">
@@ -39761,7 +39761,7 @@
         </is>
       </c>
       <c r="P817" t="n">
-        <v>8408941562</v>
+        <v>913233851</v>
       </c>
     </row>
     <row r="818">
@@ -39809,7 +39809,7 @@
         </is>
       </c>
       <c r="P818" t="n">
-        <v>4209568244</v>
+        <v>112579804</v>
       </c>
     </row>
     <row r="819">
@@ -39857,7 +39857,7 @@
         </is>
       </c>
       <c r="P819" t="n">
-        <v>7385844251</v>
+        <v>5499402447</v>
       </c>
     </row>
     <row r="820">
@@ -39905,7 +39905,7 @@
         </is>
       </c>
       <c r="P820" t="n">
-        <v>3818998888</v>
+        <v>2336701465</v>
       </c>
     </row>
     <row r="821">
@@ -39953,7 +39953,7 @@
         </is>
       </c>
       <c r="P821" t="n">
-        <v>2214250618</v>
+        <v>1504198713</v>
       </c>
     </row>
     <row r="822">
@@ -40001,7 +40001,7 @@
         </is>
       </c>
       <c r="P822" t="n">
-        <v>1106875172</v>
+        <v>329768039</v>
       </c>
     </row>
     <row r="823">
@@ -40049,7 +40049,7 @@
         </is>
       </c>
       <c r="P823" t="n">
-        <v>9283969042</v>
+        <v>5105056909</v>
       </c>
     </row>
     <row r="824">
@@ -40097,7 +40097,7 @@
         </is>
       </c>
       <c r="P824" t="n">
-        <v>7019666673</v>
+        <v>6485301887</v>
       </c>
     </row>
     <row r="825">
@@ -40145,7 +40145,7 @@
         </is>
       </c>
       <c r="P825" t="n">
-        <v>7382980358</v>
+        <v>1284792687</v>
       </c>
     </row>
     <row r="826">
@@ -40189,7 +40189,7 @@
         </is>
       </c>
       <c r="P826" t="n">
-        <v>3646777521</v>
+        <v>3997202617</v>
       </c>
     </row>
     <row r="827">
@@ -40237,7 +40237,7 @@
         </is>
       </c>
       <c r="P827" t="n">
-        <v>3346821068</v>
+        <v>2796712391</v>
       </c>
     </row>
     <row r="828">
@@ -40285,7 +40285,7 @@
         </is>
       </c>
       <c r="P828" t="n">
-        <v>2913673241</v>
+        <v>4960437787</v>
       </c>
     </row>
     <row r="829">
@@ -40333,7 +40333,7 @@
         </is>
       </c>
       <c r="P829" t="n">
-        <v>4321218680</v>
+        <v>4386361885</v>
       </c>
     </row>
     <row r="830">
@@ -40381,7 +40381,7 @@
         </is>
       </c>
       <c r="P830" t="n">
-        <v>3042640454</v>
+        <v>6060190689</v>
       </c>
     </row>
     <row r="831">
@@ -40429,7 +40429,7 @@
         </is>
       </c>
       <c r="P831" t="n">
-        <v>5111479975</v>
+        <v>4332525678</v>
       </c>
     </row>
     <row r="832">
@@ -40477,7 +40477,7 @@
         </is>
       </c>
       <c r="P832" t="n">
-        <v>1321427987</v>
+        <v>179777356</v>
       </c>
     </row>
     <row r="833">
@@ -40525,7 +40525,7 @@
         </is>
       </c>
       <c r="P833" t="n">
-        <v>8852617657</v>
+        <v>6836950644</v>
       </c>
     </row>
     <row r="834">
@@ -40573,7 +40573,7 @@
         </is>
       </c>
       <c r="P834" t="n">
-        <v>3172324869</v>
+        <v>9528020293</v>
       </c>
     </row>
     <row r="835">
@@ -40621,7 +40621,7 @@
         </is>
       </c>
       <c r="P835" t="n">
-        <v>7017539730</v>
+        <v>8449130192</v>
       </c>
     </row>
     <row r="836">
@@ -40669,7 +40669,7 @@
         </is>
       </c>
       <c r="P836" t="n">
-        <v>2103911052</v>
+        <v>7881484799</v>
       </c>
     </row>
     <row r="837">
@@ -40717,7 +40717,7 @@
         </is>
       </c>
       <c r="P837" t="n">
-        <v>5890493891</v>
+        <v>2607555363</v>
       </c>
     </row>
     <row r="838">
@@ -40765,7 +40765,7 @@
         </is>
       </c>
       <c r="P838" t="n">
-        <v>886110275</v>
+        <v>4831529385</v>
       </c>
     </row>
     <row r="839">
@@ -40813,7 +40813,7 @@
         </is>
       </c>
       <c r="P839" t="n">
-        <v>8954930376</v>
+        <v>8374349633</v>
       </c>
     </row>
     <row r="840">
@@ -40861,7 +40861,7 @@
         </is>
       </c>
       <c r="P840" t="n">
-        <v>1843538768</v>
+        <v>8038628651</v>
       </c>
     </row>
     <row r="841">
@@ -40909,7 +40909,7 @@
         </is>
       </c>
       <c r="P841" t="n">
-        <v>9727250218</v>
+        <v>376504869</v>
       </c>
     </row>
     <row r="842">
@@ -40957,7 +40957,7 @@
         </is>
       </c>
       <c r="P842" t="n">
-        <v>6971883182</v>
+        <v>1610967824</v>
       </c>
     </row>
     <row r="843">
@@ -41005,7 +41005,7 @@
         </is>
       </c>
       <c r="P843" t="n">
-        <v>8739293174</v>
+        <v>1478838616</v>
       </c>
     </row>
     <row r="844">
@@ -41053,7 +41053,7 @@
         </is>
       </c>
       <c r="P844" t="n">
-        <v>4019979302</v>
+        <v>229887706</v>
       </c>
     </row>
     <row r="845">
@@ -41101,7 +41101,7 @@
         </is>
       </c>
       <c r="P845" t="n">
-        <v>7981603603</v>
+        <v>1945059033</v>
       </c>
     </row>
     <row r="846">
@@ -41149,7 +41149,7 @@
         </is>
       </c>
       <c r="P846" t="n">
-        <v>6407264374</v>
+        <v>866358647</v>
       </c>
     </row>
     <row r="847">
@@ -41197,7 +41197,7 @@
         </is>
       </c>
       <c r="P847" t="n">
-        <v>8641014721</v>
+        <v>1827177913</v>
       </c>
     </row>
     <row r="848">
@@ -41245,7 +41245,7 @@
         </is>
       </c>
       <c r="P848" t="n">
-        <v>9516980474</v>
+        <v>5862705329</v>
       </c>
     </row>
     <row r="849">
@@ -41293,7 +41293,7 @@
         </is>
       </c>
       <c r="P849" t="n">
-        <v>6698772483</v>
+        <v>6132897012</v>
       </c>
     </row>
     <row r="850">
@@ -41341,7 +41341,7 @@
         </is>
       </c>
       <c r="P850" t="n">
-        <v>93393494</v>
+        <v>6438461406</v>
       </c>
     </row>
     <row r="851">
@@ -41389,7 +41389,7 @@
         </is>
       </c>
       <c r="P851" t="n">
-        <v>2954439745</v>
+        <v>8927499685</v>
       </c>
     </row>
     <row r="852">
@@ -41437,7 +41437,7 @@
         </is>
       </c>
       <c r="P852" t="n">
-        <v>1465240672</v>
+        <v>5987818704</v>
       </c>
     </row>
     <row r="853">
@@ -41485,7 +41485,7 @@
         </is>
       </c>
       <c r="P853" t="n">
-        <v>591376805</v>
+        <v>7144542367</v>
       </c>
     </row>
     <row r="854">
@@ -41533,7 +41533,7 @@
         </is>
       </c>
       <c r="P854" t="n">
-        <v>8678339102</v>
+        <v>1377728790</v>
       </c>
     </row>
     <row r="855">
@@ -41581,7 +41581,7 @@
         </is>
       </c>
       <c r="P855" t="n">
-        <v>2463467500</v>
+        <v>7251086391</v>
       </c>
     </row>
     <row r="856">
@@ -41629,7 +41629,7 @@
         </is>
       </c>
       <c r="P856" t="n">
-        <v>988132758</v>
+        <v>5149247285</v>
       </c>
     </row>
     <row r="857">
@@ -41677,7 +41677,7 @@
         </is>
       </c>
       <c r="P857" t="n">
-        <v>3163595778</v>
+        <v>3780789166</v>
       </c>
     </row>
     <row r="858">
@@ -41725,7 +41725,7 @@
         </is>
       </c>
       <c r="P858" t="n">
-        <v>6775562079</v>
+        <v>5829513533</v>
       </c>
     </row>
     <row r="859">
@@ -41773,7 +41773,7 @@
         </is>
       </c>
       <c r="P859" t="n">
-        <v>6772696166</v>
+        <v>2903079697</v>
       </c>
     </row>
     <row r="860">
@@ -41821,7 +41821,7 @@
         </is>
       </c>
       <c r="P860" t="n">
-        <v>8384993794</v>
+        <v>6865745987</v>
       </c>
     </row>
     <row r="861">
@@ -41869,7 +41869,7 @@
         </is>
       </c>
       <c r="P861" t="n">
-        <v>1045341705</v>
+        <v>3290103002</v>
       </c>
     </row>
     <row r="862">
@@ -41917,7 +41917,7 @@
         </is>
       </c>
       <c r="P862" t="n">
-        <v>9023348720</v>
+        <v>4175862714</v>
       </c>
     </row>
     <row r="863">
@@ -41965,7 +41965,7 @@
         </is>
       </c>
       <c r="P863" t="n">
-        <v>6588123157</v>
+        <v>8685087399</v>
       </c>
     </row>
     <row r="864">
@@ -42013,7 +42013,7 @@
         </is>
       </c>
       <c r="P864" t="n">
-        <v>5845484941</v>
+        <v>530884811</v>
       </c>
     </row>
     <row r="865">
@@ -42061,7 +42061,7 @@
         </is>
       </c>
       <c r="P865" t="n">
-        <v>7556670507</v>
+        <v>3597979922</v>
       </c>
     </row>
     <row r="866">
@@ -42109,7 +42109,7 @@
         </is>
       </c>
       <c r="P866" t="n">
-        <v>3624854628</v>
+        <v>9687537310</v>
       </c>
     </row>
     <row r="867">
@@ -42157,7 +42157,7 @@
         </is>
       </c>
       <c r="P867" t="n">
-        <v>9097499021</v>
+        <v>98373190</v>
       </c>
     </row>
     <row r="868">
@@ -42205,7 +42205,7 @@
         </is>
       </c>
       <c r="P868" t="n">
-        <v>9938676193</v>
+        <v>9748609409</v>
       </c>
     </row>
     <row r="869">
@@ -42253,7 +42253,7 @@
         </is>
       </c>
       <c r="P869" t="n">
-        <v>2393887336</v>
+        <v>9305583346</v>
       </c>
     </row>
     <row r="870">
@@ -42301,7 +42301,7 @@
         </is>
       </c>
       <c r="P870" t="n">
-        <v>3957973156</v>
+        <v>478986402</v>
       </c>
     </row>
     <row r="871">
@@ -42349,7 +42349,7 @@
         </is>
       </c>
       <c r="P871" t="n">
-        <v>5331421496</v>
+        <v>6436413928</v>
       </c>
     </row>
     <row r="872">
@@ -42397,7 +42397,7 @@
         </is>
       </c>
       <c r="P872" t="n">
-        <v>414118633</v>
+        <v>1399489365</v>
       </c>
     </row>
     <row r="873">
@@ -42447,7 +42447,7 @@
         </is>
       </c>
       <c r="P873" t="n">
-        <v>5662607538</v>
+        <v>9717408028</v>
       </c>
     </row>
     <row r="874">
@@ -42495,7 +42495,7 @@
         </is>
       </c>
       <c r="P874" t="n">
-        <v>8173164035</v>
+        <v>80238901</v>
       </c>
     </row>
     <row r="875">
@@ -42543,7 +42543,7 @@
         </is>
       </c>
       <c r="P875" t="n">
-        <v>1209124766</v>
+        <v>9857644036</v>
       </c>
     </row>
     <row r="876">
@@ -42591,7 +42591,7 @@
         </is>
       </c>
       <c r="P876" t="n">
-        <v>4114992331</v>
+        <v>9230537000</v>
       </c>
     </row>
     <row r="877">
@@ -42639,7 +42639,7 @@
         </is>
       </c>
       <c r="P877" t="n">
-        <v>1804731125</v>
+        <v>3351486696</v>
       </c>
     </row>
     <row r="878">
@@ -42687,7 +42687,7 @@
         </is>
       </c>
       <c r="P878" t="n">
-        <v>9597894979</v>
+        <v>2287175969</v>
       </c>
     </row>
     <row r="879">
@@ -42735,7 +42735,7 @@
         </is>
       </c>
       <c r="P879" t="n">
-        <v>6481019239</v>
+        <v>1931215377</v>
       </c>
     </row>
     <row r="880">
@@ -42783,7 +42783,7 @@
         </is>
       </c>
       <c r="P880" t="n">
-        <v>2961158409</v>
+        <v>2201165744</v>
       </c>
     </row>
     <row r="881">
@@ -42831,7 +42831,7 @@
         </is>
       </c>
       <c r="P881" t="n">
-        <v>6090267051</v>
+        <v>7225910822</v>
       </c>
     </row>
     <row r="882">
@@ -42879,7 +42879,7 @@
         </is>
       </c>
       <c r="P882" t="n">
-        <v>2412127836</v>
+        <v>5349213519</v>
       </c>
     </row>
     <row r="883">
@@ -42927,7 +42927,7 @@
         </is>
       </c>
       <c r="P883" t="n">
-        <v>3017347817</v>
+        <v>5963687044</v>
       </c>
     </row>
     <row r="884">
@@ -42975,7 +42975,7 @@
         </is>
       </c>
       <c r="P884" t="n">
-        <v>9083378270</v>
+        <v>6304608373</v>
       </c>
     </row>
     <row r="885">
@@ -43023,7 +43023,7 @@
         </is>
       </c>
       <c r="P885" t="n">
-        <v>305137648</v>
+        <v>7042334626</v>
       </c>
     </row>
     <row r="886">
@@ -43071,7 +43071,7 @@
         </is>
       </c>
       <c r="P886" t="n">
-        <v>2638135289</v>
+        <v>1612824337</v>
       </c>
     </row>
     <row r="887">
@@ -43119,7 +43119,7 @@
         </is>
       </c>
       <c r="P887" t="n">
-        <v>1918056694</v>
+        <v>893542322</v>
       </c>
     </row>
     <row r="888">
@@ -43167,7 +43167,7 @@
         </is>
       </c>
       <c r="P888" t="n">
-        <v>7573332538</v>
+        <v>1838020585</v>
       </c>
     </row>
     <row r="889">
@@ -43215,7 +43215,7 @@
         </is>
       </c>
       <c r="P889" t="n">
-        <v>5058848544</v>
+        <v>9005522019</v>
       </c>
     </row>
     <row r="890">
@@ -43263,7 +43263,7 @@
         </is>
       </c>
       <c r="P890" t="n">
-        <v>1904416933</v>
+        <v>7485288708</v>
       </c>
     </row>
     <row r="891">
@@ -43311,7 +43311,7 @@
         </is>
       </c>
       <c r="P891" t="n">
-        <v>6610095527</v>
+        <v>8003881714</v>
       </c>
     </row>
     <row r="892">
@@ -43359,7 +43359,7 @@
         </is>
       </c>
       <c r="P892" t="n">
-        <v>8065547948</v>
+        <v>4816085030</v>
       </c>
     </row>
     <row r="893">
@@ -43407,7 +43407,7 @@
         </is>
       </c>
       <c r="P893" t="n">
-        <v>4855134935</v>
+        <v>1021633202</v>
       </c>
     </row>
     <row r="894">
@@ -43455,7 +43455,7 @@
         </is>
       </c>
       <c r="P894" t="n">
-        <v>1216759945</v>
+        <v>8219991052</v>
       </c>
     </row>
     <row r="895">
@@ -43503,7 +43503,7 @@
         </is>
       </c>
       <c r="P895" t="n">
-        <v>1173141258</v>
+        <v>1549289899</v>
       </c>
     </row>
     <row r="896">
@@ -43551,7 +43551,7 @@
         </is>
       </c>
       <c r="P896" t="n">
-        <v>9017396590</v>
+        <v>9254231096</v>
       </c>
     </row>
     <row r="897">
@@ -43599,7 +43599,7 @@
         </is>
       </c>
       <c r="P897" t="n">
-        <v>9255399402</v>
+        <v>2806313941</v>
       </c>
     </row>
     <row r="898">
@@ -43647,7 +43647,7 @@
         </is>
       </c>
       <c r="P898" t="n">
-        <v>7248155134</v>
+        <v>9014898947</v>
       </c>
     </row>
     <row r="899">
@@ -43695,7 +43695,7 @@
         </is>
       </c>
       <c r="P899" t="n">
-        <v>6526063422</v>
+        <v>6407056898</v>
       </c>
     </row>
     <row r="900">
@@ -43743,7 +43743,7 @@
         </is>
       </c>
       <c r="P900" t="n">
-        <v>8695260721</v>
+        <v>3374044550</v>
       </c>
     </row>
     <row r="901">
@@ -43791,7 +43791,7 @@
         </is>
       </c>
       <c r="P901" t="n">
-        <v>5480155776</v>
+        <v>7522939383</v>
       </c>
     </row>
     <row r="902">
@@ -43839,7 +43839,7 @@
         </is>
       </c>
       <c r="P902" t="n">
-        <v>5390189199</v>
+        <v>7554246114</v>
       </c>
     </row>
     <row r="903">
@@ -43887,7 +43887,7 @@
         </is>
       </c>
       <c r="P903" t="n">
-        <v>3004634059</v>
+        <v>3170901946</v>
       </c>
     </row>
     <row r="904">
@@ -43935,7 +43935,7 @@
         </is>
       </c>
       <c r="P904" t="n">
-        <v>8930194226</v>
+        <v>1445727848</v>
       </c>
     </row>
     <row r="905">
@@ -43983,7 +43983,7 @@
         </is>
       </c>
       <c r="P905" t="n">
-        <v>4969628398</v>
+        <v>9515512839</v>
       </c>
     </row>
     <row r="906">
@@ -44031,7 +44031,7 @@
         </is>
       </c>
       <c r="P906" t="n">
-        <v>7365899312</v>
+        <v>2522399538</v>
       </c>
     </row>
     <row r="907">
@@ -44079,7 +44079,7 @@
         </is>
       </c>
       <c r="P907" t="n">
-        <v>7211991727</v>
+        <v>9057674349</v>
       </c>
     </row>
     <row r="908">
@@ -44127,7 +44127,7 @@
         </is>
       </c>
       <c r="P908" t="n">
-        <v>6723295548</v>
+        <v>7178317874</v>
       </c>
     </row>
     <row r="909">
@@ -44175,7 +44175,7 @@
         </is>
       </c>
       <c r="P909" t="n">
-        <v>8889447912</v>
+        <v>6675251682</v>
       </c>
     </row>
     <row r="910">
@@ -44223,7 +44223,7 @@
         </is>
       </c>
       <c r="P910" t="n">
-        <v>4746794719</v>
+        <v>3636886185</v>
       </c>
     </row>
     <row r="911">
@@ -44271,7 +44271,7 @@
         </is>
       </c>
       <c r="P911" t="n">
-        <v>1134585095</v>
+        <v>2333044789</v>
       </c>
     </row>
     <row r="912">
@@ -44319,7 +44319,7 @@
         </is>
       </c>
       <c r="P912" t="n">
-        <v>8135523788</v>
+        <v>2278766889</v>
       </c>
     </row>
     <row r="913">
@@ -44367,7 +44367,7 @@
         </is>
       </c>
       <c r="P913" t="n">
-        <v>6322504733</v>
+        <v>9622224016</v>
       </c>
     </row>
     <row r="914">
@@ -44415,7 +44415,7 @@
         </is>
       </c>
       <c r="P914" t="n">
-        <v>4893585174</v>
+        <v>4667195837</v>
       </c>
     </row>
     <row r="915">
@@ -44463,7 +44463,7 @@
         </is>
       </c>
       <c r="P915" t="n">
-        <v>63556457</v>
+        <v>1739885821</v>
       </c>
     </row>
     <row r="916">
@@ -44511,7 +44511,7 @@
         </is>
       </c>
       <c r="P916" t="n">
-        <v>6349470114</v>
+        <v>2169727326</v>
       </c>
     </row>
     <row r="917">
@@ -44559,7 +44559,7 @@
         </is>
       </c>
       <c r="P917" t="n">
-        <v>1257832093</v>
+        <v>1219358332</v>
       </c>
     </row>
     <row r="918">
@@ -44607,7 +44607,7 @@
         </is>
       </c>
       <c r="P918" t="n">
-        <v>5302875460</v>
+        <v>6185425437</v>
       </c>
     </row>
     <row r="919">
@@ -44655,7 +44655,7 @@
         </is>
       </c>
       <c r="P919" t="n">
-        <v>6354313516</v>
+        <v>1401944438</v>
       </c>
     </row>
     <row r="920">
@@ -44703,7 +44703,7 @@
         </is>
       </c>
       <c r="P920" t="n">
-        <v>1212600612</v>
+        <v>3828869831</v>
       </c>
     </row>
     <row r="921">
@@ -44751,7 +44751,7 @@
         </is>
       </c>
       <c r="P921" t="n">
-        <v>3174962137</v>
+        <v>2582161328</v>
       </c>
     </row>
     <row r="922">
@@ -44799,7 +44799,7 @@
         </is>
       </c>
       <c r="P922" t="n">
-        <v>3357391759</v>
+        <v>5775459917</v>
       </c>
     </row>
     <row r="923">
@@ -44847,7 +44847,7 @@
         </is>
       </c>
       <c r="P923" t="n">
-        <v>3824172381</v>
+        <v>1098782046</v>
       </c>
     </row>
     <row r="924">
@@ -44895,7 +44895,7 @@
         </is>
       </c>
       <c r="P924" t="n">
-        <v>7712851060</v>
+        <v>9934924443</v>
       </c>
     </row>
     <row r="925">
@@ -44943,7 +44943,7 @@
         </is>
       </c>
       <c r="P925" t="n">
-        <v>7037698605</v>
+        <v>3234390573</v>
       </c>
     </row>
     <row r="926">
@@ -44991,7 +44991,7 @@
         </is>
       </c>
       <c r="P926" t="n">
-        <v>3496694786</v>
+        <v>177595541</v>
       </c>
     </row>
     <row r="927">
@@ -45039,7 +45039,7 @@
         </is>
       </c>
       <c r="P927" t="n">
-        <v>3757437251</v>
+        <v>5697634181</v>
       </c>
     </row>
     <row r="928">
@@ -45087,7 +45087,7 @@
         </is>
       </c>
       <c r="P928" t="n">
-        <v>3953693478</v>
+        <v>510893025</v>
       </c>
     </row>
     <row r="929">
@@ -45135,7 +45135,7 @@
         </is>
       </c>
       <c r="P929" t="n">
-        <v>2431331690</v>
+        <v>733904836</v>
       </c>
     </row>
     <row r="930">
@@ -45183,7 +45183,7 @@
         </is>
       </c>
       <c r="P930" t="n">
-        <v>166098754</v>
+        <v>7145642600</v>
       </c>
     </row>
     <row r="931">
@@ -45231,7 +45231,7 @@
         </is>
       </c>
       <c r="P931" t="n">
-        <v>9287860224</v>
+        <v>3012985773</v>
       </c>
     </row>
     <row r="932">
@@ -45279,7 +45279,7 @@
         </is>
       </c>
       <c r="P932" t="n">
-        <v>580524441</v>
+        <v>5652080900</v>
       </c>
     </row>
     <row r="933">
@@ -45327,7 +45327,7 @@
         </is>
       </c>
       <c r="P933" t="n">
-        <v>2205099546</v>
+        <v>6042797815</v>
       </c>
     </row>
     <row r="934">
@@ -45375,7 +45375,7 @@
         </is>
       </c>
       <c r="P934" t="n">
-        <v>8376685368</v>
+        <v>6116225796</v>
       </c>
     </row>
     <row r="935">
@@ -45423,7 +45423,7 @@
         </is>
       </c>
       <c r="P935" t="n">
-        <v>6595235228</v>
+        <v>6488502114</v>
       </c>
     </row>
     <row r="936">
@@ -45471,7 +45471,7 @@
         </is>
       </c>
       <c r="P936" t="n">
-        <v>356737639</v>
+        <v>2973500129</v>
       </c>
     </row>
     <row r="937">
@@ -45519,7 +45519,7 @@
         </is>
       </c>
       <c r="P937" t="n">
-        <v>8527221394</v>
+        <v>308037413</v>
       </c>
     </row>
     <row r="938">
@@ -45567,7 +45567,7 @@
         </is>
       </c>
       <c r="P938" t="n">
-        <v>8482855798</v>
+        <v>1020109825</v>
       </c>
     </row>
     <row r="939">
@@ -45615,7 +45615,7 @@
         </is>
       </c>
       <c r="P939" t="n">
-        <v>6952113132</v>
+        <v>6422082764</v>
       </c>
     </row>
     <row r="940">
@@ -45663,7 +45663,7 @@
         </is>
       </c>
       <c r="P940" t="n">
-        <v>5175146822</v>
+        <v>1314342468</v>
       </c>
     </row>
     <row r="941">
@@ -45711,7 +45711,7 @@
         </is>
       </c>
       <c r="P941" t="n">
-        <v>7608957246</v>
+        <v>6230460363</v>
       </c>
     </row>
     <row r="942">
@@ -45759,7 +45759,7 @@
         </is>
       </c>
       <c r="P942" t="n">
-        <v>3042516517</v>
+        <v>3236483350</v>
       </c>
     </row>
     <row r="943">
@@ -45807,7 +45807,7 @@
         </is>
       </c>
       <c r="P943" t="n">
-        <v>629662990</v>
+        <v>222751345</v>
       </c>
     </row>
     <row r="944">
@@ -45855,7 +45855,7 @@
         </is>
       </c>
       <c r="P944" t="n">
-        <v>5785135005</v>
+        <v>2097735064</v>
       </c>
     </row>
     <row r="945">
@@ -45903,7 +45903,7 @@
         </is>
       </c>
       <c r="P945" t="n">
-        <v>3240767591</v>
+        <v>8778107865</v>
       </c>
     </row>
     <row r="946">
@@ -45951,7 +45951,7 @@
         </is>
       </c>
       <c r="P946" t="n">
-        <v>3068267732</v>
+        <v>3150404687</v>
       </c>
     </row>
     <row r="947">
@@ -45999,7 +45999,7 @@
         </is>
       </c>
       <c r="P947" t="n">
-        <v>8473803717</v>
+        <v>5576797216</v>
       </c>
     </row>
     <row r="948">
@@ -46047,7 +46047,7 @@
         </is>
       </c>
       <c r="P948" t="n">
-        <v>5091736262</v>
+        <v>2366235170</v>
       </c>
     </row>
     <row r="949">
@@ -46095,7 +46095,7 @@
         </is>
       </c>
       <c r="P949" t="n">
-        <v>9724225536</v>
+        <v>770985292</v>
       </c>
     </row>
     <row r="950">
@@ -46143,7 +46143,7 @@
         </is>
       </c>
       <c r="P950" t="n">
-        <v>6526206565</v>
+        <v>3875852867</v>
       </c>
     </row>
     <row r="951">
@@ -46191,7 +46191,7 @@
         </is>
       </c>
       <c r="P951" t="n">
-        <v>341616466</v>
+        <v>3901948772</v>
       </c>
     </row>
     <row r="952">
@@ -46239,7 +46239,7 @@
         </is>
       </c>
       <c r="P952" t="n">
-        <v>6869115301</v>
+        <v>4054779752</v>
       </c>
     </row>
     <row r="953">
@@ -46287,7 +46287,7 @@
         </is>
       </c>
       <c r="P953" t="n">
-        <v>2657176529</v>
+        <v>9935498079</v>
       </c>
     </row>
     <row r="954">
@@ -46335,7 +46335,7 @@
         </is>
       </c>
       <c r="P954" t="n">
-        <v>2078393339</v>
+        <v>9326843423</v>
       </c>
     </row>
     <row r="955">
@@ -46383,7 +46383,7 @@
         </is>
       </c>
       <c r="P955" t="n">
-        <v>3335056876</v>
+        <v>9623090444</v>
       </c>
     </row>
     <row r="956">
@@ -46431,7 +46431,7 @@
         </is>
       </c>
       <c r="P956" t="n">
-        <v>3232987842</v>
+        <v>8931315</v>
       </c>
     </row>
     <row r="957">
@@ -46475,7 +46475,7 @@
         </is>
       </c>
       <c r="P957" t="n">
-        <v>9870046777</v>
+        <v>4855635624</v>
       </c>
     </row>
     <row r="958">
@@ -46523,7 +46523,7 @@
         </is>
       </c>
       <c r="P958" t="n">
-        <v>4026450228</v>
+        <v>742352573</v>
       </c>
     </row>
     <row r="959">
@@ -46571,7 +46571,7 @@
         </is>
       </c>
       <c r="P959" t="n">
-        <v>4583881779</v>
+        <v>1293979617</v>
       </c>
     </row>
     <row r="960">
@@ -46619,7 +46619,7 @@
         </is>
       </c>
       <c r="P960" t="n">
-        <v>1283142176</v>
+        <v>8811542669</v>
       </c>
     </row>
     <row r="961">
@@ -46667,7 +46667,7 @@
         </is>
       </c>
       <c r="P961" t="n">
-        <v>5670008930</v>
+        <v>3216342945</v>
       </c>
     </row>
     <row r="962">
@@ -46715,7 +46715,7 @@
         </is>
       </c>
       <c r="P962" t="n">
-        <v>5410219137</v>
+        <v>6451444087</v>
       </c>
     </row>
     <row r="963">
@@ -46763,7 +46763,7 @@
         </is>
       </c>
       <c r="P963" t="n">
-        <v>9391165741</v>
+        <v>588011208</v>
       </c>
     </row>
     <row r="964">
@@ -46811,7 +46811,7 @@
         </is>
       </c>
       <c r="P964" t="n">
-        <v>5397139304</v>
+        <v>7381931063</v>
       </c>
     </row>
     <row r="965">
@@ -46859,7 +46859,7 @@
         </is>
       </c>
       <c r="P965" t="n">
-        <v>1908011286</v>
+        <v>1772140773</v>
       </c>
     </row>
     <row r="966">
@@ -46907,7 +46907,7 @@
         </is>
       </c>
       <c r="P966" t="n">
-        <v>4569627594</v>
+        <v>2861217778</v>
       </c>
     </row>
     <row r="967">
@@ -46955,7 +46955,7 @@
         </is>
       </c>
       <c r="P967" t="n">
-        <v>9736337348</v>
+        <v>9567997115</v>
       </c>
     </row>
     <row r="968">
@@ -47003,7 +47003,7 @@
         </is>
       </c>
       <c r="P968" t="n">
-        <v>9866934261</v>
+        <v>3675704470</v>
       </c>
     </row>
     <row r="969">
@@ -47051,7 +47051,7 @@
         </is>
       </c>
       <c r="P969" t="n">
-        <v>6688277680</v>
+        <v>4997193454</v>
       </c>
     </row>
     <row r="970">
@@ -47095,7 +47095,7 @@
         </is>
       </c>
       <c r="P970" t="n">
-        <v>5653566663</v>
+        <v>3438295621</v>
       </c>
     </row>
     <row r="971">
@@ -47139,7 +47139,7 @@
         </is>
       </c>
       <c r="P971" t="n">
-        <v>2882385229</v>
+        <v>157521320</v>
       </c>
     </row>
     <row r="972">
@@ -47183,7 +47183,7 @@
         </is>
       </c>
       <c r="P972" t="n">
-        <v>2616777775</v>
+        <v>6564269353</v>
       </c>
     </row>
     <row r="973">
@@ -47227,7 +47227,7 @@
         </is>
       </c>
       <c r="P973" t="n">
-        <v>4157238398</v>
+        <v>2410617250</v>
       </c>
     </row>
     <row r="974">
@@ -47271,7 +47271,7 @@
         </is>
       </c>
       <c r="P974" t="n">
-        <v>3995002755</v>
+        <v>4691703035</v>
       </c>
     </row>
     <row r="975">
@@ -47317,7 +47317,7 @@
         </is>
       </c>
       <c r="P975" t="n">
-        <v>7605525452</v>
+        <v>668885306</v>
       </c>
     </row>
     <row r="976">
@@ -47361,7 +47361,7 @@
         </is>
       </c>
       <c r="P976" t="n">
-        <v>2372385868</v>
+        <v>8791922481</v>
       </c>
     </row>
     <row r="977">
@@ -47405,7 +47405,7 @@
         </is>
       </c>
       <c r="P977" t="n">
-        <v>4042853888</v>
+        <v>3279439034</v>
       </c>
     </row>
     <row r="978">
@@ -47449,7 +47449,7 @@
         </is>
       </c>
       <c r="P978" t="n">
-        <v>9251782287</v>
+        <v>6654110528</v>
       </c>
     </row>
     <row r="979">
@@ -47493,7 +47493,7 @@
         </is>
       </c>
       <c r="P979" t="n">
-        <v>4825438401</v>
+        <v>9622495121</v>
       </c>
     </row>
     <row r="980">
@@ -47537,7 +47537,7 @@
         </is>
       </c>
       <c r="P980" t="n">
-        <v>897759263</v>
+        <v>3072846766</v>
       </c>
     </row>
     <row r="981">
@@ -47581,7 +47581,7 @@
         </is>
       </c>
       <c r="P981" t="n">
-        <v>4447537403</v>
+        <v>9385781425</v>
       </c>
     </row>
     <row r="982">
@@ -47625,7 +47625,7 @@
         </is>
       </c>
       <c r="P982" t="n">
-        <v>2664655130</v>
+        <v>9702895128</v>
       </c>
     </row>
     <row r="983">
@@ -47669,7 +47669,7 @@
         </is>
       </c>
       <c r="P983" t="n">
-        <v>4018181540</v>
+        <v>6339373877</v>
       </c>
     </row>
     <row r="984">
@@ -47713,7 +47713,7 @@
         </is>
       </c>
       <c r="P984" t="n">
-        <v>5910466212</v>
+        <v>2292711786</v>
       </c>
     </row>
     <row r="985">
@@ -47757,7 +47757,7 @@
         </is>
       </c>
       <c r="P985" t="n">
-        <v>9534100623</v>
+        <v>1823136084</v>
       </c>
     </row>
     <row r="986">
@@ -47801,7 +47801,7 @@
         </is>
       </c>
       <c r="P986" t="n">
-        <v>782158680</v>
+        <v>2662270035</v>
       </c>
     </row>
     <row r="987">
@@ -47845,7 +47845,7 @@
         </is>
       </c>
       <c r="P987" t="n">
-        <v>1602008568</v>
+        <v>8067473099</v>
       </c>
     </row>
     <row r="988">
@@ -47889,7 +47889,7 @@
         </is>
       </c>
       <c r="P988" t="n">
-        <v>6965278608</v>
+        <v>2944436977</v>
       </c>
     </row>
     <row r="989">
@@ -47933,7 +47933,7 @@
         </is>
       </c>
       <c r="P989" t="n">
-        <v>8032167809</v>
+        <v>2870669463</v>
       </c>
     </row>
     <row r="990">
@@ -47977,7 +47977,7 @@
         </is>
       </c>
       <c r="P990" t="n">
-        <v>5087835063</v>
+        <v>9741527740</v>
       </c>
     </row>
     <row r="991">
@@ -48021,7 +48021,7 @@
         </is>
       </c>
       <c r="P991" t="n">
-        <v>6906357215</v>
+        <v>1160430138</v>
       </c>
     </row>
     <row r="992">
@@ -48065,7 +48065,7 @@
         </is>
       </c>
       <c r="P992" t="n">
-        <v>2388986955</v>
+        <v>5587676495</v>
       </c>
     </row>
     <row r="993">
@@ -48109,7 +48109,7 @@
         </is>
       </c>
       <c r="P993" t="n">
-        <v>3969109250</v>
+        <v>7454986203</v>
       </c>
     </row>
     <row r="994">
@@ -48153,7 +48153,7 @@
         </is>
       </c>
       <c r="P994" t="n">
-        <v>3749448035</v>
+        <v>5552567223</v>
       </c>
     </row>
     <row r="995">
@@ -48197,7 +48197,7 @@
         </is>
       </c>
       <c r="P995" t="n">
-        <v>11299293</v>
+        <v>5904901091</v>
       </c>
     </row>
     <row r="996">
@@ -48241,7 +48241,7 @@
         </is>
       </c>
       <c r="P996" t="n">
-        <v>4388871806</v>
+        <v>5634798701</v>
       </c>
     </row>
     <row r="997">
@@ -48285,7 +48285,7 @@
         </is>
       </c>
       <c r="P997" t="n">
-        <v>6758316517</v>
+        <v>2478986964</v>
       </c>
     </row>
     <row r="998">
@@ -48329,7 +48329,7 @@
         </is>
       </c>
       <c r="P998" t="n">
-        <v>7680059492</v>
+        <v>5777543066</v>
       </c>
     </row>
     <row r="999">
@@ -48373,7 +48373,7 @@
         </is>
       </c>
       <c r="P999" t="n">
-        <v>7979141560</v>
+        <v>5545380589</v>
       </c>
     </row>
     <row r="1000">
@@ -48419,7 +48419,7 @@
         </is>
       </c>
       <c r="P1000" t="n">
-        <v>1714949278</v>
+        <v>4938043763</v>
       </c>
     </row>
     <row r="1001">
@@ -48463,7 +48463,7 @@
         </is>
       </c>
       <c r="P1001" t="n">
-        <v>7661191038</v>
+        <v>7317087019</v>
       </c>
     </row>
     <row r="1002">
@@ -48507,7 +48507,7 @@
         </is>
       </c>
       <c r="P1002" t="n">
-        <v>1252859608</v>
+        <v>3789472094</v>
       </c>
     </row>
     <row r="1003">
@@ -48551,7 +48551,7 @@
         </is>
       </c>
       <c r="P1003" t="n">
-        <v>9248466180</v>
+        <v>4384357721</v>
       </c>
     </row>
     <row r="1004">
@@ -48597,7 +48597,7 @@
         </is>
       </c>
       <c r="P1004" t="n">
-        <v>2976458355</v>
+        <v>7522928994</v>
       </c>
     </row>
     <row r="1005">
@@ -48641,7 +48641,7 @@
         </is>
       </c>
       <c r="P1005" t="n">
-        <v>5615511970</v>
+        <v>53333163</v>
       </c>
     </row>
     <row r="1006">
@@ -48685,7 +48685,7 @@
         </is>
       </c>
       <c r="P1006" t="n">
-        <v>8430978166</v>
+        <v>8097549147</v>
       </c>
     </row>
     <row r="1007">
@@ -48729,7 +48729,7 @@
         </is>
       </c>
       <c r="P1007" t="n">
-        <v>8404227793</v>
+        <v>9632759203</v>
       </c>
     </row>
     <row r="1008">
@@ -48773,7 +48773,7 @@
         </is>
       </c>
       <c r="P1008" t="n">
-        <v>7691846945</v>
+        <v>3454389938</v>
       </c>
     </row>
     <row r="1009">
@@ -48817,7 +48817,7 @@
         </is>
       </c>
       <c r="P1009" t="n">
-        <v>4706270599</v>
+        <v>5762172168</v>
       </c>
     </row>
     <row r="1010">
@@ -48861,7 +48861,7 @@
         </is>
       </c>
       <c r="P1010" t="n">
-        <v>6393054620</v>
+        <v>15883130</v>
       </c>
     </row>
     <row r="1011">
@@ -48907,7 +48907,7 @@
         </is>
       </c>
       <c r="P1011" t="n">
-        <v>8118764242</v>
+        <v>7334130090</v>
       </c>
     </row>
     <row r="1012">
@@ -48951,7 +48951,7 @@
         </is>
       </c>
       <c r="P1012" t="n">
-        <v>3874331469</v>
+        <v>2735001735</v>
       </c>
     </row>
     <row r="1013">
@@ -48995,7 +48995,7 @@
         </is>
       </c>
       <c r="P1013" t="n">
-        <v>6901967081</v>
+        <v>7585214828</v>
       </c>
     </row>
     <row r="1014">
@@ -49039,7 +49039,7 @@
         </is>
       </c>
       <c r="P1014" t="n">
-        <v>1068533138</v>
+        <v>3868049269</v>
       </c>
     </row>
     <row r="1015">
@@ -49083,7 +49083,7 @@
         </is>
       </c>
       <c r="P1015" t="n">
-        <v>4938780912</v>
+        <v>1743514570</v>
       </c>
     </row>
     <row r="1016">
@@ -49129,7 +49129,7 @@
         </is>
       </c>
       <c r="P1016" t="n">
-        <v>9801395210</v>
+        <v>8934521849</v>
       </c>
     </row>
     <row r="1017">
@@ -49173,7 +49173,7 @@
         </is>
       </c>
       <c r="P1017" t="n">
-        <v>1583737301</v>
+        <v>4374817565</v>
       </c>
     </row>
     <row r="1018">
@@ -49217,7 +49217,7 @@
         </is>
       </c>
       <c r="P1018" t="n">
-        <v>8920009437</v>
+        <v>605630031</v>
       </c>
     </row>
     <row r="1019">
@@ -49261,7 +49261,7 @@
         </is>
       </c>
       <c r="P1019" t="n">
-        <v>7620215565</v>
+        <v>1629765497</v>
       </c>
     </row>
     <row r="1020">
@@ -49305,7 +49305,7 @@
         </is>
       </c>
       <c r="P1020" t="n">
-        <v>3506416584</v>
+        <v>257517020</v>
       </c>
     </row>
     <row r="1021">
@@ -49349,7 +49349,7 @@
         </is>
       </c>
       <c r="P1021" t="n">
-        <v>6708047465</v>
+        <v>6911746685</v>
       </c>
     </row>
     <row r="1022">
@@ -49393,7 +49393,7 @@
         </is>
       </c>
       <c r="P1022" t="n">
-        <v>7300500141</v>
+        <v>4746238712</v>
       </c>
     </row>
     <row r="1023">
@@ -49437,7 +49437,7 @@
         </is>
       </c>
       <c r="P1023" t="n">
-        <v>1492357494</v>
+        <v>2613538004</v>
       </c>
     </row>
     <row r="1024">
@@ -49481,7 +49481,7 @@
         </is>
       </c>
       <c r="P1024" t="n">
-        <v>1382055036</v>
+        <v>7974918998</v>
       </c>
     </row>
     <row r="1025">
@@ -49525,7 +49525,7 @@
         </is>
       </c>
       <c r="P1025" t="n">
-        <v>2308634499</v>
+        <v>7240475723</v>
       </c>
     </row>
     <row r="1026">
@@ -49569,7 +49569,7 @@
         </is>
       </c>
       <c r="P1026" t="n">
-        <v>9652003419</v>
+        <v>7366893681</v>
       </c>
     </row>
     <row r="1027">
@@ -49613,7 +49613,7 @@
         </is>
       </c>
       <c r="P1027" t="n">
-        <v>8758642513</v>
+        <v>1699716918</v>
       </c>
     </row>
     <row r="1028">
@@ -49657,7 +49657,7 @@
         </is>
       </c>
       <c r="P1028" t="n">
-        <v>3233333402</v>
+        <v>7156371275</v>
       </c>
     </row>
     <row r="1029">
@@ -49701,7 +49701,7 @@
         </is>
       </c>
       <c r="P1029" t="n">
-        <v>4236721482</v>
+        <v>9085544012</v>
       </c>
     </row>
     <row r="1030">
@@ -49745,7 +49745,7 @@
         </is>
       </c>
       <c r="P1030" t="n">
-        <v>6767168137</v>
+        <v>5715952931</v>
       </c>
     </row>
     <row r="1031">
@@ -49789,7 +49789,7 @@
         </is>
       </c>
       <c r="P1031" t="n">
-        <v>1061115222</v>
+        <v>8514136748</v>
       </c>
     </row>
     <row r="1032">
@@ -49833,7 +49833,7 @@
         </is>
       </c>
       <c r="P1032" t="n">
-        <v>8052793361</v>
+        <v>122470817</v>
       </c>
     </row>
     <row r="1033">
@@ -49877,7 +49877,7 @@
         </is>
       </c>
       <c r="P1033" t="n">
-        <v>1203587019</v>
+        <v>6994990298</v>
       </c>
     </row>
     <row r="1034">
@@ -49921,7 +49921,7 @@
         </is>
       </c>
       <c r="P1034" t="n">
-        <v>7077562917</v>
+        <v>995913981</v>
       </c>
     </row>
     <row r="1035">
@@ -49967,7 +49967,7 @@
         </is>
       </c>
       <c r="P1035" t="n">
-        <v>7832185074</v>
+        <v>3133569515</v>
       </c>
     </row>
     <row r="1036">
@@ -50011,7 +50011,7 @@
         </is>
       </c>
       <c r="P1036" t="n">
-        <v>7778146271</v>
+        <v>3197408278</v>
       </c>
     </row>
     <row r="1037">
@@ -50055,7 +50055,7 @@
         </is>
       </c>
       <c r="P1037" t="n">
-        <v>8282977744</v>
+        <v>6597901828</v>
       </c>
     </row>
     <row r="1038">
@@ -50099,7 +50099,7 @@
         </is>
       </c>
       <c r="P1038" t="n">
-        <v>1909791042</v>
+        <v>6437927266</v>
       </c>
     </row>
     <row r="1039">
@@ -50143,7 +50143,7 @@
         </is>
       </c>
       <c r="P1039" t="n">
-        <v>9546951460</v>
+        <v>7468038966</v>
       </c>
     </row>
     <row r="1040">
@@ -50187,7 +50187,7 @@
         </is>
       </c>
       <c r="P1040" t="n">
-        <v>6322293099</v>
+        <v>875471287</v>
       </c>
     </row>
     <row r="1041">
@@ -50231,7 +50231,7 @@
         </is>
       </c>
       <c r="P1041" t="n">
-        <v>1583335868</v>
+        <v>2598618732</v>
       </c>
     </row>
     <row r="1042">
@@ -50275,7 +50275,7 @@
         </is>
       </c>
       <c r="P1042" t="n">
-        <v>5573536984</v>
+        <v>5609040135</v>
       </c>
     </row>
     <row r="1043">
@@ -50319,7 +50319,7 @@
         </is>
       </c>
       <c r="P1043" t="n">
-        <v>7046783286</v>
+        <v>113778943</v>
       </c>
     </row>
     <row r="1044">
@@ -50363,7 +50363,7 @@
         </is>
       </c>
       <c r="P1044" t="n">
-        <v>8730417476</v>
+        <v>2073123089</v>
       </c>
     </row>
     <row r="1045">
@@ -50407,7 +50407,7 @@
         </is>
       </c>
       <c r="P1045" t="n">
-        <v>8624767725</v>
+        <v>7875984527</v>
       </c>
     </row>
     <row r="1046">
@@ -50451,7 +50451,7 @@
         </is>
       </c>
       <c r="P1046" t="n">
-        <v>7823843595</v>
+        <v>173474830</v>
       </c>
     </row>
     <row r="1047">
@@ -50495,7 +50495,7 @@
         </is>
       </c>
       <c r="P1047" t="n">
-        <v>6977431266</v>
+        <v>8771764359</v>
       </c>
     </row>
     <row r="1048">
@@ -50539,7 +50539,7 @@
         </is>
       </c>
       <c r="P1048" t="n">
-        <v>120473927</v>
+        <v>8757790779</v>
       </c>
     </row>
     <row r="1049">
@@ -50583,7 +50583,7 @@
         </is>
       </c>
       <c r="P1049" t="n">
-        <v>5029060291</v>
+        <v>4956394648</v>
       </c>
     </row>
     <row r="1050">
@@ -50627,7 +50627,7 @@
         </is>
       </c>
       <c r="P1050" t="n">
-        <v>6676577329</v>
+        <v>6590390159</v>
       </c>
     </row>
     <row r="1051">
@@ -50671,7 +50671,7 @@
         </is>
       </c>
       <c r="P1051" t="n">
-        <v>5721643624</v>
+        <v>5325546068</v>
       </c>
     </row>
     <row r="1052">
@@ -50717,7 +50717,7 @@
         </is>
       </c>
       <c r="P1052" t="n">
-        <v>1159567782</v>
+        <v>3128878886</v>
       </c>
     </row>
     <row r="1053">
@@ -50761,7 +50761,7 @@
         </is>
       </c>
       <c r="P1053" t="n">
-        <v>9405072662</v>
+        <v>5061398536</v>
       </c>
     </row>
     <row r="1054">
@@ -50805,7 +50805,7 @@
         </is>
       </c>
       <c r="P1054" t="n">
-        <v>3612182454</v>
+        <v>697164725</v>
       </c>
     </row>
     <row r="1055">
@@ -50849,7 +50849,7 @@
         </is>
       </c>
       <c r="P1055" t="n">
-        <v>895574142</v>
+        <v>4799402482</v>
       </c>
     </row>
     <row r="1056">
@@ -50893,7 +50893,7 @@
         </is>
       </c>
       <c r="P1056" t="n">
-        <v>8630301325</v>
+        <v>1834589069</v>
       </c>
     </row>
     <row r="1057">
@@ -50939,7 +50939,7 @@
         </is>
       </c>
       <c r="P1057" t="n">
-        <v>3449074490</v>
+        <v>9042276413</v>
       </c>
     </row>
     <row r="1058">
@@ -50983,7 +50983,7 @@
         </is>
       </c>
       <c r="P1058" t="n">
-        <v>5960680509</v>
+        <v>2243589124</v>
       </c>
     </row>
     <row r="1059">
@@ -51027,7 +51027,7 @@
         </is>
       </c>
       <c r="P1059" t="n">
-        <v>9300515333</v>
+        <v>3882820571</v>
       </c>
     </row>
     <row r="1060">
@@ -51071,7 +51071,7 @@
         </is>
       </c>
       <c r="P1060" t="n">
-        <v>4450953505</v>
+        <v>8433588004</v>
       </c>
     </row>
     <row r="1061">
@@ -51115,7 +51115,7 @@
         </is>
       </c>
       <c r="P1061" t="n">
-        <v>1738547663</v>
+        <v>489343627</v>
       </c>
     </row>
     <row r="1062">
@@ -51159,7 +51159,7 @@
         </is>
       </c>
       <c r="P1062" t="n">
-        <v>2037188181</v>
+        <v>622823219</v>
       </c>
     </row>
     <row r="1063">
@@ -51203,7 +51203,7 @@
         </is>
       </c>
       <c r="P1063" t="n">
-        <v>5563339579</v>
+        <v>1366488786</v>
       </c>
     </row>
     <row r="1064">
@@ -51247,7 +51247,7 @@
         </is>
       </c>
       <c r="P1064" t="n">
-        <v>3210147594</v>
+        <v>9001986554</v>
       </c>
     </row>
     <row r="1065">
@@ -51291,7 +51291,7 @@
         </is>
       </c>
       <c r="P1065" t="n">
-        <v>1191441405</v>
+        <v>6684350264</v>
       </c>
     </row>
     <row r="1066">
@@ -51335,7 +51335,7 @@
         </is>
       </c>
       <c r="P1066" t="n">
-        <v>8903409953</v>
+        <v>8498142971</v>
       </c>
     </row>
     <row r="1067">
@@ -51379,7 +51379,7 @@
         </is>
       </c>
       <c r="P1067" t="n">
-        <v>1893201710</v>
+        <v>6182562172</v>
       </c>
     </row>
     <row r="1068">
@@ -51423,7 +51423,7 @@
         </is>
       </c>
       <c r="P1068" t="n">
-        <v>6165622496</v>
+        <v>1769674543</v>
       </c>
     </row>
     <row r="1069">
@@ -51467,7 +51467,7 @@
         </is>
       </c>
       <c r="P1069" t="n">
-        <v>9049229132</v>
+        <v>9485574741</v>
       </c>
     </row>
     <row r="1070">
@@ -51511,7 +51511,7 @@
         </is>
       </c>
       <c r="P1070" t="n">
-        <v>1040221716</v>
+        <v>7736595820</v>
       </c>
     </row>
     <row r="1071">
@@ -51555,7 +51555,7 @@
         </is>
       </c>
       <c r="P1071" t="n">
-        <v>7731493141</v>
+        <v>5173725104</v>
       </c>
     </row>
     <row r="1072">
@@ -51599,7 +51599,7 @@
         </is>
       </c>
       <c r="P1072" t="n">
-        <v>9391381210</v>
+        <v>7145135803</v>
       </c>
     </row>
     <row r="1073">
@@ -51643,7 +51643,7 @@
         </is>
       </c>
       <c r="P1073" t="n">
-        <v>8069667566</v>
+        <v>2165588885</v>
       </c>
     </row>
     <row r="1074">
@@ -51687,7 +51687,7 @@
         </is>
       </c>
       <c r="P1074" t="n">
-        <v>2534265733</v>
+        <v>6474401972</v>
       </c>
     </row>
     <row r="1075">
@@ -51731,7 +51731,7 @@
         </is>
       </c>
       <c r="P1075" t="n">
-        <v>9174910632</v>
+        <v>5689028421</v>
       </c>
     </row>
     <row r="1076">
@@ -51775,7 +51775,7 @@
         </is>
       </c>
       <c r="P1076" t="n">
-        <v>1595399758</v>
+        <v>2239707983</v>
       </c>
     </row>
     <row r="1077">
@@ -51819,7 +51819,7 @@
         </is>
       </c>
       <c r="P1077" t="n">
-        <v>3816964841</v>
+        <v>2176544144</v>
       </c>
     </row>
     <row r="1078">
@@ -51863,7 +51863,7 @@
         </is>
       </c>
       <c r="P1078" t="n">
-        <v>6326562967</v>
+        <v>2868659073</v>
       </c>
     </row>
     <row r="1079">
@@ -51907,7 +51907,7 @@
         </is>
       </c>
       <c r="P1079" t="n">
-        <v>7211025287</v>
+        <v>9265847123</v>
       </c>
     </row>
     <row r="1080">
@@ -51951,7 +51951,7 @@
         </is>
       </c>
       <c r="P1080" t="n">
-        <v>4196116076</v>
+        <v>1805846840</v>
       </c>
     </row>
     <row r="1081">
@@ -51995,7 +51995,7 @@
         </is>
       </c>
       <c r="P1081" t="n">
-        <v>7515943521</v>
+        <v>2136749413</v>
       </c>
     </row>
     <row r="1082">
@@ -52039,7 +52039,7 @@
         </is>
       </c>
       <c r="P1082" t="n">
-        <v>1911621122</v>
+        <v>7424831452</v>
       </c>
     </row>
     <row r="1083">
@@ -52083,7 +52083,7 @@
         </is>
       </c>
       <c r="P1083" t="n">
-        <v>6928926458</v>
+        <v>9608077622</v>
       </c>
     </row>
     <row r="1084">
@@ -52127,7 +52127,7 @@
         </is>
       </c>
       <c r="P1084" t="n">
-        <v>6673351045</v>
+        <v>9502971081</v>
       </c>
     </row>
     <row r="1085">
@@ -52171,7 +52171,7 @@
         </is>
       </c>
       <c r="P1085" t="n">
-        <v>3093540287</v>
+        <v>6997887336</v>
       </c>
     </row>
     <row r="1086">
@@ -52215,7 +52215,7 @@
         </is>
       </c>
       <c r="P1086" t="n">
-        <v>3360926717</v>
+        <v>1003100748</v>
       </c>
     </row>
     <row r="1087">
@@ -52259,7 +52259,7 @@
         </is>
       </c>
       <c r="P1087" t="n">
-        <v>2933353464</v>
+        <v>6100108051</v>
       </c>
     </row>
     <row r="1088">
@@ -52303,7 +52303,7 @@
         </is>
       </c>
       <c r="P1088" t="n">
-        <v>4165466943</v>
+        <v>6597868647</v>
       </c>
     </row>
     <row r="1089">
@@ -52343,7 +52343,7 @@
         </is>
       </c>
       <c r="P1089" t="n">
-        <v>9158145107</v>
+        <v>5017266672</v>
       </c>
     </row>
     <row r="1090">
@@ -52387,7 +52387,7 @@
         </is>
       </c>
       <c r="P1090" t="n">
-        <v>9115258901</v>
+        <v>1113749815</v>
       </c>
     </row>
     <row r="1091">
@@ -52431,7 +52431,7 @@
         </is>
       </c>
       <c r="P1091" t="n">
-        <v>7270543944</v>
+        <v>8845885685</v>
       </c>
     </row>
     <row r="1092">
@@ -52475,7 +52475,7 @@
         </is>
       </c>
       <c r="P1092" t="n">
-        <v>9353271276</v>
+        <v>1320722206</v>
       </c>
     </row>
     <row r="1093">
@@ -52519,7 +52519,7 @@
         </is>
       </c>
       <c r="P1093" t="n">
-        <v>5249653270</v>
+        <v>8015657365</v>
       </c>
     </row>
     <row r="1094">
@@ -52563,7 +52563,7 @@
         </is>
       </c>
       <c r="P1094" t="n">
-        <v>3244486044</v>
+        <v>134778445</v>
       </c>
     </row>
     <row r="1095">
@@ -52607,7 +52607,7 @@
         </is>
       </c>
       <c r="P1095" t="n">
-        <v>482854076</v>
+        <v>46977208</v>
       </c>
     </row>
     <row r="1096">
@@ -52651,7 +52651,7 @@
         </is>
       </c>
       <c r="P1096" t="n">
-        <v>6922754540</v>
+        <v>4813868668</v>
       </c>
     </row>
     <row r="1097">
@@ -52695,7 +52695,7 @@
         </is>
       </c>
       <c r="P1097" t="n">
-        <v>7131577468</v>
+        <v>7452092518</v>
       </c>
     </row>
     <row r="1098">
@@ -52739,7 +52739,7 @@
         </is>
       </c>
       <c r="P1098" t="n">
-        <v>3338006677</v>
+        <v>5498714521</v>
       </c>
     </row>
     <row r="1099">
@@ -52783,7 +52783,7 @@
         </is>
       </c>
       <c r="P1099" t="n">
-        <v>5581477038</v>
+        <v>8693436254</v>
       </c>
     </row>
     <row r="1100">
@@ -52827,7 +52827,7 @@
         </is>
       </c>
       <c r="P1100" t="n">
-        <v>8570667761</v>
+        <v>474363025</v>
       </c>
     </row>
     <row r="1101">
@@ -52871,7 +52871,7 @@
         </is>
       </c>
       <c r="P1101" t="n">
-        <v>1158333900</v>
+        <v>9681827437</v>
       </c>
     </row>
     <row r="1102">
@@ -52915,7 +52915,7 @@
         </is>
       </c>
       <c r="P1102" t="n">
-        <v>1578242220</v>
+        <v>4538661309</v>
       </c>
     </row>
     <row r="1103">
@@ -52959,7 +52959,7 @@
         </is>
       </c>
       <c r="P1103" t="n">
-        <v>4791587432</v>
+        <v>5232943012</v>
       </c>
     </row>
     <row r="1104">
@@ -53003,7 +53003,7 @@
         </is>
       </c>
       <c r="P1104" t="n">
-        <v>6272956589</v>
+        <v>6909760563</v>
       </c>
     </row>
     <row r="1105">
@@ -53047,7 +53047,7 @@
         </is>
       </c>
       <c r="P1105" t="n">
-        <v>3023630830</v>
+        <v>5892999042</v>
       </c>
     </row>
     <row r="1106">
@@ -53091,7 +53091,7 @@
         </is>
       </c>
       <c r="P1106" t="n">
-        <v>8254671209</v>
+        <v>5717955864</v>
       </c>
     </row>
     <row r="1107">
@@ -53135,7 +53135,7 @@
         </is>
       </c>
       <c r="P1107" t="n">
-        <v>1759674228</v>
+        <v>7609676660</v>
       </c>
     </row>
     <row r="1108">
@@ -53179,7 +53179,7 @@
         </is>
       </c>
       <c r="P1108" t="n">
-        <v>1275577180</v>
+        <v>8338668867</v>
       </c>
     </row>
     <row r="1109">
@@ -53223,7 +53223,7 @@
         </is>
       </c>
       <c r="P1109" t="n">
-        <v>4317194079</v>
+        <v>9834830260</v>
       </c>
     </row>
     <row r="1110">
@@ -53267,7 +53267,7 @@
         </is>
       </c>
       <c r="P1110" t="n">
-        <v>2660331091</v>
+        <v>4765447212</v>
       </c>
     </row>
     <row r="1111">
@@ -53305,7 +53305,7 @@
         </is>
       </c>
       <c r="P1111" t="n">
-        <v>7713006607</v>
+        <v>8618842523</v>
       </c>
     </row>
   </sheetData>
